--- a/Data/FA data.xlsx
+++ b/Data/FA data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6f6b72e76f08e263/UIT/Data/FA data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erwin\OneDrive\Manuscript Erwin Kers\R script + data\Manuscript-1.0\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="387" documentId="8_{DC187BEC-DC41-4401-B5E6-8CB23DF301C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36227B17-A14C-49B1-B3F5-CA8E15E3E6DE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39259228-B7E6-4949-B46B-1F193C0D79C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2505" yWindow="1095" windowWidth="16695" windowHeight="19635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="232">
   <si>
     <t>Myristic acid</t>
   </si>
@@ -727,6 +727,12 @@
   <si>
     <t>conc</t>
   </si>
+  <si>
+    <t>Phytoplankton fatty acids</t>
+  </si>
+  <si>
+    <t>PhytFA</t>
+  </si>
 </sst>
 </file>
 
@@ -1147,10 +1153,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BQ207"/>
+  <dimension ref="A1:BS207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BS19" sqref="BS19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1169,11 +1175,12 @@
     <col min="60" max="60" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="62" max="63" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="65" max="71" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="10.7109375" customWidth="1"/>
+    <col min="65" max="65" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="66" max="72" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>102</v>
       </c>
@@ -1364,16 +1371,19 @@
         <v>51</v>
       </c>
       <c r="BL1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="BM1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>102</v>
       </c>
@@ -1564,16 +1574,19 @@
         <v>213</v>
       </c>
       <c r="BL2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="BM2" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="BM2" s="1" t="s">
+      <c r="BN2" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="BN2" s="1" t="s">
+      <c r="BO2" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>43943</v>
       </c>
@@ -1744,7 +1757,7 @@
         <v>16.694352238126491</v>
       </c>
       <c r="BF3" s="5">
-        <v>191.35937789774439</v>
+        <v>191.359377897744</v>
       </c>
       <c r="BG3" s="5">
         <v>64.674983005449491</v>
@@ -1762,16 +1775,21 @@
         <v>1.953927949791985</v>
       </c>
       <c r="BL3" s="5">
+        <f>SUM(AO3,AS3,AU3,AZ3,BE3,BA3)</f>
+        <v>48.192993390340199</v>
+      </c>
+      <c r="BM3" s="5">
         <v>62.649735022553521</v>
       </c>
-      <c r="BM3" s="5">
+      <c r="BN3" s="5">
         <v>15.679003174480252</v>
       </c>
-      <c r="BN3" s="5">
+      <c r="BO3" s="5">
         <v>3.995772838704736</v>
       </c>
+      <c r="BP3" s="18"/>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>43943</v>
       </c>
@@ -1945,12 +1963,15 @@
         <v>99.999999999999986</v>
       </c>
       <c r="BG4" s="5">
-        <v>33.797655341464107</v>
+        <f>SUM(L4,M4,P4,Q4,S4,T4,W4,Z4,AJ4,AQ4,AV4,AY4,N4,AN4)</f>
+        <v>36.927849180508133</v>
       </c>
       <c r="BH4" s="5">
+        <f>SUM(O4,R4,U4,V4,Y4,AA4,AB4,AC4,AD4,AE4,AL4,AS4,BA4)</f>
         <v>22.259633023531983</v>
       </c>
       <c r="BI4" s="5">
+        <f>SUM(AG4,AI4,AK4,AM4,AO4,AP4,AR4,AT4,AU4,AW4,AX4,AZ4,BB4,BC4,BD4,BE4)</f>
         <v>40.812517795959899</v>
       </c>
       <c r="BJ4" s="5">
@@ -1960,16 +1981,24 @@
         <v>1.0210777079533015</v>
       </c>
       <c r="BL4" s="5">
+        <f t="shared" ref="BL4:BL67" si="0">SUM(AO4,AS4,AU4,AZ4,BE4,BA4)</f>
+        <v>25.184547483266176</v>
+      </c>
+      <c r="BM4" s="5">
         <v>32.739307428158185</v>
       </c>
-      <c r="BM4" s="5">
+      <c r="BN4" s="5">
         <v>8.1934856533963814</v>
       </c>
-      <c r="BN4" s="5">
+      <c r="BO4" s="5">
         <v>3.9957728387047355</v>
       </c>
+      <c r="BP4" s="18"/>
+      <c r="BQ4" s="18"/>
+      <c r="BR4" s="18"/>
+      <c r="BS4" s="18"/>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>43985</v>
       </c>
@@ -2143,12 +2172,15 @@
         <v>75.019296894966587</v>
       </c>
       <c r="BG5" s="5">
-        <v>29.197865078346766</v>
+        <f t="shared" ref="BG5:BG9" si="1">SUM(L5,M5,P5,Q5,S5,T5,W5,Z5,AJ5,AQ5,AV5,AY5,N5,AN5)</f>
+        <v>31.415337976277485</v>
       </c>
       <c r="BH5" s="5">
-        <v>16.48030041870528</v>
+        <f t="shared" ref="BH5:BH9" si="2">SUM(O5,R5,U5,V5,Y5,AA5,AB5,AC5,AD5,AE5,AL5,AS5,BA5)</f>
+        <v>16.480300418705276</v>
       </c>
       <c r="BI5" s="5">
+        <f t="shared" ref="BI5:BI9" si="3">SUM(AG5,AI5,AK5,AM5,AO5,AP5,AR5,AT5,AU5,AW5,AX5,AZ5,BB5,BC5,BD5,BE5)</f>
         <v>27.123658499983815</v>
       </c>
       <c r="BJ5" s="5">
@@ -2158,16 +2190,21 @@
         <v>1.0249459245180408</v>
       </c>
       <c r="BL5" s="5">
+        <f t="shared" si="0"/>
+        <v>16.117467490355232</v>
+      </c>
+      <c r="BM5" s="5">
         <v>21.344255981143988</v>
       </c>
-      <c r="BM5" s="5">
+      <c r="BN5" s="5">
         <v>5.9370075227789494</v>
       </c>
-      <c r="BN5" s="5">
+      <c r="BO5" s="5">
         <v>3.5951202519536865</v>
       </c>
+      <c r="BP5" s="18"/>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>43985</v>
       </c>
@@ -2341,12 +2378,15 @@
         <v>100</v>
       </c>
       <c r="BG6" s="5">
-        <v>38.920472847441189</v>
+        <f t="shared" si="1"/>
+        <v>41.876342856507492</v>
       </c>
       <c r="BH6" s="5">
-        <v>21.968081681409391</v>
+        <f t="shared" si="2"/>
+        <v>21.968081681409387</v>
       </c>
       <c r="BI6" s="5">
+        <f t="shared" si="3"/>
         <v>36.155575462083114</v>
       </c>
       <c r="BJ6" s="5">
@@ -2356,16 +2396,21 @@
         <v>1.3662430427108008</v>
       </c>
       <c r="BL6" s="5">
+        <f t="shared" si="0"/>
+        <v>21.48442888357253</v>
+      </c>
+      <c r="BM6" s="5">
         <v>28.451687585165939</v>
       </c>
-      <c r="BM6" s="5">
+      <c r="BN6" s="5">
         <v>7.9139738287487083</v>
       </c>
-      <c r="BN6" s="5">
+      <c r="BO6" s="5">
         <v>3.5951202519536869</v>
       </c>
+      <c r="BP6" s="18"/>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>44005</v>
       </c>
@@ -2539,12 +2584,15 @@
         <v>118.80044046242413</v>
       </c>
       <c r="BG7" s="5">
-        <v>36.808461385401671</v>
+        <f t="shared" si="1"/>
+        <v>39.25720562877072</v>
       </c>
       <c r="BH7" s="5">
+        <f t="shared" si="2"/>
         <v>25.481696819953296</v>
       </c>
       <c r="BI7" s="5">
+        <f t="shared" si="3"/>
         <v>54.061538013700144</v>
       </c>
       <c r="BJ7" s="5">
@@ -2554,16 +2602,21 @@
         <v>0.92056568483354961</v>
       </c>
       <c r="BL7" s="5">
+        <f t="shared" si="0"/>
+        <v>38.644892657146826</v>
+      </c>
+      <c r="BM7" s="5">
         <v>45.355094820311677</v>
       </c>
-      <c r="BM7" s="5">
+      <c r="BN7" s="5">
         <v>8.8992669962028916</v>
       </c>
-      <c r="BN7" s="5">
+      <c r="BO7" s="5">
         <v>5.0964978171419775</v>
       </c>
+      <c r="BP7" s="18"/>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>44005</v>
       </c>
@@ -2737,12 +2790,15 @@
         <v>100.00000000000001</v>
       </c>
       <c r="BG8" s="5">
-        <v>30.983438480637588</v>
+        <f t="shared" si="1"/>
+        <v>33.04466336653654</v>
       </c>
       <c r="BH8" s="5">
+        <f t="shared" si="2"/>
         <v>21.449160222611294</v>
       </c>
       <c r="BI8" s="5">
+        <f t="shared" si="3"/>
         <v>45.506176410852177</v>
       </c>
       <c r="BJ8" s="5">
@@ -2752,16 +2808,21 @@
         <v>0.77488406713838665</v>
       </c>
       <c r="BL8" s="5">
+        <f t="shared" si="0"/>
+        <v>32.529250318200603</v>
+      </c>
+      <c r="BM8" s="5">
         <v>38.177547695757255</v>
       </c>
-      <c r="BM8" s="5">
+      <c r="BN8" s="5">
         <v>7.4909377116473532</v>
       </c>
-      <c r="BN8" s="5">
+      <c r="BO8" s="5">
         <v>5.0964978171419775</v>
       </c>
+      <c r="BP8" s="18"/>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>44034</v>
       </c>
@@ -2935,12 +2996,15 @@
         <v>175.2945088405217</v>
       </c>
       <c r="BG9" s="5">
-        <v>56.277976040435981</v>
+        <f t="shared" si="1"/>
+        <v>59.152940237163634</v>
       </c>
       <c r="BH9" s="5">
+        <f t="shared" si="2"/>
         <v>36.279996906730645</v>
       </c>
       <c r="BI9" s="5">
+        <f t="shared" si="3"/>
         <v>79.861571696627479</v>
       </c>
       <c r="BJ9" s="5">
@@ -2950,16 +3014,21 @@
         <v>1.2980845513145614</v>
       </c>
       <c r="BL9" s="5">
+        <f t="shared" si="0"/>
+        <v>61.15335414037294</v>
+      </c>
+      <c r="BM9" s="5">
         <v>68.748665174601044</v>
       </c>
-      <c r="BM9" s="5">
+      <c r="BN9" s="5">
         <v>11.439339716433768</v>
       </c>
-      <c r="BN9" s="5">
+      <c r="BO9" s="5">
         <v>6.0098455749012016</v>
       </c>
+      <c r="BP9" s="18"/>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>44034</v>
       </c>
@@ -3133,12 +3202,15 @@
         <v>99.999999999999986</v>
       </c>
       <c r="BG10" s="5">
-        <v>32.104814014246259</v>
+        <f t="shared" ref="BG10:BG33" si="4">SUM(L10,M10,P10,Q10,S10,T10,W10,Z10,AJ10,AQ10,AV10,AY10,N10,AN10)</f>
+        <v>33.744890600640211</v>
       </c>
       <c r="BH10" s="5">
+        <f t="shared" ref="BH10:BH33" si="5">SUM(O10,R10,U10,V10,Y10,AA10,AB10,AC10,AD10,AE10,AL10,AS10,BA10)</f>
         <v>20.69659634332141</v>
       </c>
       <c r="BI10" s="5">
+        <f t="shared" ref="BI10:BI33" si="6">SUM(AG10,AI10,AK10,AM10,AO10,AP10,AR10,AT10,AU10,AW10,AX10,AZ10,BB10,BC10,BD10,BE10)</f>
         <v>45.558513056038407</v>
       </c>
       <c r="BJ10" s="5">
@@ -3148,16 +3220,21 @@
         <v>0.74051638006272313</v>
       </c>
       <c r="BL10" s="5">
+        <f t="shared" si="0"/>
+        <v>34.886063770547793</v>
+      </c>
+      <c r="BM10" s="5">
         <v>39.218949657542758</v>
       </c>
-      <c r="BM10" s="5">
+      <c r="BN10" s="5">
         <v>6.5257832616085993</v>
       </c>
-      <c r="BN10" s="5">
+      <c r="BO10" s="5">
         <v>6.0098455749011999</v>
       </c>
+      <c r="BP10" s="18"/>
     </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>44062</v>
       </c>
@@ -3331,12 +3408,15 @@
         <v>181.05774900437936</v>
       </c>
       <c r="BG11" s="5">
-        <v>55.889417982108505</v>
+        <f t="shared" si="4"/>
+        <v>59.089496757407531</v>
       </c>
       <c r="BH11" s="5">
-        <v>35.167677797626595</v>
+        <f t="shared" si="5"/>
+        <v>35.167677797626588</v>
       </c>
       <c r="BI11" s="5">
+        <f t="shared" si="6"/>
         <v>86.027505010183205</v>
       </c>
       <c r="BJ11" s="5">
@@ -3346,16 +3426,21 @@
         <v>0.98558796027070106</v>
       </c>
       <c r="BL11" s="5">
+        <f t="shared" si="0"/>
+        <v>63.605922475276849</v>
+      </c>
+      <c r="BM11" s="5">
         <v>74.968372786050367</v>
       </c>
-      <c r="BM11" s="5">
+      <c r="BN11" s="5">
         <v>11.216275255900991</v>
       </c>
-      <c r="BN11" s="5">
+      <c r="BO11" s="5">
         <v>6.6838920297189377</v>
       </c>
+      <c r="BP11" s="18"/>
     </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>44062</v>
       </c>
@@ -3529,12 +3614,15 @@
         <v>99.999999999999972</v>
       </c>
       <c r="BG12" s="5">
-        <v>30.868282793439942</v>
+        <f t="shared" si="4"/>
+        <v>32.635718207221444</v>
       </c>
       <c r="BH12" s="5">
-        <v>19.423459084745367</v>
+        <f t="shared" si="5"/>
+        <v>19.423459084745371</v>
       </c>
       <c r="BI12" s="5">
+        <f t="shared" si="6"/>
         <v>47.513848748943857</v>
       </c>
       <c r="BJ12" s="5">
@@ -3544,16 +3632,21 @@
         <v>0.54435005720018204</v>
       </c>
       <c r="BL12" s="5">
+        <f t="shared" si="0"/>
+        <v>35.130185161938783</v>
+      </c>
+      <c r="BM12" s="5">
         <v>41.405779757174088</v>
       </c>
-      <c r="BM12" s="5">
+      <c r="BN12" s="5">
         <v>6.1948606550000225</v>
       </c>
-      <c r="BN12" s="5">
+      <c r="BO12" s="5">
         <v>6.6838920297189377</v>
       </c>
+      <c r="BP12" s="18"/>
     </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>44091</v>
       </c>
@@ -3727,12 +3820,15 @@
         <v>355.80100123234911</v>
       </c>
       <c r="BG13" s="5">
-        <v>107.60202509939516</v>
+        <f t="shared" si="4"/>
+        <v>114.09532304430331</v>
       </c>
       <c r="BH13" s="5">
+        <f t="shared" si="5"/>
         <v>64.863380759914847</v>
       </c>
       <c r="BI13" s="5">
+        <f t="shared" si="6"/>
         <v>176.84229742813096</v>
       </c>
       <c r="BJ13" s="5">
@@ -3742,16 +3838,21 @@
         <v>2.3146077187040763</v>
       </c>
       <c r="BL13" s="5">
+        <f t="shared" si="0"/>
+        <v>134.12268639516807</v>
+      </c>
+      <c r="BM13" s="5">
         <v>153.75910470044735</v>
       </c>
-      <c r="BM13" s="5">
+      <c r="BN13" s="5">
         <v>23.307258632023959</v>
       </c>
-      <c r="BN13" s="5">
+      <c r="BO13" s="5">
         <v>6.5970480324607443</v>
       </c>
+      <c r="BP13" s="18"/>
     </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>44091</v>
       </c>
@@ -3925,12 +4026,15 @@
         <v>99.999999999999986</v>
       </c>
       <c r="BG14" s="5">
-        <v>30.242192890606191</v>
+        <f t="shared" si="4"/>
+        <v>32.067173124618478</v>
       </c>
       <c r="BH14" s="5">
+        <f t="shared" si="5"/>
         <v>18.230241212153601</v>
       </c>
       <c r="BI14" s="5">
+        <f t="shared" si="6"/>
         <v>49.702585663227929</v>
       </c>
       <c r="BJ14" s="5">
@@ -3940,16 +4044,21 @@
         <v>0.65053434663961662</v>
       </c>
       <c r="BL14" s="5">
+        <f t="shared" si="0"/>
+        <v>37.695983409440103</v>
+      </c>
+      <c r="BM14" s="5">
         <v>43.214916250344629</v>
       </c>
-      <c r="BM14" s="5">
+      <c r="BN14" s="5">
         <v>6.5506444757876299</v>
       </c>
-      <c r="BN14" s="5">
+      <c r="BO14" s="5">
         <v>6.5970480324607443</v>
       </c>
+      <c r="BP14" s="18"/>
     </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>44131</v>
       </c>
@@ -4123,12 +4232,15 @@
         <v>201.96261138143376</v>
       </c>
       <c r="BG15" s="5">
-        <v>63.573095097416633</v>
+        <f t="shared" si="4"/>
+        <v>67.786863842911828</v>
       </c>
       <c r="BH15" s="5">
+        <f t="shared" si="5"/>
         <v>24.964169563056174</v>
       </c>
       <c r="BI15" s="5">
+        <f t="shared" si="6"/>
         <v>108.08124634014413</v>
       </c>
       <c r="BJ15" s="5">
@@ -4138,16 +4250,21 @@
         <v>1.7111334422342543</v>
       </c>
       <c r="BL15" s="5">
+        <f t="shared" si="0"/>
+        <v>69.764869850698716</v>
+      </c>
+      <c r="BM15" s="5">
         <v>93.282469489953982</v>
       </c>
-      <c r="BM15" s="5">
+      <c r="BN15" s="5">
         <v>14.979895036057821</v>
       </c>
-      <c r="BN15" s="5">
+      <c r="BO15" s="5">
         <v>6.2271777783098958</v>
       </c>
+      <c r="BP15" s="18"/>
     </row>
-    <row r="16" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>44131</v>
       </c>
@@ -4321,12 +4438,15 @@
         <v>100</v>
       </c>
       <c r="BG16" s="5">
-        <v>31.477655523749505</v>
+        <f t="shared" si="4"/>
+        <v>33.564065833396825</v>
       </c>
       <c r="BH16" s="5">
+        <f t="shared" si="5"/>
         <v>12.360787668717531</v>
       </c>
       <c r="BI16" s="5">
+        <f t="shared" si="6"/>
         <v>53.515472790168097</v>
       </c>
       <c r="BJ16" s="5">
@@ -4336,16 +4456,21 @@
         <v>0.84725258330243447</v>
       </c>
       <c r="BL16" s="5">
+        <f t="shared" si="0"/>
+        <v>34.543458006164464</v>
+      </c>
+      <c r="BM16" s="5">
         <v>46.187989376794796</v>
       </c>
-      <c r="BM16" s="5">
+      <c r="BN16" s="5">
         <v>7.417162480517872</v>
       </c>
-      <c r="BN16" s="5">
+      <c r="BO16" s="5">
         <v>6.2271777783098958</v>
       </c>
+      <c r="BP16" s="18"/>
     </row>
-    <row r="17" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>44131</v>
       </c>
@@ -4519,12 +4644,15 @@
         <v>404.80494547984483</v>
       </c>
       <c r="BG17" s="5">
-        <v>121.84027451238013</v>
+        <f t="shared" si="4"/>
+        <v>131.18673315305833</v>
       </c>
       <c r="BH17" s="5">
+        <f t="shared" si="5"/>
         <v>47.786999203140851</v>
       </c>
       <c r="BI17" s="5">
+        <f t="shared" si="6"/>
         <v>224.08253995334832</v>
       </c>
       <c r="BJ17" s="5">
@@ -4534,16 +4662,21 @@
         <v>2.9817493795096457</v>
       </c>
       <c r="BL17" s="5">
+        <f t="shared" si="0"/>
+        <v>158.48756329741551</v>
+      </c>
+      <c r="BM17" s="5">
         <v>189.98427543693384</v>
       </c>
-      <c r="BM17" s="5">
+      <c r="BN17" s="5">
         <v>34.316429041416157</v>
       </c>
-      <c r="BN17" s="5">
+      <c r="BO17" s="5">
         <v>5.5362484018265334</v>
       </c>
+      <c r="BP17" s="18"/>
     </row>
-    <row r="18" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>44131</v>
       </c>
@@ -4717,12 +4850,15 @@
         <v>99.999999999999957</v>
       </c>
       <c r="BG18" s="5">
-        <v>30.098514327178979</v>
+        <f t="shared" si="4"/>
+        <v>32.407393886345211</v>
       </c>
       <c r="BH18" s="5">
+        <f t="shared" si="5"/>
         <v>11.80494451383133</v>
       </c>
       <c r="BI18" s="5">
+        <f t="shared" si="6"/>
         <v>55.355682398525772</v>
       </c>
       <c r="BJ18" s="5">
@@ -4732,16 +4868,21 @@
         <v>0.73658916789545659</v>
       </c>
       <c r="BL18" s="5">
+        <f t="shared" si="0"/>
+        <v>39.151587713324162</v>
+      </c>
+      <c r="BM18" s="5">
         <v>46.9323009904762</v>
       </c>
-      <c r="BM18" s="5">
+      <c r="BN18" s="5">
         <v>8.4772751480934581</v>
       </c>
-      <c r="BN18" s="5">
+      <c r="BO18" s="5">
         <v>5.5362484018265334</v>
       </c>
+      <c r="BP18" s="18"/>
     </row>
-    <row r="19" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>44131</v>
       </c>
@@ -4915,12 +5056,15 @@
         <v>444.41592242648062</v>
       </c>
       <c r="BG19" s="5">
-        <v>173.45981328437193</v>
+        <f t="shared" si="4"/>
+        <v>184.15925847983218</v>
       </c>
       <c r="BH19" s="5">
+        <f t="shared" si="5"/>
         <v>47.138467045964674</v>
       </c>
       <c r="BI19" s="5">
+        <f t="shared" si="6"/>
         <v>207.8545240516475</v>
       </c>
       <c r="BJ19" s="5">
@@ -4930,16 +5074,21 @@
         <v>3.032057799770246</v>
       </c>
       <c r="BL19" s="5">
+        <f t="shared" si="0"/>
+        <v>138.64302246039841</v>
+      </c>
+      <c r="BM19" s="5">
         <v>153.68198201120339</v>
       </c>
-      <c r="BM19" s="5">
+      <c r="BN19" s="5">
         <v>60.27535982010793</v>
       </c>
-      <c r="BN19" s="5">
+      <c r="BO19" s="5">
         <v>2.5496651114131534</v>
       </c>
+      <c r="BP19" s="18"/>
     </row>
-    <row r="20" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>44131</v>
       </c>
@@ -5113,12 +5262,15 @@
         <v>100.00000000000004</v>
       </c>
       <c r="BG20" s="5">
-        <v>39.030962783082394</v>
+        <f t="shared" si="4"/>
+        <v>41.438492454171133</v>
       </c>
       <c r="BH20" s="5">
-        <v>10.606835774153154</v>
+        <f t="shared" si="5"/>
+        <v>10.606835774153152</v>
       </c>
       <c r="BI20" s="5">
+        <f t="shared" si="6"/>
         <v>46.7702693721629</v>
       </c>
       <c r="BJ20" s="5">
@@ -5128,16 +5280,21 @@
         <v>0.6822567884641525</v>
       </c>
       <c r="BL20" s="5">
+        <f t="shared" si="0"/>
+        <v>31.196682086325115</v>
+      </c>
+      <c r="BM20" s="5">
         <v>34.580665150814184</v>
       </c>
-      <c r="BM20" s="5">
+      <c r="BN20" s="5">
         <v>13.562826347671924</v>
       </c>
-      <c r="BN20" s="5">
+      <c r="BO20" s="5">
         <v>2.549665111413153</v>
       </c>
+      <c r="BP20" s="18"/>
     </row>
-    <row r="21" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>44131</v>
       </c>
@@ -5311,12 +5468,15 @@
         <v>507.19375124455536</v>
       </c>
       <c r="BG21" s="5">
-        <v>244.58412526926176</v>
+        <f t="shared" si="4"/>
+        <v>254.06346327315842</v>
       </c>
       <c r="BH21" s="5">
+        <f t="shared" si="5"/>
         <v>50.169786325212833</v>
       </c>
       <c r="BI21" s="5">
+        <f t="shared" si="6"/>
         <v>192.66972535071946</v>
       </c>
       <c r="BJ21" s="5">
@@ -5326,16 +5486,21 @@
         <v>3.2492747897780472</v>
       </c>
       <c r="BL21" s="5">
+        <f t="shared" si="0"/>
+        <v>138.69658359790751</v>
+      </c>
+      <c r="BM21" s="5">
         <v>96.394085886253947</v>
       </c>
-      <c r="BM21" s="5">
+      <c r="BN21" s="5">
         <v>111.47404434809027</v>
       </c>
-      <c r="BN21" s="5">
+      <c r="BO21" s="5">
         <v>0.86472224498514239</v>
       </c>
+      <c r="BP21" s="18"/>
     </row>
-    <row r="22" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>44131</v>
       </c>
@@ -5509,12 +5674,15 @@
         <v>100.00000000000003</v>
       </c>
       <c r="BG22" s="5">
-        <v>48.223016286990841</v>
+        <f t="shared" si="4"/>
+        <v>50.091993966750536</v>
       </c>
       <c r="BH22" s="5">
+        <f t="shared" si="5"/>
         <v>9.8916412519093289</v>
       </c>
       <c r="BI22" s="5">
+        <f t="shared" si="6"/>
         <v>37.987401240245013</v>
       </c>
       <c r="BJ22" s="5">
@@ -5524,16 +5692,21 @@
         <v>0.64063778029696838</v>
       </c>
       <c r="BL22" s="5">
+        <f t="shared" si="0"/>
+        <v>27.345877834175386</v>
+      </c>
+      <c r="BM22" s="5">
         <v>19.005377264550578</v>
       </c>
-      <c r="BM22" s="5">
+      <c r="BN22" s="5">
         <v>21.97859182502831</v>
       </c>
-      <c r="BN22" s="5">
+      <c r="BO22" s="5">
         <v>0.86472224498514239</v>
       </c>
+      <c r="BP22" s="18"/>
     </row>
-    <row r="23" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>44131</v>
       </c>
@@ -5707,12 +5880,15 @@
         <v>432.21676139430679</v>
       </c>
       <c r="BG23" s="5">
-        <v>155.10447400157958</v>
+        <f t="shared" si="4"/>
+        <v>163.25373177029604</v>
       </c>
       <c r="BH23" s="5">
+        <f t="shared" si="5"/>
         <v>51.533895589987893</v>
       </c>
       <c r="BI23" s="5">
+        <f t="shared" si="6"/>
         <v>213.3485102455636</v>
       </c>
       <c r="BJ23" s="5">
@@ -5722,16 +5898,21 @@
         <v>2.9701076167981206</v>
       </c>
       <c r="BL23" s="5">
+        <f t="shared" si="0"/>
+        <v>147.32974017527917</v>
+      </c>
+      <c r="BM23" s="5">
         <v>180.57833272184828</v>
       </c>
-      <c r="BM23" s="5">
+      <c r="BN23" s="5">
         <v>35.811293191837876</v>
       </c>
-      <c r="BN23" s="5">
+      <c r="BO23" s="5">
         <v>5.042496839041986</v>
       </c>
+      <c r="BP23" s="18"/>
     </row>
-    <row r="24" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>44131</v>
       </c>
@@ -5905,12 +6086,15 @@
         <v>100.00000000000007</v>
       </c>
       <c r="BG24" s="5">
-        <v>35.885807274391986</v>
+        <f t="shared" si="4"/>
+        <v>37.771263484472179</v>
       </c>
       <c r="BH24" s="5">
+        <f t="shared" si="5"/>
         <v>11.923159903318524</v>
       </c>
       <c r="BI24" s="5">
+        <f t="shared" si="6"/>
         <v>49.361461493837808</v>
       </c>
       <c r="BJ24" s="5">
@@ -5920,16 +6104,21 @@
         <v>0.68718011009492597</v>
       </c>
       <c r="BL24" s="5">
+        <f t="shared" si="0"/>
+        <v>34.08700294269056</v>
+      </c>
+      <c r="BM24" s="5">
         <v>41.779576557677402</v>
       </c>
-      <c r="BM24" s="5">
+      <c r="BN24" s="5">
         <v>8.2854938518146941</v>
       </c>
-      <c r="BN24" s="5">
+      <c r="BO24" s="5">
         <v>5.042496839041986</v>
       </c>
+      <c r="BP24" s="18"/>
     </row>
-    <row r="25" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>44131</v>
       </c>
@@ -6103,12 +6292,15 @@
         <v>188.06604146012725</v>
       </c>
       <c r="BG25" s="5">
-        <v>63.322762466647738</v>
+        <f t="shared" si="4"/>
+        <v>67.781396479843252</v>
       </c>
       <c r="BH25" s="5">
+        <f t="shared" si="5"/>
         <v>38.66569383663829</v>
       </c>
       <c r="BI25" s="5">
+        <f t="shared" si="6"/>
         <v>80.936001053898195</v>
       </c>
       <c r="BJ25" s="5">
@@ -6118,16 +6310,21 @@
         <v>1.6026214277886568</v>
       </c>
       <c r="BL25" s="5">
+        <f t="shared" si="0"/>
+        <v>59.299865503702463</v>
+      </c>
+      <c r="BM25" s="5">
         <v>68.469827188003109</v>
       </c>
-      <c r="BM25" s="5">
+      <c r="BN25" s="5">
         <v>12.634237674917262</v>
       </c>
-      <c r="BN25" s="5">
+      <c r="BO25" s="5">
         <v>5.4193872990007286</v>
       </c>
+      <c r="BP25" s="18"/>
     </row>
-    <row r="26" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>44131</v>
       </c>
@@ -6301,12 +6498,15 @@
         <v>100.00000000000007</v>
       </c>
       <c r="BG26" s="5">
-        <v>33.670492543478723</v>
+        <f t="shared" si="4"/>
+        <v>36.041273561986408</v>
       </c>
       <c r="BH26" s="5">
-        <v>20.559636145069806</v>
+        <f t="shared" si="5"/>
+        <v>20.559636145069803</v>
       </c>
       <c r="BI26" s="5">
+        <f t="shared" si="6"/>
         <v>43.035946535333338</v>
       </c>
       <c r="BJ26" s="5">
@@ -6316,16 +6516,21 @@
         <v>0.85215885619011977</v>
       </c>
       <c r="BL26" s="5">
+        <f t="shared" si="0"/>
+        <v>31.531405161348545</v>
+      </c>
+      <c r="BM26" s="5">
         <v>36.407331518444124</v>
       </c>
-      <c r="BM26" s="5">
+      <c r="BN26" s="5">
         <v>6.7179792677222423</v>
       </c>
-      <c r="BN26" s="5">
+      <c r="BO26" s="5">
         <v>5.4193872990007268</v>
       </c>
+      <c r="BP26" s="18"/>
     </row>
-    <row r="27" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>44131</v>
       </c>
@@ -6492,12 +6697,15 @@
         <v>100.00000000000001</v>
       </c>
       <c r="BG27" s="5">
-        <v>56.336872374118762</v>
+        <f t="shared" si="4"/>
+        <v>61.123054855697326</v>
       </c>
       <c r="BH27" s="5">
-        <v>23.444308428930388</v>
+        <f t="shared" si="5"/>
+        <v>23.444308428930391</v>
       </c>
       <c r="BI27" s="5">
+        <f t="shared" si="6"/>
         <v>14.853120199660225</v>
       </c>
       <c r="BJ27" s="5">
@@ -6507,16 +6715,21 @@
         <v>4.9594609716481122</v>
       </c>
       <c r="BL27" s="5">
+        <f t="shared" si="0"/>
+        <v>5.5613578794239418</v>
+      </c>
+      <c r="BM27" s="5">
         <v>9.8602581883411737</v>
       </c>
-      <c r="BM27" s="5">
+      <c r="BN27" s="5">
         <v>2.2293922367167287</v>
       </c>
-      <c r="BN27" s="5">
+      <c r="BO27" s="5">
         <v>4.4228458437904026</v>
       </c>
+      <c r="BP27" s="18"/>
     </row>
-    <row r="28" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>44159</v>
       </c>
@@ -6690,12 +6903,15 @@
         <v>310.35978945959812</v>
       </c>
       <c r="BG28" s="5">
-        <v>92.55369964364985</v>
+        <f t="shared" si="4"/>
+        <v>101.14978586980575</v>
       </c>
       <c r="BH28" s="5">
+        <f t="shared" si="5"/>
         <v>38.108919075381323</v>
       </c>
       <c r="BI28" s="5">
+        <f t="shared" si="6"/>
         <v>169.54684388896018</v>
       </c>
       <c r="BJ28" s="5">
@@ -6705,16 +6921,21 @@
         <v>2.4585559080106734</v>
       </c>
       <c r="BL28" s="5">
+        <f t="shared" si="0"/>
+        <v>107.99829935046871</v>
+      </c>
+      <c r="BM28" s="5">
         <v>145.837357090583</v>
       </c>
-      <c r="BM28" s="5">
+      <c r="BN28" s="5">
         <v>24.005776949384735</v>
       </c>
-      <c r="BN28" s="5">
+      <c r="BO28" s="5">
         <v>6.0750942324456112</v>
       </c>
+      <c r="BP28" s="18"/>
     </row>
-    <row r="29" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>44159</v>
       </c>
@@ -6888,12 +7109,15 @@
         <v>99.999999999999972</v>
       </c>
       <c r="BG29" s="5">
-        <v>29.821421069013279</v>
+        <f t="shared" si="4"/>
+        <v>32.59113754585568</v>
       </c>
       <c r="BH29" s="5">
+        <f t="shared" si="5"/>
         <v>12.278948616938099</v>
       </c>
       <c r="BI29" s="5">
+        <f t="shared" si="6"/>
         <v>54.629127112174224</v>
       </c>
       <c r="BJ29" s="5">
@@ -6903,16 +7127,21 @@
         <v>0.79216315756997324</v>
       </c>
       <c r="BL29" s="5">
+        <f t="shared" si="0"/>
+        <v>34.797774395490002</v>
+      </c>
+      <c r="BM29" s="5">
         <v>46.989771885242156</v>
       </c>
-      <c r="BM29" s="5">
+      <c r="BN29" s="5">
         <v>7.7348218953182872</v>
       </c>
-      <c r="BN29" s="5">
+      <c r="BO29" s="5">
         <v>6.0750942324456112</v>
       </c>
+      <c r="BP29" s="18"/>
     </row>
-    <row r="30" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>44159</v>
       </c>
@@ -7086,12 +7315,15 @@
         <v>462.43499676063755</v>
       </c>
       <c r="BG30" s="5">
-        <v>137.97542143633785</v>
+        <f t="shared" si="4"/>
+        <v>149.58361846119257</v>
       </c>
       <c r="BH30" s="5">
+        <f t="shared" si="5"/>
         <v>56.69124730708203</v>
       </c>
       <c r="BI30" s="5">
+        <f t="shared" si="6"/>
         <v>254.04728432521864</v>
       </c>
       <c r="BJ30" s="5">
@@ -7101,16 +7333,21 @@
         <v>3.0975758801979714</v>
       </c>
       <c r="BL30" s="5">
+        <f t="shared" si="0"/>
+        <v>175.77829696399976</v>
+      </c>
+      <c r="BM30" s="5">
         <v>213.30246310380588</v>
       </c>
-      <c r="BM30" s="5">
+      <c r="BN30" s="5">
         <v>41.037662676942944</v>
       </c>
-      <c r="BN30" s="5">
+      <c r="BO30" s="5">
         <v>5.197724460648927</v>
       </c>
+      <c r="BP30" s="18"/>
     </row>
-    <row r="31" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>44159</v>
       </c>
@@ -7284,12 +7521,15 @@
         <v>99.999999999999943</v>
       </c>
       <c r="BG31" s="5">
-        <v>29.836717031119466</v>
+        <f t="shared" si="4"/>
+        <v>32.346950276044758</v>
       </c>
       <c r="BH31" s="5">
+        <f t="shared" si="5"/>
         <v>12.259289998422455</v>
       </c>
       <c r="BI31" s="5">
+        <f t="shared" si="6"/>
         <v>54.936863798117102</v>
       </c>
       <c r="BJ31" s="5">
@@ -7299,16 +7539,21 @@
         <v>0.66984028066572077</v>
       </c>
       <c r="BL31" s="5">
+        <f t="shared" si="0"/>
+        <v>38.011460679950424</v>
+      </c>
+      <c r="BM31" s="5">
         <v>46.125934368720372</v>
       </c>
-      <c r="BM31" s="5">
+      <c r="BN31" s="5">
         <v>8.8742554011725421</v>
       </c>
-      <c r="BN31" s="5">
+      <c r="BO31" s="5">
         <v>5.1977244606489261</v>
       </c>
+      <c r="BP31" s="18"/>
     </row>
-    <row r="32" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>44159</v>
       </c>
@@ -7482,12 +7727,15 @@
         <v>327.21110807700035</v>
       </c>
       <c r="BG32" s="5">
-        <v>111.35971546937424</v>
+        <f t="shared" si="4"/>
+        <v>121.0385935482651</v>
       </c>
       <c r="BH32" s="5">
+        <f t="shared" si="5"/>
         <v>39.404451169333299</v>
       </c>
       <c r="BI32" s="5">
+        <f t="shared" si="6"/>
         <v>164.40676131747216</v>
       </c>
       <c r="BJ32" s="5">
@@ -7497,16 +7745,21 @@
         <v>2.3495948761610426</v>
       </c>
       <c r="BL32" s="5">
+        <f t="shared" si="0"/>
+        <v>103.25736164877128</v>
+      </c>
+      <c r="BM32" s="5">
         <v>141.50396493870147</v>
       </c>
-      <c r="BM32" s="5">
+      <c r="BN32" s="5">
         <v>24.886777919473573</v>
       </c>
-      <c r="BN32" s="5">
+      <c r="BO32" s="5">
         <v>5.6859094173045399</v>
       </c>
+      <c r="BP32" s="18"/>
     </row>
-    <row r="33" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>44159</v>
       </c>
@@ -7680,12 +7933,15 @@
         <v>100.00000000000003</v>
       </c>
       <c r="BG33" s="5">
-        <v>34.032987487444565</v>
+        <f t="shared" si="4"/>
+        <v>36.990979389300534</v>
       </c>
       <c r="BH33" s="5">
-        <v>12.042516343931858</v>
+        <f t="shared" si="5"/>
+        <v>12.042516343931856</v>
       </c>
       <c r="BI33" s="5">
+        <f t="shared" si="6"/>
         <v>50.244859437590819</v>
       </c>
       <c r="BJ33" s="5">
@@ -7695,16 +7951,21 @@
         <v>0.71806696599313757</v>
       </c>
       <c r="BL33" s="5">
+        <f t="shared" si="0"/>
+        <v>31.556802046118932</v>
+      </c>
+      <c r="BM33" s="5">
         <v>43.245464914168593</v>
       </c>
-      <c r="BM33" s="5">
+      <c r="BN33" s="5">
         <v>7.6057252657868624</v>
       </c>
-      <c r="BN33" s="5">
+      <c r="BO33" s="5">
         <v>5.6859094173045399</v>
       </c>
+      <c r="BP33" s="18"/>
     </row>
-    <row r="34" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>44159</v>
       </c>
@@ -7878,12 +8139,15 @@
         <v>319.10575429207802</v>
       </c>
       <c r="BG34" s="5">
-        <v>113.95323249019825</v>
+        <f t="shared" ref="BG34:BG97" si="7">SUM(L34,M34,P34,Q34,S34,T34,W34,Z34,AJ34,AQ34,AV34,AY34,N34,AN34)</f>
+        <v>122.23963554575097</v>
       </c>
       <c r="BH34" s="5">
+        <f t="shared" ref="BH34:BH97" si="8">SUM(O34,R34,U34,V34,Y34,AA34,AB34,AC34,AD34,AE34,AL34,AS34,BA34)</f>
         <v>37.768331683060985</v>
       </c>
       <c r="BI34" s="5">
+        <f t="shared" ref="BI34:BI97" si="9">SUM(AG34,AI34,AK34,AM34,AO34,AP34,AR34,AT34,AU34,AW34,AX34,AZ34,BB34,BC34,BD34,BE34)</f>
         <v>156.53590592171227</v>
       </c>
       <c r="BJ34" s="5">
@@ -7893,16 +8157,21 @@
         <v>2.3803510981461802</v>
       </c>
       <c r="BL34" s="5">
+        <f t="shared" si="0"/>
+        <v>98.059316384344513</v>
+      </c>
+      <c r="BM34" s="5">
         <v>135.37122076646386</v>
       </c>
-      <c r="BM34" s="5">
+      <c r="BN34" s="5">
         <v>23.619399863526287</v>
       </c>
-      <c r="BN34" s="5">
+      <c r="BO34" s="5">
         <v>5.7313573396717734</v>
       </c>
+      <c r="BP34" s="18"/>
     </row>
-    <row r="35" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>44159</v>
       </c>
@@ -8076,12 +8345,15 @@
         <v>100</v>
       </c>
       <c r="BG35" s="5">
-        <v>35.710177882250491</v>
+        <f t="shared" si="7"/>
+        <v>38.306935522655863</v>
       </c>
       <c r="BH35" s="5">
+        <f t="shared" si="8"/>
         <v>11.835678666105023</v>
       </c>
       <c r="BI35" s="5">
+        <f t="shared" si="9"/>
         <v>49.054554427882458</v>
       </c>
       <c r="BJ35" s="5">
@@ -8091,16 +8363,21 @@
         <v>0.74594427274647046</v>
       </c>
       <c r="BL35" s="5">
+        <f t="shared" si="0"/>
+        <v>30.729410255194168</v>
+      </c>
+      <c r="BM35" s="5">
         <v>42.42205568081306</v>
       </c>
-      <c r="BM35" s="5">
+      <c r="BN35" s="5">
         <v>7.4017467707296216</v>
       </c>
-      <c r="BN35" s="5">
+      <c r="BO35" s="5">
         <v>5.7313573396717725</v>
       </c>
+      <c r="BP35" s="18"/>
     </row>
-    <row r="36" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>44159</v>
       </c>
@@ -8274,12 +8551,15 @@
         <v>450.21367556718434</v>
       </c>
       <c r="BG36" s="5">
-        <v>139.06337396444741</v>
+        <f t="shared" si="7"/>
+        <v>149.27442606756762</v>
       </c>
       <c r="BH36" s="5">
-        <v>54.181204495885304</v>
+        <f t="shared" si="8"/>
+        <v>54.181204495885297</v>
       </c>
       <c r="BI36" s="5">
+        <f t="shared" si="9"/>
         <v>243.76576324932199</v>
       </c>
       <c r="BJ36" s="5">
@@ -8289,16 +8569,21 @@
         <v>2.9081208820473492</v>
       </c>
       <c r="BL36" s="5">
+        <f t="shared" si="0"/>
+        <v>168.55508559858319</v>
+      </c>
+      <c r="BM36" s="5">
         <v>205.35370045733075</v>
       </c>
-      <c r="BM36" s="5">
+      <c r="BN36" s="5">
         <v>39.168990743426789</v>
       </c>
-      <c r="BN36" s="5">
+      <c r="BO36" s="5">
         <v>5.2427621074661603</v>
       </c>
+      <c r="BP36" s="18"/>
     </row>
-    <row r="37" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>44159</v>
       </c>
@@ -8472,12 +8757,15 @@
         <v>99.999999999999957</v>
       </c>
       <c r="BG37" s="5">
-        <v>30.888305156269141</v>
+        <f t="shared" si="7"/>
+        <v>33.156350899272432</v>
       </c>
       <c r="BH37" s="5">
+        <f t="shared" si="8"/>
         <v>12.034553243552006</v>
       </c>
       <c r="BI37" s="5">
+        <f t="shared" si="9"/>
         <v>54.14445994831744</v>
       </c>
       <c r="BJ37" s="5">
@@ -8487,16 +8775,21 @@
         <v>0.64594236911698977</v>
       </c>
       <c r="BL37" s="5">
+        <f t="shared" si="0"/>
+        <v>37.438908399713874</v>
+      </c>
+      <c r="BM37" s="5">
         <v>45.612497265575897</v>
       </c>
-      <c r="BM37" s="5">
+      <c r="BN37" s="5">
         <v>8.7000890619506936</v>
       </c>
-      <c r="BN37" s="5">
+      <c r="BO37" s="5">
         <v>5.2427621074661586</v>
       </c>
+      <c r="BP37" s="18"/>
     </row>
-    <row r="38" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>44159</v>
       </c>
@@ -8670,12 +8963,15 @@
         <v>436.03420049857709</v>
       </c>
       <c r="BG38" s="5">
-        <v>136.88264247696793</v>
+        <f t="shared" si="7"/>
+        <v>146.81587017557823</v>
       </c>
       <c r="BH38" s="5">
+        <f t="shared" si="8"/>
         <v>51.763824261504936</v>
       </c>
       <c r="BI38" s="5">
+        <f t="shared" si="9"/>
         <v>235.16957727805163</v>
       </c>
       <c r="BJ38" s="5">
@@ -8685,16 +8981,21 @@
         <v>2.7415440064295979</v>
       </c>
       <c r="BL38" s="5">
+        <f t="shared" si="0"/>
+        <v>161.99095819371473</v>
+      </c>
+      <c r="BM38" s="5">
         <v>196.79230280506522</v>
       </c>
-      <c r="BM38" s="5">
+      <c r="BN38" s="5">
         <v>39.243014209871326</v>
       </c>
-      <c r="BN38" s="5">
+      <c r="BO38" s="5">
         <v>5.0147091595110806</v>
       </c>
+      <c r="BP38" s="18"/>
     </row>
-    <row r="39" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>44159</v>
       </c>
@@ -8868,12 +9169,15 @@
         <v>100.00000000000001</v>
       </c>
       <c r="BG39" s="5">
-        <v>31.39263899952147</v>
+        <f t="shared" si="7"/>
+        <v>33.670723536755538</v>
       </c>
       <c r="BH39" s="5">
+        <f t="shared" si="8"/>
         <v>11.871505538399587</v>
       </c>
       <c r="BI39" s="5">
+        <f t="shared" si="9"/>
         <v>53.933745795433104</v>
       </c>
       <c r="BJ39" s="5">
@@ -8883,16 +9187,21 @@
         <v>0.62874517716610734</v>
       </c>
       <c r="BL39" s="5">
+        <f t="shared" si="0"/>
+        <v>37.150975315351062</v>
+      </c>
+      <c r="BM39" s="5">
         <v>45.132309020724946</v>
       </c>
-      <c r="BM39" s="5">
+      <c r="BN39" s="5">
         <v>8.9999853600931896</v>
       </c>
-      <c r="BN39" s="5">
+      <c r="BO39" s="5">
         <v>5.0147091595110806</v>
       </c>
+      <c r="BP39" s="18"/>
     </row>
-    <row r="40" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>44159</v>
       </c>
@@ -9066,12 +9375,15 @@
         <v>223.39547336436692</v>
       </c>
       <c r="BG40" s="5">
-        <v>73.788073655709837</v>
+        <f t="shared" si="7"/>
+        <v>80.15993400063202</v>
       </c>
       <c r="BH40" s="5">
+        <f t="shared" si="8"/>
         <v>48.266353758706479</v>
       </c>
       <c r="BI40" s="5">
+        <f t="shared" si="9"/>
         <v>94.215581656184824</v>
       </c>
       <c r="BJ40" s="5">
@@ -9081,16 +9393,21 @@
         <v>1.8329935565855937</v>
       </c>
       <c r="BL40" s="5">
+        <f t="shared" si="0"/>
+        <v>68.881731156769987</v>
+      </c>
+      <c r="BM40" s="5">
         <v>78.427833400040242</v>
       </c>
-      <c r="BM40" s="5">
+      <c r="BN40" s="5">
         <v>15.923782166007941</v>
       </c>
-      <c r="BN40" s="5">
+      <c r="BO40" s="5">
         <v>4.9252013486756923</v>
       </c>
+      <c r="BP40" s="18"/>
     </row>
-    <row r="41" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>44159</v>
       </c>
@@ -9264,12 +9581,15 @@
         <v>99.999999999999972</v>
       </c>
       <c r="BG41" s="5">
-        <v>33.03024566453886</v>
+        <f t="shared" si="7"/>
+        <v>35.882523845900842</v>
       </c>
       <c r="BH41" s="5">
-        <v>21.605788618636034</v>
+        <f t="shared" si="8"/>
+        <v>21.60578861863603</v>
       </c>
       <c r="BI41" s="5">
+        <f t="shared" si="9"/>
         <v>42.174346792835628</v>
       </c>
       <c r="BJ41" s="5">
@@ -9279,16 +9599,21 @@
         <v>0.82051508429443787</v>
       </c>
       <c r="BL41" s="5">
+        <f t="shared" si="0"/>
+        <v>30.833986973595088</v>
+      </c>
+      <c r="BM41" s="5">
         <v>35.107172145839016</v>
       </c>
-      <c r="BM41" s="5">
+      <c r="BN41" s="5">
         <v>7.1280684098892282</v>
       </c>
-      <c r="BN41" s="5">
+      <c r="BO41" s="5">
         <v>4.9252013486756914</v>
       </c>
+      <c r="BP41" s="18"/>
     </row>
-    <row r="42" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>44159</v>
       </c>
@@ -9455,12 +9780,15 @@
         <v>100.00000000000001</v>
       </c>
       <c r="BG42" s="5">
-        <v>74.519146017650357</v>
+        <f t="shared" si="7"/>
+        <v>76.144119850599907</v>
       </c>
       <c r="BH42" s="5">
-        <v>15.115672135121137</v>
+        <f t="shared" si="8"/>
+        <v>15.115672135121136</v>
       </c>
       <c r="BI42" s="5">
+        <f t="shared" si="9"/>
         <v>8.4326074501724246</v>
       </c>
       <c r="BJ42" s="5">
@@ -9470,16 +9798,21 @@
         <v>2.2308787721869039</v>
       </c>
       <c r="BL42" s="5">
+        <f t="shared" si="0"/>
+        <v>4.0142321210184759</v>
+      </c>
+      <c r="BM42" s="5">
         <v>6.0045117503828642</v>
       </c>
-      <c r="BM42" s="5">
+      <c r="BN42" s="5">
         <v>2.0371048775382032</v>
       </c>
-      <c r="BN42" s="5">
+      <c r="BO42" s="5">
         <v>2.947571240239327</v>
       </c>
+      <c r="BP42" s="18"/>
     </row>
-    <row r="43" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>44211</v>
       </c>
@@ -9653,12 +9986,15 @@
         <v>371.2529516914301</v>
       </c>
       <c r="BG43" s="5">
-        <v>130.6187304267649</v>
+        <f t="shared" si="7"/>
+        <v>140.20548381132696</v>
       </c>
       <c r="BH43" s="5">
+        <f t="shared" si="8"/>
         <v>46.498455542206521</v>
       </c>
       <c r="BI43" s="5">
+        <f t="shared" si="9"/>
         <v>182.02685578624863</v>
       </c>
       <c r="BJ43" s="5">
@@ -9668,16 +10004,21 @@
         <v>3.354272840683195</v>
       </c>
       <c r="BL43" s="5">
+        <f t="shared" si="0"/>
+        <v>110.28874986044607</v>
+      </c>
+      <c r="BM43" s="5">
         <v>155.51577557387731</v>
       </c>
-      <c r="BM43" s="5">
+      <c r="BN43" s="5">
         <v>26.838448876674843</v>
       </c>
-      <c r="BN43" s="5">
+      <c r="BO43" s="5">
         <v>5.7945142913618701</v>
       </c>
+      <c r="BP43" s="18"/>
     </row>
-    <row r="44" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>44211</v>
       </c>
@@ -9851,12 +10192,15 @@
         <v>100</v>
       </c>
       <c r="BG44" s="5">
-        <v>35.183216680612347</v>
+        <f t="shared" si="7"/>
+        <v>37.765486623756175</v>
       </c>
       <c r="BH44" s="5">
+        <f t="shared" si="8"/>
         <v>12.524736929459914</v>
       </c>
       <c r="BI44" s="5">
+        <f t="shared" si="9"/>
         <v>49.030413080066694</v>
       </c>
       <c r="BJ44" s="5">
@@ -9866,16 +10210,21 @@
         <v>0.90350065242609201</v>
       </c>
       <c r="BL44" s="5">
+        <f t="shared" si="0"/>
+        <v>29.707171177486948</v>
+      </c>
+      <c r="BM44" s="5">
         <v>41.889438148665683</v>
       </c>
-      <c r="BM44" s="5">
+      <c r="BN44" s="5">
         <v>7.2291543419112907</v>
       </c>
-      <c r="BN44" s="5">
+      <c r="BO44" s="5">
         <v>5.7945142913618692</v>
       </c>
+      <c r="BP44" s="18"/>
     </row>
-    <row r="45" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>44211</v>
       </c>
@@ -10049,12 +10398,15 @@
         <v>425.03789539405716</v>
       </c>
       <c r="BG45" s="5">
-        <v>127.74546677360891</v>
+        <f t="shared" si="7"/>
+        <v>138.7944081439006</v>
       </c>
       <c r="BH45" s="5">
-        <v>53.579822424054022</v>
+        <f t="shared" si="8"/>
+        <v>53.579822424054029</v>
       </c>
       <c r="BI45" s="5">
+        <f t="shared" si="9"/>
         <v>230.94997939206783</v>
       </c>
       <c r="BJ45" s="5">
@@ -10064,16 +10416,21 @@
         <v>2.9794565012719163</v>
       </c>
       <c r="BL45" s="5">
+        <f t="shared" si="0"/>
+        <v>157.2038766625831</v>
+      </c>
+      <c r="BM45" s="5">
         <v>191.66215481182468</v>
       </c>
-      <c r="BM45" s="5">
+      <c r="BN45" s="5">
         <v>39.502304557315959</v>
       </c>
-      <c r="BN45" s="5">
+      <c r="BO45" s="5">
         <v>4.8519233740839613</v>
       </c>
+      <c r="BP45" s="18"/>
     </row>
-    <row r="46" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>44211</v>
       </c>
@@ -10247,12 +10604,15 @@
         <v>100.00000000000003</v>
       </c>
       <c r="BG46" s="5">
-        <v>30.055077007939431</v>
+        <f t="shared" si="7"/>
+        <v>32.654596130828004</v>
       </c>
       <c r="BH46" s="5">
+        <f t="shared" si="8"/>
         <v>12.605893028521516</v>
       </c>
       <c r="BI46" s="5">
+        <f t="shared" si="9"/>
         <v>54.336326688694818</v>
       </c>
       <c r="BJ46" s="5">
@@ -10262,16 +10622,21 @@
         <v>0.70098608466655199</v>
       </c>
       <c r="BL46" s="5">
+        <f t="shared" si="0"/>
+        <v>36.985849583326619</v>
+      </c>
+      <c r="BM46" s="5">
         <v>45.092956860736535</v>
       </c>
-      <c r="BM46" s="5">
+      <c r="BN46" s="5">
         <v>9.2938312054959109</v>
       </c>
-      <c r="BN46" s="5">
+      <c r="BO46" s="5">
         <v>4.8519233740839622</v>
       </c>
+      <c r="BP46" s="18"/>
     </row>
-    <row r="47" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>44211</v>
       </c>
@@ -10445,12 +10810,15 @@
         <v>380.83121966330793</v>
       </c>
       <c r="BG47" s="5">
-        <v>131.78847069360526</v>
+        <f t="shared" si="7"/>
+        <v>142.00330685819685</v>
       </c>
       <c r="BH47" s="5">
+        <f t="shared" si="8"/>
         <v>47.097846456780694</v>
       </c>
       <c r="BI47" s="5">
+        <f t="shared" si="9"/>
         <v>190.03014752191424</v>
       </c>
       <c r="BJ47" s="5">
@@ -10460,16 +10828,21 @@
         <v>3.6332250998071549</v>
       </c>
       <c r="BL47" s="5">
+        <f t="shared" si="0"/>
+        <v>120.09125619568749</v>
+      </c>
+      <c r="BM47" s="5">
         <v>161.25472580122127</v>
       </c>
-      <c r="BM47" s="5">
+      <c r="BN47" s="5">
         <v>29.143693764506274</v>
       </c>
-      <c r="BN47" s="5">
+      <c r="BO47" s="5">
         <v>5.533091553329843</v>
       </c>
+      <c r="BP47" s="18"/>
     </row>
-    <row r="48" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>44211</v>
       </c>
@@ -10643,12 +11016,15 @@
         <v>100</v>
       </c>
       <c r="BG48" s="5">
-        <v>34.60547977398469</v>
+        <f t="shared" si="7"/>
+        <v>37.287727351697079</v>
       </c>
       <c r="BH48" s="5">
+        <f t="shared" si="8"/>
         <v>12.367118036809012</v>
       </c>
       <c r="BI48" s="5">
+        <f t="shared" si="9"/>
         <v>49.89878395209287</v>
       </c>
       <c r="BJ48" s="5">
@@ -10658,16 +11034,21 @@
         <v>0.95402501481346014</v>
       </c>
       <c r="BL48" s="5">
+        <f t="shared" si="0"/>
+        <v>31.533984084041194</v>
+      </c>
+      <c r="BM48" s="5">
         <v>42.342832592292794</v>
       </c>
-      <c r="BM48" s="5">
+      <c r="BN48" s="5">
         <v>7.6526535272691545</v>
       </c>
-      <c r="BN48" s="5">
+      <c r="BO48" s="5">
         <v>5.5330915533298439</v>
       </c>
+      <c r="BP48" s="18"/>
     </row>
-    <row r="49" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>44211</v>
       </c>
@@ -10841,12 +11222,15 @@
         <v>340.0582306844708</v>
       </c>
       <c r="BG49" s="5">
-        <v>115.4811949342425</v>
+        <f t="shared" si="7"/>
+        <v>124.74056928206147</v>
       </c>
       <c r="BH49" s="5">
+        <f t="shared" si="8"/>
         <v>42.182873687072551</v>
       </c>
       <c r="BI49" s="5">
+        <f t="shared" si="9"/>
         <v>171.61270225121706</v>
       </c>
       <c r="BJ49" s="5">
@@ -10856,16 +11240,21 @@
         <v>3.3410415458190554</v>
       </c>
       <c r="BL49" s="5">
+        <f t="shared" si="0"/>
+        <v>107.35315124925053</v>
+      </c>
+      <c r="BM49" s="5">
         <v>146.78237220632653</v>
       </c>
-      <c r="BM49" s="5">
+      <c r="BN49" s="5">
         <v>25.172971816916426</v>
       </c>
-      <c r="BN49" s="5">
+      <c r="BO49" s="5">
         <v>5.830951278771451</v>
       </c>
+      <c r="BP49" s="18"/>
     </row>
-    <row r="50" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>44211</v>
       </c>
@@ -11039,12 +11428,15 @@
         <v>99.999999999999972</v>
       </c>
       <c r="BG50" s="5">
-        <v>33.959241245771771</v>
+        <f t="shared" si="7"/>
+        <v>36.68212030362654</v>
       </c>
       <c r="BH50" s="5">
+        <f t="shared" si="8"/>
         <v>12.40460305935447</v>
       </c>
       <c r="BI50" s="5">
+        <f t="shared" si="9"/>
         <v>50.46568109990875</v>
       </c>
       <c r="BJ50" s="5">
@@ -11054,16 +11446,21 @@
         <v>0.98249101017028506</v>
       </c>
       <c r="BL50" s="5">
+        <f t="shared" si="0"/>
+        <v>31.569049522244942</v>
+      </c>
+      <c r="BM50" s="5">
         <v>43.163893404633164</v>
       </c>
-      <c r="BM50" s="5">
+      <c r="BN50" s="5">
         <v>7.4025474302586787</v>
       </c>
-      <c r="BN50" s="5">
+      <c r="BO50" s="5">
         <v>5.830951278771451</v>
       </c>
+      <c r="BP50" s="18"/>
     </row>
-    <row r="51" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>44211</v>
       </c>
@@ -11237,12 +11634,15 @@
         <v>455.73869007206292</v>
       </c>
       <c r="BG51" s="5">
-        <v>142.82170456399885</v>
+        <f t="shared" si="7"/>
+        <v>154.84220071172351</v>
       </c>
       <c r="BH51" s="5">
-        <v>57.365895112150355</v>
+        <f t="shared" si="8"/>
+        <v>57.365895112150362</v>
       </c>
       <c r="BI51" s="5">
+        <f t="shared" si="9"/>
         <v>241.75458495401719</v>
       </c>
       <c r="BJ51" s="5">
@@ -11252,16 +11652,21 @@
         <v>3.4562794796593699</v>
       </c>
       <c r="BL51" s="5">
+        <f t="shared" si="0"/>
+        <v>163.739253177134</v>
+      </c>
+      <c r="BM51" s="5">
         <v>200.44067740849056</v>
       </c>
-      <c r="BM51" s="5">
+      <c r="BN51" s="5">
         <v>41.5458896409137</v>
       </c>
-      <c r="BN51" s="5">
+      <c r="BO51" s="5">
         <v>4.8245609647771248</v>
       </c>
+      <c r="BP51" s="18"/>
     </row>
-    <row r="52" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>44211</v>
       </c>
@@ -11435,12 +11840,15 @@
         <v>100</v>
       </c>
       <c r="BG52" s="5">
-        <v>31.338507718406667</v>
+        <f t="shared" si="7"/>
+        <v>33.97609289815604</v>
       </c>
       <c r="BH52" s="5">
+        <f t="shared" si="8"/>
         <v>12.587453372255816</v>
       </c>
       <c r="BI52" s="5">
+        <f t="shared" si="9"/>
         <v>53.046754690893188</v>
       </c>
       <c r="BJ52" s="5">
@@ -11450,16 +11858,21 @@
         <v>0.75839062053582751</v>
       </c>
       <c r="BL52" s="5">
+        <f t="shared" si="0"/>
+        <v>35.928319614743046</v>
+      </c>
+      <c r="BM52" s="5">
         <v>43.981492415488404</v>
       </c>
-      <c r="BM52" s="5">
+      <c r="BN52" s="5">
         <v>9.1161647114806801</v>
       </c>
-      <c r="BN52" s="5">
+      <c r="BO52" s="5">
         <v>4.8245609647771239</v>
       </c>
+      <c r="BP52" s="18"/>
     </row>
-    <row r="53" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>44211</v>
       </c>
@@ -11633,12 +12046,15 @@
         <v>455.64766125050687</v>
       </c>
       <c r="BG53" s="5">
-        <v>141.59757495303086</v>
+        <f t="shared" si="7"/>
+        <v>153.51223942188048</v>
       </c>
       <c r="BH53" s="5">
+        <f t="shared" si="8"/>
         <v>56.954985863665257</v>
       </c>
       <c r="BI53" s="5">
+        <f t="shared" si="9"/>
         <v>243.42725917730516</v>
       </c>
       <c r="BJ53" s="5">
@@ -11648,16 +12064,21 @@
         <v>3.3415092237236439</v>
       </c>
       <c r="BL53" s="5">
+        <f t="shared" si="0"/>
+        <v>165.44888135376064</v>
+      </c>
+      <c r="BM53" s="5">
         <v>201.66400698249768</v>
       </c>
-      <c r="BM53" s="5">
+      <c r="BN53" s="5">
         <v>41.984168814242182</v>
       </c>
-      <c r="BN53" s="5">
+      <c r="BO53" s="5">
         <v>4.8033345110333041</v>
       </c>
+      <c r="BP53" s="18"/>
     </row>
-    <row r="54" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>44211</v>
       </c>
@@ -11831,12 +12252,15 @@
         <v>99.999999999999986</v>
       </c>
       <c r="BG54" s="5">
-        <v>31.076111433211786</v>
+        <f t="shared" si="7"/>
+        <v>33.690996898913568</v>
       </c>
       <c r="BH54" s="5">
-        <v>12.499786722783686</v>
+        <f t="shared" si="8"/>
+        <v>12.499786722783687</v>
       </c>
       <c r="BI54" s="5">
+        <f t="shared" si="9"/>
         <v>53.424450486419424</v>
       </c>
       <c r="BJ54" s="5">
@@ -11846,16 +12270,21 @@
         <v>0.7333537528872649</v>
       </c>
       <c r="BL54" s="5">
+        <f t="shared" si="0"/>
+        <v>36.310705710568733</v>
+      </c>
+      <c r="BM54" s="5">
         <v>44.25876047054404</v>
       </c>
-      <c r="BM54" s="5">
+      <c r="BN54" s="5">
         <v>9.2141741052764967</v>
       </c>
-      <c r="BN54" s="5">
+      <c r="BO54" s="5">
         <v>4.8033345110333068</v>
       </c>
+      <c r="BP54" s="18"/>
     </row>
-    <row r="55" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>44211</v>
       </c>
@@ -12029,12 +12458,15 @@
         <v>262.57135596562409</v>
       </c>
       <c r="BG55" s="5">
-        <v>84.487787763034248</v>
+        <f t="shared" si="7"/>
+        <v>91.16400615738452</v>
       </c>
       <c r="BH55" s="5">
+        <f t="shared" si="8"/>
         <v>57.142954244012671</v>
       </c>
       <c r="BI55" s="5">
+        <f t="shared" si="9"/>
         <v>113.45652389022386</v>
       </c>
       <c r="BJ55" s="5">
@@ -12044,16 +12476,21 @@
         <v>2.0764191614340239</v>
       </c>
       <c r="BL55" s="5">
+        <f t="shared" si="0"/>
+        <v>82.63680140558823</v>
+      </c>
+      <c r="BM55" s="5">
         <v>94.036761437211496</v>
       </c>
-      <c r="BM55" s="5">
+      <c r="BN55" s="5">
         <v>19.593560629173279</v>
       </c>
-      <c r="BN55" s="5">
+      <c r="BO55" s="5">
         <v>4.7993707329130428</v>
       </c>
+      <c r="BP55" s="18"/>
     </row>
-    <row r="56" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>44211</v>
       </c>
@@ -12227,12 +12664,15 @@
         <v>100.00000000000001</v>
       </c>
       <c r="BG56" s="5">
-        <v>32.177077142449384</v>
+        <f t="shared" si="7"/>
+        <v>34.719707266667626</v>
       </c>
       <c r="BH56" s="5">
+        <f t="shared" si="8"/>
         <v>21.76282863523538</v>
       </c>
       <c r="BI56" s="5">
+        <f t="shared" si="9"/>
         <v>43.209787096913047</v>
       </c>
       <c r="BJ56" s="5">
@@ -12242,16 +12682,21 @@
         <v>0.79080185795508817</v>
       </c>
       <c r="BL56" s="5">
+        <f t="shared" si="0"/>
+        <v>31.4721311095362</v>
+      </c>
+      <c r="BM56" s="5">
         <v>35.813792822672859</v>
       </c>
-      <c r="BM56" s="5">
+      <c r="BN56" s="5">
         <v>7.4621851104499282</v>
       </c>
-      <c r="BN56" s="5">
+      <c r="BO56" s="5">
         <v>4.7993707329130419</v>
       </c>
+      <c r="BP56" s="18"/>
     </row>
-    <row r="57" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>44211</v>
       </c>
@@ -12421,12 +12866,15 @@
         <v>100.00000000000001</v>
       </c>
       <c r="BG57" s="5">
-        <v>78.473614303163529</v>
+        <f t="shared" si="7"/>
+        <v>78.331000941114695</v>
       </c>
       <c r="BH57" s="5">
-        <v>10.167746834954885</v>
+        <f t="shared" si="8"/>
+        <v>10.167746834954883</v>
       </c>
       <c r="BI57" s="5">
+        <f t="shared" si="9"/>
         <v>10.341730686939567</v>
       </c>
       <c r="BJ57" s="5">
@@ -12436,16 +12884,21 @@
         <v>1.772692248077538</v>
       </c>
       <c r="BL57" s="5">
+        <f t="shared" si="0"/>
+        <v>5.2486611920341204</v>
+      </c>
+      <c r="BM57" s="5">
         <v>8.8954250256414813</v>
       </c>
-      <c r="BM57" s="5">
+      <c r="BN57" s="5">
         <v>1.3165964724143635</v>
       </c>
-      <c r="BN57" s="5">
+      <c r="BO57" s="5">
         <v>6.7563792035148973</v>
       </c>
+      <c r="BP57" s="18"/>
     </row>
-    <row r="58" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>44232</v>
       </c>
@@ -12619,12 +13072,15 @@
         <v>322.84104438819742</v>
       </c>
       <c r="BG58" s="5">
-        <v>102.02678957460385</v>
+        <f t="shared" si="7"/>
+        <v>111.90090622511545</v>
       </c>
       <c r="BH58" s="5">
+        <f t="shared" si="8"/>
         <v>41.237953268150797</v>
       </c>
       <c r="BI58" s="5">
+        <f t="shared" si="9"/>
         <v>168.07663248231742</v>
       </c>
       <c r="BJ58" s="5">
@@ -12634,16 +13090,21 @@
         <v>2.5531887862443492</v>
       </c>
       <c r="BL58" s="5">
+        <f t="shared" si="0"/>
+        <v>104.58143184146509</v>
+      </c>
+      <c r="BM58" s="5">
         <v>143.16737057883284</v>
       </c>
-      <c r="BM58" s="5">
+      <c r="BN58" s="5">
         <v>25.220917736181256</v>
       </c>
-      <c r="BN58" s="5">
+      <c r="BO58" s="5">
         <v>5.6765329507993574</v>
       </c>
+      <c r="BP58" s="18"/>
     </row>
-    <row r="59" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>44232</v>
       </c>
@@ -12817,12 +13278,15 @@
         <v>100</v>
       </c>
       <c r="BG59" s="5">
-        <v>31.602793804595255</v>
+        <f t="shared" si="7"/>
+        <v>34.661301024215859</v>
       </c>
       <c r="BH59" s="5">
+        <f t="shared" si="8"/>
         <v>12.773454300489925</v>
       </c>
       <c r="BI59" s="5">
+        <f t="shared" si="9"/>
         <v>52.061729883457794</v>
       </c>
       <c r="BJ59" s="5">
@@ -12832,16 +13296,21 @@
         <v>0.79085011978039876</v>
       </c>
       <c r="BL59" s="5">
+        <f t="shared" si="0"/>
+        <v>32.394094139935952</v>
+      </c>
+      <c r="BM59" s="5">
         <v>44.346087050406915</v>
       </c>
-      <c r="BM59" s="5">
+      <c r="BN59" s="5">
         <v>7.8121782141971323</v>
       </c>
-      <c r="BN59" s="5">
+      <c r="BO59" s="5">
         <v>5.6765329507993592</v>
       </c>
+      <c r="BP59" s="18"/>
     </row>
-    <row r="60" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>44232</v>
       </c>
@@ -13015,12 +13484,15 @@
         <v>382.19311828386361</v>
       </c>
       <c r="BG60" s="5">
-        <v>116.51151474520535</v>
+        <f t="shared" si="7"/>
+        <v>126.96352979503207</v>
       </c>
       <c r="BH60" s="5">
+        <f t="shared" si="8"/>
         <v>50.231915178120637</v>
       </c>
       <c r="BI60" s="5">
+        <f t="shared" si="9"/>
         <v>203.45802259531177</v>
       </c>
       <c r="BJ60" s="5">
@@ -13030,16 +13502,21 @@
         <v>2.8000854302369067</v>
       </c>
       <c r="BL60" s="5">
+        <f t="shared" si="0"/>
+        <v>135.56946216329521</v>
+      </c>
+      <c r="BM60" s="5">
         <v>166.22881588181002</v>
       </c>
-      <c r="BM60" s="5">
+      <c r="BN60" s="5">
         <v>37.436766239134599</v>
       </c>
-      <c r="BN60" s="5">
+      <c r="BO60" s="5">
         <v>4.4402557320253369</v>
       </c>
+      <c r="BP60" s="18"/>
     </row>
-    <row r="61" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>44232</v>
       </c>
@@ -13213,12 +13690,15 @@
         <v>100.00000000000001</v>
       </c>
       <c r="BG61" s="5">
-        <v>30.48498499093057</v>
+        <f t="shared" si="7"/>
+        <v>33.219732046753748</v>
       </c>
       <c r="BH61" s="5">
+        <f t="shared" si="8"/>
         <v>13.143071597854421</v>
       </c>
       <c r="BI61" s="5">
+        <f t="shared" si="9"/>
         <v>53.234350086910453</v>
       </c>
       <c r="BJ61" s="5">
@@ -13228,16 +13708,21 @@
         <v>0.73263627634373552</v>
       </c>
       <c r="BL61" s="5">
+        <f t="shared" si="0"/>
+        <v>35.471455575137973</v>
+      </c>
+      <c r="BM61" s="5">
         <v>43.493408941588541</v>
       </c>
-      <c r="BM61" s="5">
+      <c r="BN61" s="5">
         <v>9.7952486447779137</v>
       </c>
-      <c r="BN61" s="5">
+      <c r="BO61" s="5">
         <v>4.4402557320253369</v>
       </c>
+      <c r="BP61" s="18"/>
     </row>
-    <row r="62" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>44232</v>
       </c>
@@ -13411,12 +13896,15 @@
         <v>374.79885832654452</v>
       </c>
       <c r="BG62" s="5">
-        <v>132.47128323973669</v>
+        <f t="shared" si="7"/>
+        <v>143.2954248379987</v>
       </c>
       <c r="BH62" s="5">
+        <f t="shared" si="8"/>
         <v>45.850754725925015</v>
       </c>
       <c r="BI62" s="5">
+        <f t="shared" si="9"/>
         <v>183.91607258766686</v>
       </c>
       <c r="BJ62" s="5">
@@ -13426,16 +13914,21 @@
         <v>3.746650438890438</v>
       </c>
       <c r="BL62" s="5">
+        <f t="shared" si="0"/>
+        <v>114.53015401811489</v>
+      </c>
+      <c r="BM62" s="5">
         <v>156.56045633194358</v>
       </c>
-      <c r="BM62" s="5">
+      <c r="BN62" s="5">
         <v>27.722652854587746</v>
       </c>
-      <c r="BN62" s="5">
+      <c r="BO62" s="5">
         <v>5.6473836451779116</v>
       </c>
+      <c r="BP62" s="18"/>
     </row>
-    <row r="63" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>44232</v>
       </c>
@@ -13609,12 +14102,15 @@
         <v>100.00000000000001</v>
       </c>
       <c r="BG63" s="5">
-        <v>35.344633607266957</v>
+        <f t="shared" si="7"/>
+        <v>38.232620418804004</v>
       </c>
       <c r="BH63" s="5">
+        <f t="shared" si="8"/>
         <v>12.233429666954166</v>
       </c>
       <c r="BI63" s="5">
+        <f t="shared" si="9"/>
         <v>49.070606407085002</v>
       </c>
       <c r="BJ63" s="5">
@@ -13624,16 +14120,21 @@
         <v>0.99964296999703206</v>
       </c>
       <c r="BL63" s="5">
+        <f t="shared" si="0"/>
+        <v>30.55776491142089</v>
+      </c>
+      <c r="BM63" s="5">
         <v>41.771860520327373</v>
       </c>
-      <c r="BM63" s="5">
+      <c r="BN63" s="5">
         <v>7.3966748400376154</v>
       </c>
-      <c r="BN63" s="5">
+      <c r="BO63" s="5">
         <v>5.6473836451779116</v>
       </c>
+      <c r="BP63" s="18"/>
     </row>
-    <row r="64" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>44232</v>
       </c>
@@ -13807,12 +14308,15 @@
         <v>379.85489892908669</v>
       </c>
       <c r="BG64" s="5">
-        <v>149.37887501027575</v>
+        <f t="shared" si="7"/>
+        <v>159.58558780994576</v>
       </c>
       <c r="BH64" s="5">
+        <f t="shared" si="8"/>
         <v>43.927224480595314</v>
       </c>
       <c r="BI64" s="5">
+        <f t="shared" si="9"/>
         <v>174.38673514114237</v>
       </c>
       <c r="BJ64" s="5">
@@ -13822,16 +14326,21 @@
         <v>4.0037379502540515</v>
       </c>
       <c r="BL64" s="5">
+        <f t="shared" si="0"/>
+        <v>108.48191965157041</v>
+      </c>
+      <c r="BM64" s="5">
         <v>149.24378047155801</v>
       </c>
-      <c r="BM64" s="5">
+      <c r="BN64" s="5">
         <v>25.478140200992289</v>
       </c>
-      <c r="BN64" s="5">
+      <c r="BO64" s="5">
         <v>5.8577187853666599</v>
       </c>
+      <c r="BP64" s="18"/>
     </row>
-    <row r="65" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>44232</v>
       </c>
@@ -14005,12 +14514,15 @@
         <v>100</v>
       </c>
       <c r="BG65" s="5">
-        <v>39.325246411567946</v>
+        <f t="shared" si="7"/>
+        <v>42.012249482594676</v>
       </c>
       <c r="BH65" s="5">
+        <f t="shared" si="8"/>
         <v>11.564211651459015</v>
       </c>
       <c r="BI65" s="5">
+        <f t="shared" si="9"/>
         <v>45.908776122878912</v>
       </c>
       <c r="BJ65" s="5">
@@ -14020,16 +14532,21 @@
         <v>1.0540177213829987</v>
       </c>
       <c r="BL65" s="5">
+        <f t="shared" si="0"/>
+        <v>28.558778617153592</v>
+      </c>
+      <c r="BM65" s="5">
         <v>39.28968163693991</v>
       </c>
-      <c r="BM65" s="5">
+      <c r="BN65" s="5">
         <v>6.7073348988842927</v>
       </c>
-      <c r="BN65" s="5">
+      <c r="BO65" s="5">
         <v>5.8577187853666599</v>
       </c>
+      <c r="BP65" s="18"/>
     </row>
-    <row r="66" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>44232</v>
       </c>
@@ -14203,12 +14720,15 @@
         <v>398.87068725415128</v>
       </c>
       <c r="BG66" s="5">
-        <v>128.09728402918319</v>
+        <f t="shared" si="7"/>
+        <v>139.24861170168148</v>
       </c>
       <c r="BH66" s="5">
-        <v>50.944178503068692</v>
+        <f t="shared" si="8"/>
+        <v>50.944178503068684</v>
       </c>
       <c r="BI66" s="5">
+        <f t="shared" si="9"/>
         <v>207.21584553971979</v>
       </c>
       <c r="BJ66" s="5">
@@ -14218,16 +14738,21 @@
         <v>3.0548708773971827</v>
       </c>
       <c r="BL66" s="5">
+        <f t="shared" si="0"/>
+        <v>138.12942484663407</v>
+      </c>
+      <c r="BM66" s="5">
         <v>170.20705334439305</v>
       </c>
-      <c r="BM66" s="5">
+      <c r="BN66" s="5">
         <v>37.230119374732226</v>
       </c>
-      <c r="BN66" s="5">
+      <c r="BO66" s="5">
         <v>4.5717568517900364</v>
       </c>
+      <c r="BP66" s="18"/>
     </row>
-    <row r="67" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>44232</v>
       </c>
@@ -14401,12 +14926,15 @@
         <v>100</v>
       </c>
       <c r="BG67" s="5">
-        <v>32.114990678059655</v>
+        <f t="shared" si="7"/>
+        <v>34.910715715982271</v>
       </c>
       <c r="BH67" s="5">
-        <v>12.772103875010556</v>
+        <f t="shared" si="8"/>
+        <v>12.772103875010554</v>
       </c>
       <c r="BI67" s="5">
+        <f t="shared" si="9"/>
         <v>51.950632663985807</v>
       </c>
       <c r="BJ67" s="5">
@@ -14416,16 +14944,21 @@
         <v>0.76588001450472309</v>
       </c>
       <c r="BL67" s="5">
+        <f t="shared" si="0"/>
+        <v>34.6301268206809</v>
+      </c>
+      <c r="BM67" s="5">
         <v>42.672239094857581</v>
       </c>
-      <c r="BM67" s="5">
+      <c r="BN67" s="5">
         <v>9.3338820235266002</v>
       </c>
-      <c r="BN67" s="5">
+      <c r="BO67" s="5">
         <v>4.5717568517900364</v>
       </c>
+      <c r="BP67" s="18"/>
     </row>
-    <row r="68" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <v>44232</v>
       </c>
@@ -14599,12 +15132,15 @@
         <v>420.60292628955472</v>
       </c>
       <c r="BG68" s="5">
-        <v>136.75633940285283</v>
+        <f t="shared" si="7"/>
+        <v>149.63326001429522</v>
       </c>
       <c r="BH68" s="5">
+        <f t="shared" si="8"/>
         <v>54.745892573142285</v>
       </c>
       <c r="BI68" s="5">
+        <f t="shared" si="9"/>
         <v>214.70469396715058</v>
       </c>
       <c r="BJ68" s="5">
@@ -14614,16 +15150,21 @@
         <v>3.2115480989464658</v>
       </c>
       <c r="BL68" s="5">
+        <f t="shared" ref="BL68:BL131" si="10">SUM(AO68,AS68,AU68,AZ68,BE68,BA68)</f>
+        <v>142.18789724288351</v>
+      </c>
+      <c r="BM68" s="5">
         <v>175.9157228239805</v>
       </c>
-      <c r="BM68" s="5">
+      <c r="BN68" s="5">
         <v>39.004807269890613</v>
       </c>
-      <c r="BN68" s="5">
+      <c r="BO68" s="5">
         <v>4.5101036291948802</v>
       </c>
+      <c r="BP68" s="18"/>
     </row>
-    <row r="69" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>44232</v>
       </c>
@@ -14797,12 +15338,15 @@
         <v>100.00000000000006</v>
       </c>
       <c r="BG69" s="5">
-        <v>32.514357569805874</v>
+        <f t="shared" si="7"/>
+        <v>35.575896091432213</v>
       </c>
       <c r="BH69" s="5">
+        <f t="shared" si="8"/>
         <v>13.016051280502431</v>
       </c>
       <c r="BI69" s="5">
+        <f t="shared" si="9"/>
         <v>51.046885446379868</v>
       </c>
       <c r="BJ69" s="5">
@@ -14812,16 +15356,21 @@
         <v>0.76355819187419216</v>
       </c>
       <c r="BL69" s="5">
+        <f t="shared" si="10"/>
+        <v>33.805731809149954</v>
+      </c>
+      <c r="BM69" s="5">
         <v>41.82465499606991</v>
       </c>
-      <c r="BM69" s="5">
+      <c r="BN69" s="5">
         <v>9.2735463383434986</v>
       </c>
-      <c r="BN69" s="5">
+      <c r="BO69" s="5">
         <v>4.5101036291948811</v>
       </c>
+      <c r="BP69" s="18"/>
     </row>
-    <row r="70" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>44232</v>
       </c>
@@ -14995,12 +15544,15 @@
         <v>296.33920468207191</v>
       </c>
       <c r="BG70" s="5">
-        <v>96.28634768407322</v>
+        <f t="shared" si="7"/>
+        <v>105.16150461707934</v>
       </c>
       <c r="BH70" s="5">
-        <v>65.23352128545703</v>
+        <f t="shared" si="8"/>
+        <v>65.233521285457016</v>
       </c>
       <c r="BI70" s="5">
+        <f t="shared" si="9"/>
         <v>125.06681105796291</v>
       </c>
       <c r="BJ70" s="5">
@@ -15010,16 +15562,21 @@
         <v>2.453725580689734</v>
       </c>
       <c r="BL70" s="5">
+        <f t="shared" si="10"/>
+        <v>89.623576284067596</v>
+      </c>
+      <c r="BM70" s="5">
         <v>102.94809335280659</v>
       </c>
-      <c r="BM70" s="5">
+      <c r="BN70" s="5">
         <v>22.295415037833127</v>
       </c>
-      <c r="BN70" s="5">
+      <c r="BO70" s="5">
         <v>4.617455794301824</v>
       </c>
+      <c r="BP70" s="18"/>
     </row>
-    <row r="71" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>44232</v>
       </c>
@@ -15193,12 +15750,15 @@
         <v>100</v>
       </c>
       <c r="BG71" s="5">
-        <v>32.491936997460137</v>
+        <f t="shared" si="7"/>
+        <v>35.486868748906204</v>
       </c>
       <c r="BH71" s="5">
+        <f t="shared" si="8"/>
         <v>22.013125585405728</v>
       </c>
       <c r="BI71" s="5">
+        <f t="shared" si="9"/>
         <v>42.203936935087981</v>
       </c>
       <c r="BJ71" s="5">
@@ -15208,16 +15768,21 @@
         <v>0.82801247419227519</v>
       </c>
       <c r="BL71" s="5">
+        <f t="shared" si="10"/>
+        <v>30.243577247978521</v>
+      </c>
+      <c r="BM71" s="5">
         <v>34.739950612763053</v>
       </c>
-      <c r="BM71" s="5">
+      <c r="BN71" s="5">
         <v>7.5236130372128134</v>
       </c>
-      <c r="BN71" s="5">
+      <c r="BO71" s="5">
         <v>4.6174557943018248</v>
       </c>
+      <c r="BP71" s="18"/>
     </row>
-    <row r="72" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>44232</v>
       </c>
@@ -15384,12 +15949,15 @@
         <v>100.00000000000001</v>
       </c>
       <c r="BG72" s="5">
-        <v>59.957765699239971</v>
+        <f t="shared" si="7"/>
+        <v>64.710120626741087</v>
       </c>
       <c r="BH72" s="5">
+        <f t="shared" si="8"/>
         <v>15.879034587634512</v>
       </c>
       <c r="BI72" s="5">
+        <f t="shared" si="9"/>
         <v>18.517350262470242</v>
       </c>
       <c r="BJ72" s="5">
@@ -15399,16 +15967,21 @@
         <v>3.0928656570720867</v>
       </c>
       <c r="BL72" s="5">
+        <f t="shared" si="10"/>
+        <v>6.9158667494529791</v>
+      </c>
+      <c r="BM72" s="5">
         <v>13.797866370938021</v>
       </c>
-      <c r="BM72" s="5">
+      <c r="BN72" s="5">
         <v>4.0212234001932412</v>
       </c>
-      <c r="BN72" s="5">
+      <c r="BO72" s="5">
         <v>3.4312608372553886</v>
       </c>
+      <c r="BP72" s="18"/>
     </row>
-    <row r="73" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>44232</v>
       </c>
@@ -15575,12 +16148,15 @@
         <v>100.00000000000001</v>
       </c>
       <c r="BG73" s="5">
-        <v>58.006474862224792</v>
+        <f t="shared" si="7"/>
+        <v>60.799617510102671</v>
       </c>
       <c r="BH73" s="5">
+        <f t="shared" si="8"/>
         <v>22.269991073540293</v>
       </c>
       <c r="BI73" s="5">
+        <f t="shared" si="9"/>
         <v>16.355003522264013</v>
       </c>
       <c r="BJ73" s="5">
@@ -15590,16 +16166,21 @@
         <v>3.3120725916996641</v>
       </c>
       <c r="BL73" s="5">
+        <f t="shared" si="10"/>
+        <v>7.9005526266934201</v>
+      </c>
+      <c r="BM73" s="5">
         <v>10.910498889914626</v>
       </c>
-      <c r="BM73" s="5">
+      <c r="BN73" s="5">
         <v>5.3754580850582254</v>
       </c>
-      <c r="BN73" s="5">
+      <c r="BO73" s="5">
         <v>2.0296872782324833</v>
       </c>
+      <c r="BP73" s="18"/>
     </row>
-    <row r="74" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <v>44232</v>
       </c>
@@ -15775,12 +16356,15 @@
         <v>239.80306044298771</v>
       </c>
       <c r="BG74" s="5">
-        <v>73.620826840600813</v>
+        <f t="shared" si="7"/>
+        <v>79.426493860007113</v>
       </c>
       <c r="BH74" s="5">
+        <f t="shared" si="8"/>
         <v>53.202683722623796</v>
       </c>
       <c r="BI74" s="5">
+        <f t="shared" si="9"/>
         <v>107.17388286035676</v>
       </c>
       <c r="BJ74" s="5">
@@ -15790,16 +16374,21 @@
         <v>1.8013620590576775</v>
       </c>
       <c r="BL74" s="5">
+        <f t="shared" si="10"/>
+        <v>78.894076580709964</v>
+      </c>
+      <c r="BM74" s="5">
         <v>89.54290011459851</v>
       </c>
-      <c r="BM74" s="5">
+      <c r="BN74" s="5">
         <v>18.072745940243863</v>
       </c>
-      <c r="BN74" s="5">
+      <c r="BO74" s="5">
         <v>4.9545819108322107</v>
       </c>
+      <c r="BP74" s="18"/>
     </row>
-    <row r="75" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>44232</v>
       </c>
@@ -15975,12 +16564,15 @@
         <v>99.999999999999986</v>
       </c>
       <c r="BG75" s="5">
-        <v>30.700536809080425</v>
+        <f t="shared" si="7"/>
+        <v>33.121551373565751</v>
       </c>
       <c r="BH75" s="5">
+        <f t="shared" si="8"/>
         <v>22.18599029734758</v>
       </c>
       <c r="BI75" s="5">
+        <f t="shared" si="9"/>
         <v>44.692458329086662</v>
       </c>
       <c r="BJ75" s="5">
@@ -15990,16 +16582,21 @@
         <v>0.75118393223590441</v>
       </c>
       <c r="BL75" s="5">
+        <f t="shared" si="10"/>
+        <v>32.899528652790792</v>
+      </c>
+      <c r="BM75" s="5">
         <v>37.340182376816244</v>
       </c>
-      <c r="BM75" s="5">
+      <c r="BN75" s="5">
         <v>7.5364951168088155</v>
       </c>
-      <c r="BN75" s="5">
+      <c r="BO75" s="5">
         <v>4.9545819108322107</v>
       </c>
+      <c r="BP75" s="18"/>
     </row>
-    <row r="76" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
         <v>44273</v>
       </c>
@@ -16173,12 +16770,15 @@
         <v>280.80410841204872</v>
       </c>
       <c r="BG76" s="5">
-        <v>90.009992694430366</v>
+        <f t="shared" si="7"/>
+        <v>99.968352045638582</v>
       </c>
       <c r="BH76" s="5">
+        <f t="shared" si="8"/>
         <v>37.502242799113674</v>
       </c>
       <c r="BI76" s="5">
+        <f t="shared" si="9"/>
         <v>142.8745847981202</v>
       </c>
       <c r="BJ76" s="5">
@@ -16188,16 +16788,21 @@
         <v>2.3758869160599261</v>
       </c>
       <c r="BL76" s="5">
+        <f t="shared" si="10"/>
+        <v>88.475521571262377</v>
+      </c>
+      <c r="BM76" s="5">
         <v>120.54901834751301</v>
       </c>
-      <c r="BM76" s="5">
+      <c r="BN76" s="5">
         <v>22.616871214658403</v>
       </c>
-      <c r="BN76" s="5">
+      <c r="BO76" s="5">
         <v>5.3300484051650354</v>
       </c>
+      <c r="BP76" s="18"/>
     </row>
-    <row r="77" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>44273</v>
       </c>
@@ -16371,12 +16976,15 @@
         <v>100</v>
       </c>
       <c r="BG77" s="5">
-        <v>32.05437171252165</v>
+        <f t="shared" si="7"/>
+        <v>35.600744095576466</v>
       </c>
       <c r="BH77" s="5">
+        <f t="shared" si="8"/>
         <v>13.355304169582633</v>
       </c>
       <c r="BI77" s="5">
+        <f t="shared" si="9"/>
         <v>50.880517954697339</v>
       </c>
       <c r="BJ77" s="5">
@@ -16386,16 +16994,21 @@
         <v>0.84610119470673029</v>
       </c>
       <c r="BL77" s="5">
+        <f t="shared" si="10"/>
+        <v>31.507915632571304</v>
+      </c>
+      <c r="BM77" s="5">
         <v>42.92993397754023</v>
       </c>
-      <c r="BM77" s="5">
+      <c r="BN77" s="5">
         <v>8.0543234721732322</v>
       </c>
-      <c r="BN77" s="5">
+      <c r="BO77" s="5">
         <v>5.3300484051650336</v>
       </c>
+      <c r="BP77" s="18"/>
     </row>
-    <row r="78" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
         <v>44273</v>
       </c>
@@ -16569,12 +17182,15 @@
         <v>335.98136260679496</v>
       </c>
       <c r="BG78" s="5">
-        <v>103.39566246895764</v>
+        <f t="shared" si="7"/>
+        <v>113.9474696908724</v>
       </c>
       <c r="BH78" s="5">
-        <v>48.36368099006998</v>
+        <f t="shared" si="8"/>
+        <v>48.363680990069973</v>
       </c>
       <c r="BI78" s="5">
+        <f t="shared" si="9"/>
         <v>172.67246480839532</v>
       </c>
       <c r="BJ78" s="5">
@@ -16584,16 +17200,21 @@
         <v>2.7470837814600597</v>
       </c>
       <c r="BL78" s="5">
+        <f t="shared" si="10"/>
+        <v>109.77396544369429</v>
+      </c>
+      <c r="BM78" s="5">
         <v>136.98858220683309</v>
       </c>
-      <c r="BM78" s="5">
+      <c r="BN78" s="5">
         <v>35.862872724806387</v>
       </c>
-      <c r="BN78" s="5">
+      <c r="BO78" s="5">
         <v>3.819788315844479</v>
       </c>
+      <c r="BP78" s="18"/>
     </row>
-    <row r="79" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>44273</v>
       </c>
@@ -16767,12 +17388,15 @@
         <v>100</v>
       </c>
       <c r="BG79" s="5">
-        <v>30.774225589996025</v>
+        <f t="shared" si="7"/>
+        <v>33.914818609812926</v>
       </c>
       <c r="BH79" s="5">
-        <v>14.394751129892546</v>
+        <f t="shared" si="8"/>
+        <v>14.394751129892542</v>
       </c>
       <c r="BI79" s="5">
+        <f t="shared" si="9"/>
         <v>51.393465241248222</v>
       </c>
       <c r="BJ79" s="5">
@@ -16782,16 +17406,21 @@
         <v>0.81762981141159952</v>
       </c>
       <c r="BL79" s="5">
+        <f t="shared" si="10"/>
+        <v>32.672635348575788</v>
+      </c>
+      <c r="BM79" s="5">
         <v>40.772672967325654</v>
       </c>
-      <c r="BM79" s="5">
+      <c r="BN79" s="5">
         <v>10.674066098951254</v>
       </c>
-      <c r="BN79" s="5">
+      <c r="BO79" s="5">
         <v>3.8197883158444785</v>
       </c>
+      <c r="BP79" s="18"/>
     </row>
-    <row r="80" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>44273</v>
       </c>
@@ -16965,12 +17594,15 @@
         <v>365.16175314042573</v>
       </c>
       <c r="BG80" s="5">
-        <v>130.50056313173837</v>
+        <f t="shared" si="7"/>
+        <v>143.58955000582827</v>
       </c>
       <c r="BH80" s="5">
+        <f t="shared" si="8"/>
         <v>45.703103184044501</v>
       </c>
       <c r="BI80" s="5">
+        <f t="shared" si="9"/>
         <v>174.09710916489257</v>
       </c>
       <c r="BJ80" s="5">
@@ -16980,16 +17612,21 @@
         <v>3.5504265577257317</v>
       </c>
       <c r="BL80" s="5">
+        <f t="shared" si="10"/>
+        <v>106.6880940364921</v>
+      </c>
+      <c r="BM80" s="5">
         <v>147.55431765508379</v>
       </c>
-      <c r="BM80" s="5">
+      <c r="BN80" s="5">
         <v>26.953201091707886</v>
       </c>
-      <c r="BN80" s="5">
+      <c r="BO80" s="5">
         <v>5.4744635768134673</v>
       </c>
+      <c r="BP80" s="18"/>
     </row>
-    <row r="81" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>44273</v>
       </c>
@@ -17163,12 +17800,15 @@
         <v>99.999999999999972</v>
       </c>
       <c r="BG81" s="5">
-        <v>35.737741428126334</v>
+        <f t="shared" si="7"/>
+        <v>39.322176753437212</v>
       </c>
       <c r="BH81" s="5">
-        <v>12.51585161671327</v>
+        <f t="shared" si="8"/>
+        <v>12.515851616713269</v>
       </c>
       <c r="BI81" s="5">
+        <f t="shared" si="9"/>
         <v>47.676709750580642</v>
       </c>
       <c r="BJ81" s="5">
@@ -17178,16 +17818,21 @@
         <v>0.97228872607597217</v>
       </c>
       <c r="BL81" s="5">
+        <f t="shared" si="10"/>
+        <v>29.216667167074416</v>
+      </c>
+      <c r="BM81" s="5">
         <v>40.407933302461892</v>
       </c>
-      <c r="BM81" s="5">
+      <c r="BN81" s="5">
         <v>7.3811676222681584</v>
       </c>
-      <c r="BN81" s="5">
+      <c r="BO81" s="5">
         <v>5.4744635768134664</v>
       </c>
+      <c r="BP81" s="18"/>
     </row>
-    <row r="82" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
         <v>44273</v>
       </c>
@@ -17361,12 +18006,15 @@
         <v>334.2323732112481</v>
       </c>
       <c r="BG82" s="5">
-        <v>130.0968040382842</v>
+        <f t="shared" si="7"/>
+        <v>141.83174286464788</v>
       </c>
       <c r="BH82" s="5">
+        <f t="shared" si="8"/>
         <v>40.496845851507103</v>
       </c>
       <c r="BI82" s="5">
+        <f t="shared" si="9"/>
         <v>150.34376105948132</v>
       </c>
       <c r="BJ82" s="5">
@@ -17376,16 +18024,21 @@
         <v>3.5813729518887123</v>
       </c>
       <c r="BL82" s="5">
+        <f t="shared" si="10"/>
+        <v>93.344493058936976</v>
+      </c>
+      <c r="BM82" s="5">
         <v>126.93960452345274</v>
       </c>
-      <c r="BM82" s="5">
+      <c r="BN82" s="5">
         <v>23.697991580236042</v>
       </c>
-      <c r="BN82" s="5">
+      <c r="BO82" s="5">
         <v>5.3565553896693707</v>
       </c>
+      <c r="BP82" s="18"/>
     </row>
-    <row r="83" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
         <v>44273</v>
       </c>
@@ -17559,12 +18212,15 @@
         <v>99.999999999999986</v>
       </c>
       <c r="BG83" s="5">
-        <v>38.924058369432068</v>
+        <f t="shared" si="7"/>
+        <v>42.435070397864969</v>
       </c>
       <c r="BH83" s="5">
+        <f t="shared" si="8"/>
         <v>12.116374444049294</v>
       </c>
       <c r="BI83" s="5">
+        <f t="shared" si="9"/>
         <v>44.981807003015248</v>
       </c>
       <c r="BJ83" s="5">
@@ -17574,16 +18230,21 @@
         <v>1.071521862912167</v>
       </c>
       <c r="BL83" s="5">
+        <f t="shared" si="10"/>
+        <v>27.92802269932708</v>
+      </c>
+      <c r="BM83" s="5">
         <v>37.979446246884606</v>
       </c>
-      <c r="BM83" s="5">
+      <c r="BN83" s="5">
         <v>7.0902741564348615</v>
       </c>
-      <c r="BN83" s="5">
+      <c r="BO83" s="5">
         <v>5.3565553896693707</v>
       </c>
+      <c r="BP83" s="18"/>
     </row>
-    <row r="84" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <v>44273</v>
       </c>
@@ -17757,12 +18418,15 @@
         <v>354.44102492845792</v>
       </c>
       <c r="BG84" s="5">
-        <v>120.57793178013003</v>
+        <f t="shared" si="7"/>
+        <v>132.55856104601696</v>
       </c>
       <c r="BH84" s="5">
+        <f t="shared" si="8"/>
         <v>49.15934333741361</v>
       </c>
       <c r="BI84" s="5">
+        <f t="shared" si="9"/>
         <v>171.63515284412469</v>
       </c>
       <c r="BJ84" s="5">
@@ -17772,16 +18436,21 @@
         <v>2.9668624139883026</v>
       </c>
       <c r="BL84" s="5">
+        <f t="shared" si="10"/>
+        <v>106.63578674479568</v>
+      </c>
+      <c r="BM84" s="5">
         <v>142.13757590071543</v>
       </c>
-      <c r="BM84" s="5">
+      <c r="BN84" s="5">
         <v>29.661637929516683</v>
       </c>
-      <c r="BN84" s="5">
+      <c r="BO84" s="5">
         <v>4.7919665204756772</v>
       </c>
+      <c r="BP84" s="18"/>
     </row>
-    <row r="85" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <v>44273</v>
       </c>
@@ -17955,12 +18624,15 @@
         <v>100.00000000000001</v>
       </c>
       <c r="BG85" s="5">
-        <v>34.01918042767992</v>
+        <f t="shared" si="7"/>
+        <v>37.399327877683803</v>
       </c>
       <c r="BH85" s="5">
+        <f t="shared" si="8"/>
         <v>13.86954101809636</v>
       </c>
       <c r="BI85" s="5">
+        <f t="shared" si="9"/>
         <v>48.424178007827507</v>
       </c>
       <c r="BJ85" s="5">
@@ -17970,16 +18642,21 @@
         <v>0.83705389763703242</v>
       </c>
       <c r="BL85" s="5">
+        <f t="shared" si="10"/>
+        <v>30.085621935643474</v>
+      </c>
+      <c r="BM85" s="5">
         <v>40.101897326757019</v>
       </c>
-      <c r="BM85" s="5">
+      <c r="BN85" s="5">
         <v>8.3685679262167039</v>
       </c>
-      <c r="BN85" s="5">
+      <c r="BO85" s="5">
         <v>4.7919665204756781</v>
       </c>
+      <c r="BP85" s="18"/>
     </row>
-    <row r="86" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
         <v>44273</v>
       </c>
@@ -18153,12 +18830,15 @@
         <v>335.92753233982529</v>
       </c>
       <c r="BG86" s="5">
-        <v>105.91816764232027</v>
+        <f t="shared" si="7"/>
+        <v>117.13288351901373</v>
       </c>
       <c r="BH86" s="5">
-        <v>47.354084986972687</v>
+        <f t="shared" si="8"/>
+        <v>47.354084986972694</v>
       </c>
       <c r="BI86" s="5">
+        <f t="shared" si="9"/>
         <v>170.32949586222486</v>
       </c>
       <c r="BJ86" s="5">
@@ -18168,16 +18848,21 @@
         <v>2.6157653899502953</v>
       </c>
       <c r="BL86" s="5">
+        <f t="shared" si="10"/>
+        <v>108.79339669825904</v>
+      </c>
+      <c r="BM86" s="5">
         <v>135.6681707116457</v>
       </c>
-      <c r="BM86" s="5">
+      <c r="BN86" s="5">
         <v>34.834729910552547</v>
       </c>
-      <c r="BN86" s="5">
+      <c r="BO86" s="5">
         <v>3.8946238727847149</v>
       </c>
+      <c r="BP86" s="18"/>
     </row>
-    <row r="87" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
         <v>44273</v>
       </c>
@@ -18351,12 +19036,15 @@
         <v>99.999999999999986</v>
       </c>
       <c r="BG87" s="5">
-        <v>31.530064506642802</v>
+        <f t="shared" si="7"/>
+        <v>34.86849759028437</v>
       </c>
       <c r="BH87" s="5">
+        <f t="shared" si="8"/>
         <v>14.096517977296713</v>
       </c>
       <c r="BI87" s="5">
+        <f t="shared" si="9"/>
         <v>50.704238106306519</v>
       </c>
       <c r="BJ87" s="5">
@@ -18366,16 +19054,21 @@
         <v>0.77866954569957059</v>
       </c>
       <c r="BL87" s="5">
+        <f t="shared" si="10"/>
+        <v>32.38597204000633</v>
+      </c>
+      <c r="BM87" s="5">
         <v>40.386142144015565</v>
       </c>
-      <c r="BM87" s="5">
+      <c r="BN87" s="5">
         <v>10.369715655016224</v>
       </c>
-      <c r="BN87" s="5">
+      <c r="BO87" s="5">
         <v>3.8946238727847144</v>
       </c>
+      <c r="BP87" s="18"/>
     </row>
-    <row r="88" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
         <v>44273</v>
       </c>
@@ -18549,12 +19242,15 @@
         <v>234.32315235962275</v>
       </c>
       <c r="BG88" s="5">
-        <v>74.607897146439996</v>
+        <f t="shared" si="7"/>
+        <v>82.023067580996909</v>
       </c>
       <c r="BH88" s="5">
-        <v>53.379581375029531</v>
+        <f t="shared" si="8"/>
+        <v>53.379581375029538</v>
       </c>
       <c r="BI88" s="5">
+        <f t="shared" si="9"/>
         <v>98.267311774590496</v>
       </c>
       <c r="BJ88" s="5">
@@ -18564,16 +19260,21 @@
         <v>1.8563267925588871</v>
       </c>
       <c r="BL88" s="5">
+        <f t="shared" si="10"/>
+        <v>68.085295460286275</v>
+      </c>
+      <c r="BM88" s="5">
         <v>79.371974070874344</v>
       </c>
-      <c r="BM88" s="5">
+      <c r="BN88" s="5">
         <v>19.057499408139886</v>
       </c>
-      <c r="BN88" s="5">
+      <c r="BO88" s="5">
         <v>4.1648682427335029</v>
       </c>
+      <c r="BP88" s="18"/>
     </row>
-    <row r="89" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <v>44273</v>
       </c>
@@ -18747,12 +19448,15 @@
         <v>99.999999999999986</v>
       </c>
       <c r="BG89" s="5">
-        <v>31.83974626286054</v>
+        <f t="shared" si="7"/>
+        <v>35.004252356213456</v>
       </c>
       <c r="BH89" s="5">
-        <v>22.780327439904998</v>
+        <f t="shared" si="8"/>
+        <v>22.780327439904994</v>
       </c>
       <c r="BI89" s="5">
+        <f t="shared" si="9"/>
         <v>41.936663443216545</v>
       </c>
       <c r="BJ89" s="5">
@@ -18762,16 +19466,21 @@
         <v>0.79220801438772337</v>
       </c>
       <c r="BL89" s="5">
+        <f t="shared" si="10"/>
+        <v>29.05615376657008</v>
+      </c>
+      <c r="BM89" s="5">
         <v>33.872868844415251</v>
       </c>
-      <c r="BM89" s="5">
+      <c r="BN89" s="5">
         <v>8.1329989018292874</v>
       </c>
-      <c r="BN89" s="5">
+      <c r="BO89" s="5">
         <v>4.1648682427335029</v>
       </c>
+      <c r="BP89" s="18"/>
     </row>
-    <row r="90" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
         <v>44273</v>
       </c>
@@ -18938,12 +19647,15 @@
         <v>100.00000000000001</v>
       </c>
       <c r="BG90" s="5">
-        <v>47.027446729154398</v>
+        <f t="shared" si="7"/>
+        <v>50.096555041602329</v>
       </c>
       <c r="BH90" s="5">
-        <v>27.819529215743014</v>
+        <f t="shared" si="8"/>
+        <v>27.81952921574301</v>
       </c>
       <c r="BI90" s="5">
+        <f t="shared" si="9"/>
         <v>21.29587671629201</v>
       </c>
       <c r="BJ90" s="5">
@@ -18953,16 +19665,21 @@
         <v>14.633578845731538</v>
       </c>
       <c r="BL90" s="5">
+        <f t="shared" si="10"/>
+        <v>4.3936901106025807</v>
+      </c>
+      <c r="BM90" s="5">
         <v>6.836149231568271</v>
       </c>
-      <c r="BM90" s="5">
+      <c r="BN90" s="5">
         <v>1.9899227211093027</v>
       </c>
-      <c r="BN90" s="5">
+      <c r="BO90" s="5">
         <v>3.4353842785198161</v>
       </c>
+      <c r="BP90" s="18"/>
     </row>
-    <row r="91" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
         <v>44273</v>
       </c>
@@ -19129,12 +19846,15 @@
         <v>100.00000000000001</v>
       </c>
       <c r="BG91" s="5">
-        <v>65.330597747764969</v>
+        <f t="shared" si="7"/>
+        <v>68.76825317876316</v>
       </c>
       <c r="BH91" s="5">
+        <f t="shared" si="8"/>
         <v>15.516158447156648</v>
       </c>
       <c r="BI91" s="5">
+        <f t="shared" si="9"/>
         <v>15.094183214089858</v>
       </c>
       <c r="BJ91" s="5">
@@ -19144,16 +19864,21 @@
         <v>5.517401895142263</v>
       </c>
       <c r="BL91" s="5">
+        <f t="shared" si="10"/>
+        <v>6.9999744933746531</v>
+      </c>
+      <c r="BM91" s="5">
         <v>10.236924666182039</v>
       </c>
-      <c r="BM91" s="5">
+      <c r="BN91" s="5">
         <v>0.93832497991353236</v>
       </c>
-      <c r="BN91" s="5">
+      <c r="BO91" s="5">
         <v>10.909785932721713</v>
       </c>
+      <c r="BP91" s="18"/>
     </row>
-    <row r="92" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A92" s="7">
         <v>44273</v>
       </c>
@@ -19329,12 +20054,15 @@
         <v>295.28904562061626</v>
       </c>
       <c r="BG92" s="5">
-        <v>89.778300075155016</v>
+        <f t="shared" si="7"/>
+        <v>97.712981366268167</v>
       </c>
       <c r="BH92" s="5">
+        <f t="shared" si="8"/>
         <v>70.170700416812494</v>
       </c>
       <c r="BI92" s="5">
+        <f t="shared" si="9"/>
         <v>126.60939286696333</v>
       </c>
       <c r="BJ92" s="5">
@@ -19344,16 +20072,21 @@
         <v>1.990319310566254</v>
       </c>
       <c r="BL92" s="5">
+        <f t="shared" si="10"/>
+        <v>88.475091525689692</v>
+      </c>
+      <c r="BM92" s="5">
         <v>103.11985856999902</v>
       </c>
-      <c r="BM92" s="5">
+      <c r="BN92" s="5">
         <v>23.870312420056283</v>
       </c>
-      <c r="BN92" s="5">
+      <c r="BO92" s="5">
         <v>4.3200045627955745</v>
       </c>
+      <c r="BP92" s="18"/>
     </row>
-    <row r="93" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
         <v>44273</v>
       </c>
@@ -19529,12 +20262,15 @@
         <v>100</v>
       </c>
       <c r="BG93" s="5">
-        <v>30.403532202309012</v>
+        <f t="shared" si="7"/>
+        <v>33.090621821375855</v>
       </c>
       <c r="BH93" s="5">
+        <f t="shared" si="8"/>
         <v>23.763394361390215</v>
       </c>
       <c r="BI93" s="5">
+        <f t="shared" si="9"/>
         <v>42.876427264975327</v>
       </c>
       <c r="BJ93" s="5">
@@ -19544,16 +20280,21 @@
         <v>0.67402409269302577</v>
       </c>
       <c r="BL93" s="5">
+        <f t="shared" si="10"/>
+        <v>29.962199017487904</v>
+      </c>
+      <c r="BM93" s="5">
         <v>34.92166746425336</v>
       </c>
-      <c r="BM93" s="5">
+      <c r="BN93" s="5">
         <v>8.0837107823920302</v>
       </c>
-      <c r="BN93" s="5">
+      <c r="BO93" s="5">
         <v>4.3200045627955754</v>
       </c>
+      <c r="BP93" s="18"/>
     </row>
-    <row r="94" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A94" s="7">
         <v>44305</v>
       </c>
@@ -19727,12 +20468,15 @@
         <v>268.94287235169639</v>
       </c>
       <c r="BG94" s="5">
-        <v>86.943231693818191</v>
+        <f t="shared" si="7"/>
+        <v>95.49535085646437</v>
       </c>
       <c r="BH94" s="5">
+        <f t="shared" si="8"/>
         <v>37.060199345969814</v>
       </c>
       <c r="BI94" s="5">
+        <f t="shared" si="9"/>
         <v>135.11470300536061</v>
       </c>
       <c r="BJ94" s="5">
@@ -19742,16 +20486,21 @@
         <v>2.4745259297465982</v>
       </c>
       <c r="BL94" s="5">
+        <f t="shared" si="10"/>
+        <v>84.223869279938427</v>
+      </c>
+      <c r="BM94" s="5">
         <v>113.81170758177595</v>
       </c>
-      <c r="BM94" s="5">
+      <c r="BN94" s="5">
         <v>21.58638765266118</v>
       </c>
-      <c r="BN94" s="5">
+      <c r="BO94" s="5">
         <v>5.2723831987583702</v>
       </c>
+      <c r="BP94" s="18"/>
     </row>
-    <row r="95" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
         <v>44305</v>
       </c>
@@ -19925,12 +20674,15 @@
         <v>99.999999999999972</v>
       </c>
       <c r="BG95" s="5">
-        <v>32.32776943801008</v>
+        <f t="shared" si="7"/>
+        <v>35.507671209663123</v>
       </c>
       <c r="BH95" s="5">
+        <f t="shared" si="8"/>
         <v>13.779952233687091</v>
       </c>
       <c r="BI95" s="5">
+        <f t="shared" si="9"/>
         <v>50.239183445869955</v>
       </c>
       <c r="BJ95" s="5">
@@ -19940,16 +20692,21 @@
         <v>0.92009351581203558</v>
       </c>
       <c r="BL95" s="5">
+        <f t="shared" si="10"/>
+        <v>31.316639308365438</v>
+      </c>
+      <c r="BM95" s="5">
         <v>42.318172103458629</v>
       </c>
-      <c r="BM95" s="5">
+      <c r="BN95" s="5">
         <v>8.0263839914793031</v>
       </c>
-      <c r="BN95" s="5">
+      <c r="BO95" s="5">
         <v>5.2723831987583711</v>
       </c>
+      <c r="BP95" s="18"/>
     </row>
-    <row r="96" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A96" s="7">
         <v>44305</v>
       </c>
@@ -20123,12 +20880,15 @@
         <v>305.68099888070498</v>
       </c>
       <c r="BG96" s="5">
-        <v>94.477844775541541</v>
+        <f t="shared" si="7"/>
+        <v>104.41318985305561</v>
       </c>
       <c r="BH96" s="5">
+        <f t="shared" si="8"/>
         <v>45.078983004161117</v>
       </c>
       <c r="BI96" s="5">
+        <f t="shared" si="9"/>
         <v>155.24280030317902</v>
       </c>
       <c r="BJ96" s="5">
@@ -20138,16 +20898,21 @@
         <v>2.4002493157215876</v>
       </c>
       <c r="BL96" s="5">
+        <f t="shared" si="10"/>
+        <v>97.260215711476576</v>
+      </c>
+      <c r="BM96" s="5">
         <v>122.61182290976478</v>
       </c>
-      <c r="BM96" s="5">
+      <c r="BN96" s="5">
         <v>32.820744860164638</v>
       </c>
-      <c r="BN96" s="5">
+      <c r="BO96" s="5">
         <v>3.7358025673141206</v>
       </c>
+      <c r="BP96" s="18"/>
     </row>
-    <row r="97" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
         <v>44305</v>
       </c>
@@ -20321,12 +21086,15 @@
         <v>99.999999999999972</v>
       </c>
       <c r="BG97" s="5">
-        <v>30.907333174612027</v>
+        <f t="shared" si="7"/>
+        <v>34.157566297996773</v>
       </c>
       <c r="BH97" s="5">
+        <f t="shared" si="8"/>
         <v>14.74706742297503</v>
       </c>
       <c r="BI97" s="5">
+        <f t="shared" si="9"/>
         <v>50.785884916505417</v>
       </c>
       <c r="BJ97" s="5">
@@ -20336,16 +21104,21 @@
         <v>0.78521377662021719</v>
       </c>
       <c r="BL97" s="5">
+        <f t="shared" si="10"/>
+        <v>31.817553615569459</v>
+      </c>
+      <c r="BM97" s="5">
         <v>40.111038421990777</v>
       </c>
-      <c r="BM97" s="5">
+      <c r="BN97" s="5">
         <v>10.736926724376891</v>
       </c>
-      <c r="BN97" s="5">
+      <c r="BO97" s="5">
         <v>3.7358025673141202</v>
       </c>
+      <c r="BP97" s="18"/>
     </row>
-    <row r="98" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
         <v>44305</v>
       </c>
@@ -20519,12 +21292,15 @@
         <v>311.86782359957994</v>
       </c>
       <c r="BG98" s="5">
-        <v>107.38585098946744</v>
+        <f t="shared" ref="BG98:BG161" si="11">SUM(L98,M98,P98,Q98,S98,T98,W98,Z98,AJ98,AQ98,AV98,AY98,N98,AN98)</f>
+        <v>118.85639855785523</v>
       </c>
       <c r="BH98" s="5">
+        <f t="shared" ref="BH98:BH161" si="12">SUM(O98,R98,U98,V98,Y98,AA98,AB98,AC98,AD98,AE98,AL98,AS98,BA98)</f>
         <v>41.441034966002157</v>
       </c>
       <c r="BI98" s="5">
+        <f t="shared" ref="BI98:BI161" si="13">SUM(AG98,AI98,AK98,AM98,AO98,AP98,AR98,AT98,AU98,AW98,AX98,AZ98,BB98,BC98,BD98,BE98)</f>
         <v>149.85667399635346</v>
       </c>
       <c r="BJ98" s="5">
@@ -20534,16 +21310,21 @@
         <v>2.7535952452785959</v>
       </c>
       <c r="BL98" s="5">
+        <f t="shared" si="10"/>
+        <v>92.259147044820708</v>
+      </c>
+      <c r="BM98" s="5">
         <v>126.60617204251071</v>
       </c>
-      <c r="BM98" s="5">
+      <c r="BN98" s="5">
         <v>23.626056745815795</v>
       </c>
-      <c r="BN98" s="5">
+      <c r="BO98" s="5">
         <v>5.3587517123411983</v>
       </c>
+      <c r="BP98" s="18"/>
     </row>
-    <row r="99" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <v>44305</v>
       </c>
@@ -20717,12 +21498,15 @@
         <v>99.999999999999986</v>
       </c>
       <c r="BG99" s="5">
-        <v>34.433129314213772</v>
+        <f t="shared" si="11"/>
+        <v>38.111145031255262</v>
       </c>
       <c r="BH99" s="5">
+        <f t="shared" si="12"/>
         <v>13.288012366165104</v>
       </c>
       <c r="BI99" s="5">
+        <f t="shared" si="13"/>
         <v>48.051341836649591</v>
       </c>
       <c r="BJ99" s="5">
@@ -20732,16 +21516,21 @@
         <v>0.88293662792672412</v>
       </c>
       <c r="BL99" s="5">
+        <f t="shared" si="10"/>
+        <v>29.58277195125973</v>
+      </c>
+      <c r="BM99" s="5">
         <v>40.59609952101556</v>
       </c>
-      <c r="BM99" s="5">
+      <c r="BN99" s="5">
         <v>7.5756634567566916</v>
       </c>
-      <c r="BN99" s="5">
+      <c r="BO99" s="5">
         <v>5.3587517123411983</v>
       </c>
+      <c r="BP99" s="18"/>
     </row>
-    <row r="100" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
         <v>44305</v>
       </c>
@@ -20915,12 +21704,15 @@
         <v>289.93403387411496</v>
       </c>
       <c r="BG100" s="5">
-        <v>96.260416577907193</v>
+        <f t="shared" si="11"/>
+        <v>106.97276817804787</v>
       </c>
       <c r="BH100" s="5">
-        <v>38.909685360104483</v>
+        <f t="shared" si="12"/>
+        <v>38.90968536010449</v>
       </c>
       <c r="BI100" s="5">
+        <f t="shared" si="13"/>
         <v>142.62276454074151</v>
       </c>
       <c r="BJ100" s="5">
@@ -20930,16 +21722,21 @@
         <v>2.6301140248968156</v>
       </c>
       <c r="BL100" s="5">
+        <f t="shared" si="10"/>
+        <v>88.513775541596289</v>
+      </c>
+      <c r="BM100" s="5">
         <v>120.25686466030876</v>
       </c>
-      <c r="BM100" s="5">
+      <c r="BN100" s="5">
         <v>22.649462645554848</v>
       </c>
-      <c r="BN100" s="5">
+      <c r="BO100" s="5">
         <v>5.3094798116064892</v>
       </c>
+      <c r="BP100" s="18"/>
     </row>
-    <row r="101" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
         <v>44305</v>
       </c>
@@ -21113,12 +21910,15 @@
         <v>100.00000000000001</v>
       </c>
       <c r="BG101" s="5">
-        <v>33.200799261704482</v>
+        <f t="shared" si="11"/>
+        <v>36.895554050234011</v>
       </c>
       <c r="BH101" s="5">
+        <f t="shared" si="12"/>
         <v>13.420185564347541</v>
       </c>
       <c r="BI101" s="5">
+        <f t="shared" si="13"/>
         <v>49.191453185060084</v>
       </c>
       <c r="BJ101" s="5">
@@ -21128,16 +21928,21 @@
         <v>0.90714221774970083</v>
       </c>
       <c r="BL101" s="5">
+        <f t="shared" si="10"/>
+        <v>30.528935964802134</v>
+      </c>
+      <c r="BM101" s="5">
         <v>41.47731918651624</v>
       </c>
-      <c r="BM101" s="5">
+      <c r="BN101" s="5">
         <v>7.811936509457496</v>
       </c>
-      <c r="BN101" s="5">
+      <c r="BO101" s="5">
         <v>5.3094798116064892</v>
       </c>
+      <c r="BP101" s="18"/>
     </row>
-    <row r="102" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A102" s="7">
         <v>44305</v>
       </c>
@@ -21311,12 +22116,15 @@
         <v>316.88917029727008</v>
       </c>
       <c r="BG102" s="5">
-        <v>101.6239156218268</v>
+        <f t="shared" si="11"/>
+        <v>112.59715949734438</v>
       </c>
       <c r="BH102" s="5">
+        <f t="shared" si="12"/>
         <v>45.747201701537321</v>
       </c>
       <c r="BI102" s="5">
+        <f t="shared" si="13"/>
         <v>157.43270690473483</v>
       </c>
       <c r="BJ102" s="5">
@@ -21326,16 +22134,21 @@
         <v>2.5298650325271232</v>
       </c>
       <c r="BL102" s="5">
+        <f t="shared" si="10"/>
+        <v>98.612822709115946</v>
+      </c>
+      <c r="BM102" s="5">
         <v>124.03674268479928</v>
       </c>
-      <c r="BM102" s="5">
+      <c r="BN102" s="5">
         <v>33.585254097453003</v>
       </c>
-      <c r="BN102" s="5">
+      <c r="BO102" s="5">
         <v>3.6931905390647564</v>
       </c>
+      <c r="BP102" s="18"/>
     </row>
-    <row r="103" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
         <v>44305</v>
       </c>
@@ -21509,12 +22322,15 @@
         <v>100.00000000000001</v>
       </c>
       <c r="BG103" s="5">
-        <v>32.069229606835265</v>
+        <f t="shared" si="11"/>
+        <v>35.53203140129979</v>
       </c>
       <c r="BH103" s="5">
+        <f t="shared" si="12"/>
         <v>14.436341153161653</v>
       </c>
       <c r="BI103" s="5">
+        <f t="shared" si="13"/>
         <v>49.68068386718582</v>
       </c>
       <c r="BJ103" s="5">
@@ -21524,16 +22340,21 @@
         <v>0.79834379639855979</v>
       </c>
       <c r="BL103" s="5">
+        <f t="shared" si="10"/>
+        <v>31.119025814800924</v>
+      </c>
+      <c r="BM103" s="5">
         <v>39.141994839533908</v>
       </c>
-      <c r="BM103" s="5">
+      <c r="BN103" s="5">
         <v>10.59842280692239</v>
       </c>
-      <c r="BN103" s="5">
+      <c r="BO103" s="5">
         <v>3.6931905390647564</v>
       </c>
+      <c r="BP103" s="18"/>
     </row>
-    <row r="104" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A104" s="7">
         <v>44305</v>
       </c>
@@ -21707,12 +22528,15 @@
         <v>294.65161276815786</v>
       </c>
       <c r="BG104" s="5">
-        <v>96.225826348788573</v>
+        <f t="shared" si="11"/>
+        <v>106.28996695005469</v>
       </c>
       <c r="BH104" s="5">
+        <f t="shared" si="12"/>
         <v>42.309118804351797</v>
       </c>
       <c r="BI104" s="5">
+        <f t="shared" si="13"/>
         <v>145.06978626463916</v>
       </c>
       <c r="BJ104" s="5">
@@ -21722,16 +22546,21 @@
         <v>2.2353386350552196</v>
       </c>
       <c r="BL104" s="5">
+        <f t="shared" si="10"/>
+        <v>91.289159806766335</v>
+      </c>
+      <c r="BM104" s="5">
         <v>113.72609507633426</v>
       </c>
-      <c r="BM104" s="5">
+      <c r="BN104" s="5">
         <v>31.487537204109657</v>
       </c>
-      <c r="BN104" s="5">
+      <c r="BO104" s="5">
         <v>3.6117812053427625</v>
       </c>
+      <c r="BP104" s="18"/>
     </row>
-    <row r="105" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A105" s="7">
         <v>44305</v>
       </c>
@@ -21905,12 +22734,15 @@
         <v>99.999999999999972</v>
       </c>
       <c r="BG105" s="5">
-        <v>32.657491823912864</v>
+        <f t="shared" si="11"/>
+        <v>36.073098650808099</v>
       </c>
       <c r="BH105" s="5">
+        <f t="shared" si="12"/>
         <v>14.359031809421007</v>
       </c>
       <c r="BI105" s="5">
+        <f t="shared" si="13"/>
         <v>49.234343196616102</v>
       </c>
       <c r="BJ105" s="5">
@@ -21920,16 +22752,21 @@
         <v>0.75863784150201208</v>
       </c>
       <c r="BL105" s="5">
+        <f t="shared" si="10"/>
+        <v>30.982066905771809</v>
+      </c>
+      <c r="BM105" s="5">
         <v>38.596800474945269</v>
       </c>
-      <c r="BM105" s="5">
+      <c r="BN105" s="5">
         <v>10.686361736932067</v>
       </c>
-      <c r="BN105" s="5">
+      <c r="BO105" s="5">
         <v>3.6117812053427616</v>
       </c>
+      <c r="BP105" s="18"/>
     </row>
-    <row r="106" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A106" s="7">
         <v>44305</v>
       </c>
@@ -22103,12 +22940,15 @@
         <v>219.90570899337928</v>
       </c>
       <c r="BG106" s="5">
-        <v>70.605594409872893</v>
+        <f t="shared" si="11"/>
+        <v>77.854844825061633</v>
       </c>
       <c r="BH106" s="5">
-        <v>50.761100754531107</v>
+        <f t="shared" si="12"/>
+        <v>50.761100754531114</v>
       </c>
       <c r="BI106" s="5">
+        <f t="shared" si="13"/>
         <v>90.678058830971295</v>
       </c>
       <c r="BJ106" s="5">
@@ -22118,16 +22958,21 @@
         <v>1.7754744562422715</v>
       </c>
       <c r="BL106" s="5">
+        <f t="shared" si="10"/>
+        <v>62.270330981717237</v>
+      </c>
+      <c r="BM106" s="5">
         <v>72.406845434748405</v>
       </c>
-      <c r="BM106" s="5">
+      <c r="BN106" s="5">
         <v>18.439428365324428</v>
       </c>
-      <c r="BN106" s="5">
+      <c r="BO106" s="5">
         <v>3.9267402437979242</v>
       </c>
+      <c r="BP106" s="18"/>
     </row>
-    <row r="107" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A107" s="7">
         <v>44305</v>
       </c>
@@ -22301,12 +23146,15 @@
         <v>100</v>
       </c>
       <c r="BG107" s="5">
-        <v>32.107213011008568</v>
+        <f t="shared" si="11"/>
+        <v>35.40373971255363</v>
       </c>
       <c r="BH107" s="5">
+        <f t="shared" si="12"/>
         <v>23.083120937100993</v>
       </c>
       <c r="BI107" s="5">
+        <f t="shared" si="13"/>
         <v>41.234972591685342</v>
       </c>
       <c r="BJ107" s="5">
@@ -22316,16 +23164,21 @@
         <v>0.80737988311878062</v>
       </c>
       <c r="BL107" s="5">
+        <f t="shared" si="10"/>
+        <v>28.316832367272472</v>
+      </c>
+      <c r="BM107" s="5">
         <v>32.92631454007789</v>
       </c>
-      <c r="BM107" s="5">
+      <c r="BN107" s="5">
         <v>8.3851521862397789</v>
       </c>
-      <c r="BN107" s="5">
+      <c r="BO107" s="5">
         <v>3.9267402437979246</v>
       </c>
+      <c r="BP107" s="18"/>
     </row>
-    <row r="108" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A108" s="7">
         <v>44305</v>
       </c>
@@ -22495,12 +23348,15 @@
         <v>100.00000000000001</v>
       </c>
       <c r="BG108" s="5">
-        <v>34.228121416876249</v>
+        <f t="shared" si="11"/>
+        <v>36.44570638556889</v>
       </c>
       <c r="BH108" s="5">
+        <f t="shared" si="12"/>
         <v>13.918633894994123</v>
       </c>
       <c r="BI108" s="5">
+        <f t="shared" si="13"/>
         <v>48.924885929854526</v>
       </c>
       <c r="BJ108" s="5">
@@ -22510,16 +23366,21 @@
         <v>6.4053394736966283</v>
       </c>
       <c r="BL108" s="5">
+        <f t="shared" si="10"/>
+        <v>32.086575347636732</v>
+      </c>
+      <c r="BM108" s="5">
         <v>40.03637976511223</v>
       </c>
-      <c r="BM108" s="5">
+      <c r="BN108" s="5">
         <v>3.8652202839603453</v>
       </c>
-      <c r="BN108" s="5">
+      <c r="BO108" s="5">
         <v>10.358110747595099</v>
       </c>
+      <c r="BP108" s="18"/>
     </row>
-    <row r="109" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A109" s="7">
         <v>44305</v>
       </c>
@@ -22686,12 +23547,15 @@
         <v>100.00000000000001</v>
       </c>
       <c r="BG109" s="5">
-        <v>71.393532325326888</v>
+        <f t="shared" si="11"/>
+        <v>74.052557339255912</v>
       </c>
       <c r="BH109" s="5">
+        <f t="shared" si="12"/>
         <v>11.785878188903739</v>
       </c>
       <c r="BI109" s="5">
+        <f t="shared" si="13"/>
         <v>13.526891853934737</v>
       </c>
       <c r="BJ109" s="5">
@@ -22701,16 +23565,21 @@
         <v>1.9861338998061446</v>
       </c>
       <c r="BL109" s="5">
+        <f t="shared" si="10"/>
+        <v>7.106491465303284</v>
+      </c>
+      <c r="BM109" s="5">
         <v>11.02381058360718</v>
       </c>
-      <c r="BM109" s="5">
+      <c r="BN109" s="5">
         <v>1.7516043326574744</v>
       </c>
-      <c r="BN109" s="5">
+      <c r="BO109" s="5">
         <v>6.293550648440239</v>
       </c>
+      <c r="BP109" s="18"/>
     </row>
-    <row r="110" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A110" s="7">
         <v>44320</v>
       </c>
@@ -22884,12 +23753,15 @@
         <v>257.6851288923483</v>
       </c>
       <c r="BG110" s="5">
-        <v>84.564918332645249</v>
+        <f t="shared" si="11"/>
+        <v>93.123385317803368</v>
       </c>
       <c r="BH110" s="5">
+        <f t="shared" si="12"/>
         <v>36.304645534787923</v>
       </c>
       <c r="BI110" s="5">
+        <f t="shared" si="13"/>
         <v>127.02457149131232</v>
       </c>
       <c r="BJ110" s="5">
@@ -22899,16 +23771,21 @@
         <v>2.3252913145132412</v>
       </c>
       <c r="BL110" s="5">
+        <f t="shared" si="10"/>
+        <v>79.666664823640531</v>
+      </c>
+      <c r="BM110" s="5">
         <v>106.77774049528219</v>
       </c>
-      <c r="BM110" s="5">
+      <c r="BN110" s="5">
         <v>20.516921585987102</v>
       </c>
-      <c r="BN110" s="5">
+      <c r="BO110" s="5">
         <v>5.2043743525447086</v>
       </c>
+      <c r="BP110" s="18"/>
     </row>
-    <row r="111" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
         <v>44320</v>
       </c>
@@ -23082,12 +23959,15 @@
         <v>100.00000000000004</v>
       </c>
       <c r="BG111" s="5">
-        <v>32.817151186079307</v>
+        <f t="shared" si="11"/>
+        <v>36.138439854131839</v>
       </c>
       <c r="BH111" s="5">
+        <f t="shared" si="12"/>
         <v>14.088762394183293</v>
       </c>
       <c r="BI111" s="5">
+        <f t="shared" si="13"/>
         <v>49.294490542517366</v>
       </c>
       <c r="BJ111" s="5">
@@ -23097,16 +23977,21 @@
         <v>0.90237699183823106</v>
       </c>
       <c r="BL111" s="5">
+        <f t="shared" si="10"/>
+        <v>30.916283437109961</v>
+      </c>
+      <c r="BM111" s="5">
         <v>41.437292463970685</v>
       </c>
-      <c r="BM111" s="5">
+      <c r="BN111" s="5">
         <v>7.9620122721782431</v>
       </c>
-      <c r="BN111" s="5">
+      <c r="BO111" s="5">
         <v>5.2043743525447104</v>
       </c>
+      <c r="BP111" s="18"/>
     </row>
-    <row r="112" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A112" s="7">
         <v>44320</v>
       </c>
@@ -23280,12 +24165,15 @@
         <v>263.53888804261902</v>
       </c>
       <c r="BG112" s="5">
-        <v>81.119443333226258</v>
+        <f t="shared" si="11"/>
+        <v>89.789022820165926</v>
       </c>
       <c r="BH112" s="5">
-        <v>39.286743144537148</v>
+        <f t="shared" si="12"/>
+        <v>39.286743144537155</v>
       </c>
       <c r="BI112" s="5">
+        <f t="shared" si="13"/>
         <v>133.59419828895577</v>
       </c>
       <c r="BJ112" s="5">
@@ -23295,16 +24183,21 @@
         <v>2.0685819209546601</v>
       </c>
       <c r="BL112" s="5">
+        <f t="shared" si="10"/>
+        <v>83.843030436768956</v>
+      </c>
+      <c r="BM112" s="5">
         <v>104.72740152436194</v>
       </c>
-      <c r="BM112" s="5">
+      <c r="BN112" s="5">
         <v>29.037111795861932</v>
       </c>
-      <c r="BN112" s="5">
+      <c r="BO112" s="5">
         <v>3.6066741851125359</v>
       </c>
+      <c r="BP112" s="18"/>
     </row>
-    <row r="113" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A113" s="7">
         <v>44320</v>
       </c>
@@ -23478,12 +24371,15 @@
         <v>99.999999999999986</v>
       </c>
       <c r="BG113" s="5">
-        <v>30.78082477152585</v>
+        <f t="shared" si="11"/>
+        <v>34.07050226517061</v>
       </c>
       <c r="BH113" s="5">
-        <v>14.907379869563604</v>
+        <f t="shared" si="12"/>
+        <v>14.907379869563606</v>
       </c>
       <c r="BI113" s="5">
+        <f t="shared" si="13"/>
         <v>50.692404176552181</v>
       </c>
       <c r="BJ113" s="5">
@@ -23493,16 +24389,21 @@
         <v>0.784924735897092</v>
       </c>
       <c r="BL113" s="5">
+        <f t="shared" si="10"/>
+        <v>31.814291643823747</v>
+      </c>
+      <c r="BM113" s="5">
         <v>39.738879640193986</v>
       </c>
-      <c r="BM113" s="5">
+      <c r="BN113" s="5">
         <v>11.018150684147269</v>
       </c>
-      <c r="BN113" s="5">
+      <c r="BO113" s="5">
         <v>3.6066741851125363</v>
       </c>
+      <c r="BP113" s="18"/>
     </row>
-    <row r="114" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A114" s="7">
         <v>44320</v>
       </c>
@@ -23676,12 +24577,15 @@
         <v>306.52907224866249</v>
       </c>
       <c r="BG114" s="5">
-        <v>106.87412562488974</v>
+        <f t="shared" si="11"/>
+        <v>118.74962301723762</v>
       </c>
       <c r="BH114" s="5">
+        <f t="shared" si="12"/>
         <v>41.259646375848462</v>
       </c>
       <c r="BI114" s="5">
+        <f t="shared" si="13"/>
         <v>144.83848534393218</v>
       </c>
       <c r="BJ114" s="5">
@@ -23691,16 +24595,21 @@
         <v>2.7198237120131665</v>
       </c>
       <c r="BL114" s="5">
+        <f t="shared" si="10"/>
+        <v>89.210367317107909</v>
+      </c>
+      <c r="BM114" s="5">
         <v>122.33090457896088</v>
       </c>
-      <c r="BM114" s="5">
+      <c r="BN114" s="5">
         <v>22.861246812600537</v>
       </c>
-      <c r="BN114" s="5">
+      <c r="BO114" s="5">
         <v>5.351016310778606</v>
       </c>
+      <c r="BP114" s="18"/>
     </row>
-    <row r="115" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
         <v>44320</v>
       </c>
@@ -23874,12 +24783,15 @@
         <v>100</v>
       </c>
       <c r="BG115" s="5">
-        <v>34.865901899899178</v>
+        <f t="shared" si="11"/>
+        <v>38.740084960328183</v>
       </c>
       <c r="BH115" s="5">
+        <f t="shared" si="12"/>
         <v>13.460271834306736</v>
       </c>
       <c r="BI115" s="5">
+        <f t="shared" si="13"/>
         <v>47.251141394652549</v>
       </c>
       <c r="BJ115" s="5">
@@ -23889,16 +24801,21 @@
         <v>0.88729714674723958</v>
       </c>
       <c r="BL115" s="5">
+        <f t="shared" si="10"/>
+        <v>29.103395205769807</v>
+      </c>
+      <c r="BM115" s="5">
         <v>39.908418370093017</v>
       </c>
-      <c r="BM115" s="5">
+      <c r="BN115" s="5">
         <v>7.4581006770069225</v>
       </c>
-      <c r="BN115" s="5">
+      <c r="BO115" s="5">
         <v>5.3510163107786077</v>
       </c>
+      <c r="BP115" s="18"/>
     </row>
-    <row r="116" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A116" s="7">
         <v>44320</v>
       </c>
@@ -24072,12 +24989,15 @@
         <v>265.26534334598915</v>
       </c>
       <c r="BG116" s="5">
-        <v>92.06096669587879</v>
+        <f t="shared" si="11"/>
+        <v>102.27211108186916</v>
       </c>
       <c r="BH116" s="5">
-        <v>35.824119885446883</v>
+        <f t="shared" si="12"/>
+        <v>35.824119885446891</v>
       </c>
       <c r="BI116" s="5">
+        <f t="shared" si="13"/>
         <v>125.80344667109667</v>
       </c>
       <c r="BJ116" s="5">
@@ -24087,16 +25007,21 @@
         <v>2.4524864735335696</v>
       </c>
       <c r="BL116" s="5">
+        <f t="shared" si="10"/>
+        <v>78.524621276765359</v>
+      </c>
+      <c r="BM116" s="5">
         <v>105.85134759350224</v>
       </c>
-      <c r="BM116" s="5">
+      <c r="BN116" s="5">
         <v>20.197462112835641</v>
       </c>
-      <c r="BN116" s="5">
+      <c r="BO116" s="5">
         <v>5.2408241690045259</v>
       </c>
+      <c r="BP116" s="18"/>
     </row>
-    <row r="117" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
         <v>44320</v>
       </c>
@@ -24270,12 +25195,15 @@
         <v>99.999999999999972</v>
       </c>
       <c r="BG117" s="5">
-        <v>34.705237229502089</v>
+        <f t="shared" si="11"/>
+        <v>38.554644866847248</v>
       </c>
       <c r="BH117" s="5">
+        <f t="shared" si="12"/>
         <v>13.50501329482797</v>
       </c>
       <c r="BI117" s="5">
+        <f t="shared" si="13"/>
         <v>47.425511785385972</v>
       </c>
       <c r="BJ117" s="5">
@@ -24285,16 +25213,21 @@
         <v>0.92454085505423866</v>
       </c>
       <c r="BL117" s="5">
+        <f t="shared" si="10"/>
+        <v>29.602291911289988</v>
+      </c>
+      <c r="BM117" s="5">
         <v>39.903949101801395</v>
       </c>
-      <c r="BM117" s="5">
+      <c r="BN117" s="5">
         <v>7.6140598911527686</v>
       </c>
-      <c r="BN117" s="5">
+      <c r="BO117" s="5">
         <v>5.240824169004525</v>
       </c>
+      <c r="BP117" s="18"/>
     </row>
-    <row r="118" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A118" s="7">
         <v>44320</v>
       </c>
@@ -24468,12 +25401,15 @@
         <v>284.91048229153193</v>
       </c>
       <c r="BG118" s="5">
-        <v>91.533274514434694</v>
+        <f t="shared" si="11"/>
+        <v>101.62049438749611</v>
       </c>
       <c r="BH118" s="5">
+        <f t="shared" si="12"/>
         <v>41.337327469702892</v>
       </c>
       <c r="BI118" s="5">
+        <f t="shared" si="13"/>
         <v>140.95857219058863</v>
       </c>
       <c r="BJ118" s="5">
@@ -24483,16 +25419,21 @@
         <v>2.1177120478286016</v>
       </c>
       <c r="BL118" s="5">
+        <f t="shared" si="10"/>
+        <v>88.4974174659704</v>
+      </c>
+      <c r="BM118" s="5">
         <v>110.52228066320265</v>
       </c>
-      <c r="BM118" s="5">
+      <c r="BN118" s="5">
         <v>30.570205311510605</v>
       </c>
-      <c r="BN118" s="5">
+      <c r="BO118" s="5">
         <v>3.6153594500586386</v>
       </c>
+      <c r="BP118" s="18"/>
     </row>
-    <row r="119" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A119" s="7">
         <v>44320</v>
       </c>
@@ -24666,12 +25607,15 @@
         <v>99.999999999999957</v>
       </c>
       <c r="BG119" s="5">
-        <v>32.127029436836992</v>
+        <f t="shared" si="11"/>
+        <v>35.667516888169068</v>
       </c>
       <c r="BH119" s="5">
+        <f t="shared" si="12"/>
         <v>14.508882627703699</v>
       </c>
       <c r="BI119" s="5">
+        <f t="shared" si="13"/>
         <v>49.474687999142859</v>
       </c>
       <c r="BJ119" s="5">
@@ -24681,16 +25625,21 @@
         <v>0.74329032431375164</v>
       </c>
       <c r="BL119" s="5">
+        <f t="shared" si="10"/>
+        <v>31.061481751807317</v>
+      </c>
+      <c r="BM119" s="5">
         <v>38.791932039240244</v>
       </c>
-      <c r="BM119" s="5">
+      <c r="BN119" s="5">
         <v>10.729758015793161</v>
       </c>
-      <c r="BN119" s="5">
+      <c r="BO119" s="5">
         <v>3.6153594500586399</v>
       </c>
+      <c r="BP119" s="18"/>
     </row>
-    <row r="120" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A120" s="7">
         <v>44320</v>
       </c>
@@ -24864,12 +25813,15 @@
         <v>200.49472705877884</v>
       </c>
       <c r="BG120" s="5">
-        <v>64.35679205416605</v>
+        <f t="shared" si="11"/>
+        <v>71.697863577289212</v>
       </c>
       <c r="BH120" s="5">
+        <f t="shared" si="12"/>
         <v>29.742507659723206</v>
       </c>
       <c r="BI120" s="5">
+        <f t="shared" si="13"/>
         <v>98.30056430403161</v>
       </c>
       <c r="BJ120" s="5">
@@ -24879,16 +25831,21 @@
         <v>1.5962888369540433</v>
       </c>
       <c r="BL120" s="5">
+        <f t="shared" si="10"/>
+        <v>60.648094378780378</v>
+      </c>
+      <c r="BM120" s="5">
         <v>76.756060553471059</v>
       </c>
-      <c r="BM120" s="5">
+      <c r="BN120" s="5">
         <v>21.711964952951107</v>
       </c>
-      <c r="BN120" s="5">
+      <c r="BO120" s="5">
         <v>3.5351964098964852</v>
       </c>
+      <c r="BP120" s="18"/>
     </row>
-    <row r="121" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A121" s="7">
         <v>44320</v>
       </c>
@@ -25062,12 +26019,15 @@
         <v>100</v>
       </c>
       <c r="BG121" s="5">
-        <v>32.098994820596275</v>
+        <f t="shared" si="11"/>
+        <v>35.76047341946785</v>
       </c>
       <c r="BH121" s="5">
+        <f t="shared" si="12"/>
         <v>14.834558542282076</v>
       </c>
       <c r="BI121" s="5">
+        <f t="shared" si="13"/>
         <v>49.02900228154774</v>
       </c>
       <c r="BJ121" s="5">
@@ -25077,16 +26037,21 @@
         <v>0.79617497196625064</v>
       </c>
       <c r="BL121" s="5">
+        <f t="shared" si="10"/>
+        <v>30.249221647111067</v>
+      </c>
+      <c r="BM121" s="5">
         <v>38.283331277320116</v>
       </c>
-      <c r="BM121" s="5">
+      <c r="BN121" s="5">
         <v>10.829194997525208</v>
       </c>
-      <c r="BN121" s="5">
+      <c r="BO121" s="5">
         <v>3.5351964098964874</v>
       </c>
+      <c r="BP121" s="18"/>
     </row>
-    <row r="122" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A122" s="7">
         <v>44320</v>
       </c>
@@ -25260,12 +26225,15 @@
         <v>206.87279526626151</v>
       </c>
       <c r="BG122" s="5">
-        <v>64.63190167960569</v>
+        <f t="shared" si="11"/>
+        <v>71.303308900673059</v>
       </c>
       <c r="BH122" s="5">
+        <f t="shared" si="12"/>
         <v>46.665780758266344</v>
       </c>
       <c r="BI122" s="5">
+        <f t="shared" si="13"/>
         <v>88.343012822913181</v>
       </c>
       <c r="BJ122" s="5">
@@ -25275,16 +26243,21 @@
         <v>1.7199513200359471</v>
       </c>
       <c r="BL122" s="5">
+        <f t="shared" si="10"/>
+        <v>59.843492560299794</v>
+      </c>
+      <c r="BM122" s="5">
         <v>71.520370615489625</v>
       </c>
-      <c r="BM122" s="5">
+      <c r="BN122" s="5">
         <v>16.996488227511946</v>
       </c>
-      <c r="BN122" s="5">
+      <c r="BO122" s="5">
         <v>4.2079498810654741</v>
       </c>
+      <c r="BP122" s="18"/>
     </row>
-    <row r="123" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A123" s="7">
         <v>44320</v>
       </c>
@@ -25458,12 +26431,15 @@
         <v>100.00000000000001</v>
       </c>
       <c r="BG123" s="5">
-        <v>31.242339813903204</v>
+        <f t="shared" si="11"/>
+        <v>34.467223594528271</v>
       </c>
       <c r="BH123" s="5">
-        <v>22.557717508580012</v>
+        <f t="shared" si="12"/>
+        <v>22.557717508580009</v>
       </c>
       <c r="BI123" s="5">
+        <f t="shared" si="13"/>
         <v>42.704026263679957</v>
       </c>
       <c r="BJ123" s="5">
@@ -25473,16 +26449,21 @@
         <v>0.831405269031259</v>
       </c>
       <c r="BL123" s="5">
+        <f t="shared" si="10"/>
+        <v>28.927676296574678</v>
+      </c>
+      <c r="BM123" s="5">
         <v>34.572148804504387</v>
       </c>
-      <c r="BM123" s="5">
+      <c r="BN123" s="5">
         <v>8.2159126847182247</v>
       </c>
-      <c r="BN123" s="5">
+      <c r="BO123" s="5">
         <v>4.2079498810654759</v>
       </c>
+      <c r="BP123" s="18"/>
     </row>
-    <row r="124" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A124" s="7">
         <v>44320</v>
       </c>
@@ -25649,12 +26630,15 @@
         <v>100.00000000000001</v>
       </c>
       <c r="BG124" s="5">
-        <v>62.364843130243997</v>
+        <f t="shared" si="11"/>
+        <v>64.711385536532887</v>
       </c>
       <c r="BH124" s="5">
+        <f t="shared" si="12"/>
         <v>15.27495299866589</v>
       </c>
       <c r="BI124" s="5">
+        <f t="shared" si="13"/>
         <v>19.309698742914556</v>
       </c>
       <c r="BJ124" s="5">
@@ -25664,16 +26648,21 @@
         <v>2.8088022893846825</v>
       </c>
       <c r="BL124" s="5">
+        <f t="shared" si="10"/>
+        <v>13.053491170669629</v>
+      </c>
+      <c r="BM124" s="5">
         <v>16.546648263417644</v>
       </c>
-      <c r="BM124" s="5">
+      <c r="BN124" s="5">
         <v>1.0715150769514685</v>
       </c>
-      <c r="BN124" s="5">
+      <c r="BO124" s="5">
         <v>15.44229159191484</v>
       </c>
+      <c r="BP124" s="18"/>
     </row>
-    <row r="125" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A125" s="7">
         <v>44320</v>
       </c>
@@ -25840,12 +26829,15 @@
         <v>100.00000000000001</v>
       </c>
       <c r="BG125" s="5">
-        <v>66.393006093385807</v>
+        <f t="shared" si="11"/>
+        <v>68.562002448420643</v>
       </c>
       <c r="BH125" s="5">
+        <f t="shared" si="12"/>
         <v>10.608958176272452</v>
       </c>
       <c r="BI125" s="5">
+        <f t="shared" si="13"/>
         <v>20.299758616158194</v>
       </c>
       <c r="BJ125" s="5">
@@ -25855,16 +26847,21 @@
         <v>7.9684333566186893</v>
       </c>
       <c r="BL125" s="5">
+        <f t="shared" si="10"/>
+        <v>14.190983725610895</v>
+      </c>
+      <c r="BM125" s="5">
         <v>17.928283408146186</v>
       </c>
-      <c r="BM125" s="5">
+      <c r="BN125" s="5">
         <v>1.4858247511809828</v>
       </c>
-      <c r="BN125" s="5">
+      <c r="BO125" s="5">
         <v>12.066216688001861</v>
       </c>
+      <c r="BP125" s="18"/>
     </row>
-    <row r="126" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A126" s="7">
         <v>44335</v>
       </c>
@@ -26038,12 +27035,15 @@
         <v>223.59992795446917</v>
       </c>
       <c r="BG126" s="5">
-        <v>76.33878939984811</v>
+        <f t="shared" si="11"/>
+        <v>83.160097983522363</v>
       </c>
       <c r="BH126" s="5">
+        <f t="shared" si="12"/>
         <v>31.550546952851811</v>
       </c>
       <c r="BI126" s="5">
+        <f t="shared" si="13"/>
         <v>107.66002901358226</v>
       </c>
       <c r="BJ126" s="5">
@@ -26053,16 +27053,21 @@
         <v>2.2016250288494867</v>
       </c>
       <c r="BL126" s="5">
+        <f t="shared" si="10"/>
+        <v>67.17024862468358</v>
+      </c>
+      <c r="BM126" s="5">
         <v>90.756173631361378</v>
       </c>
-      <c r="BM126" s="5">
+      <c r="BN126" s="5">
         <v>17.134923956970759</v>
       </c>
-      <c r="BN126" s="5">
+      <c r="BO126" s="5">
         <v>5.2965612137683475</v>
       </c>
+      <c r="BP126" s="18"/>
     </row>
-    <row r="127" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A127" s="7">
         <v>44335</v>
       </c>
@@ -26236,12 +27241,15 @@
         <v>100</v>
       </c>
       <c r="BG127" s="5">
-        <v>34.14079337959032</v>
+        <f t="shared" si="11"/>
+        <v>37.191469042179641</v>
       </c>
       <c r="BH127" s="5">
+        <f t="shared" si="12"/>
         <v>14.110267047705099</v>
       </c>
       <c r="BI127" s="5">
+        <f t="shared" si="13"/>
         <v>48.148507917008224</v>
       </c>
       <c r="BJ127" s="5">
@@ -26251,16 +27259,21 @@
         <v>0.98462689545132387</v>
       </c>
       <c r="BL127" s="5">
+        <f t="shared" si="10"/>
+        <v>30.040371318170202</v>
+      </c>
+      <c r="BM127" s="5">
         <v>40.588641714518673</v>
       </c>
-      <c r="BM127" s="5">
+      <c r="BN127" s="5">
         <v>7.66320638549574</v>
       </c>
-      <c r="BN127" s="5">
+      <c r="BO127" s="5">
         <v>5.2965612137683484</v>
       </c>
+      <c r="BP127" s="18"/>
     </row>
-    <row r="128" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A128" s="7">
         <v>44335</v>
       </c>
@@ -26434,12 +27447,15 @@
         <v>243.64732055103414</v>
       </c>
       <c r="BG128" s="5">
-        <v>72.641879379475881</v>
+        <f t="shared" si="11"/>
+        <v>80.165859864347397</v>
       </c>
       <c r="BH128" s="5">
+        <f t="shared" si="12"/>
         <v>36.771318381648527</v>
       </c>
       <c r="BI128" s="5">
+        <f t="shared" si="13"/>
         <v>125.86526136555283</v>
       </c>
       <c r="BJ128" s="5">
@@ -26449,16 +27465,21 @@
         <v>1.858378184616625</v>
       </c>
       <c r="BL128" s="5">
+        <f t="shared" si="10"/>
+        <v>81.282725581834555</v>
+      </c>
+      <c r="BM128" s="5">
         <v>99.03288227595128</v>
       </c>
-      <c r="BM128" s="5">
+      <c r="BN128" s="5">
         <v>26.94358944340344</v>
       </c>
-      <c r="BN128" s="5">
+      <c r="BO128" s="5">
         <v>3.6755638102330632</v>
       </c>
+      <c r="BP128" s="18"/>
     </row>
-    <row r="129" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A129" s="7">
         <v>44335</v>
       </c>
@@ -26632,12 +27653,15 @@
         <v>100</v>
       </c>
       <c r="BG129" s="5">
-        <v>29.814355936764915</v>
+        <f t="shared" si="11"/>
+        <v>32.902418004451619</v>
       </c>
       <c r="BH129" s="5">
+        <f t="shared" si="12"/>
         <v>15.092026581078873</v>
       </c>
       <c r="BI129" s="5">
+        <f t="shared" si="13"/>
         <v>51.658791519190636</v>
       </c>
       <c r="BJ129" s="5">
@@ -26647,16 +27671,21 @@
         <v>0.76273286339193336</v>
       </c>
       <c r="BL129" s="5">
+        <f t="shared" si="10"/>
+        <v>33.360812422646433</v>
+      </c>
+      <c r="BM129" s="5">
         <v>40.645996866281138</v>
       </c>
-      <c r="BM129" s="5">
+      <c r="BN129" s="5">
         <v>11.058438640928893</v>
       </c>
-      <c r="BN129" s="5">
+      <c r="BO129" s="5">
         <v>3.6755638102330632</v>
       </c>
+      <c r="BP129" s="18"/>
     </row>
-    <row r="130" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A130" s="7">
         <v>44335</v>
       </c>
@@ -26830,12 +27859,15 @@
         <v>249.5481381214143</v>
       </c>
       <c r="BG130" s="5">
-        <v>93.323322726782365</v>
+        <f t="shared" si="11"/>
+        <v>103.18468974643685</v>
       </c>
       <c r="BH130" s="5">
+        <f t="shared" si="12"/>
         <v>34.495394722996629</v>
       </c>
       <c r="BI130" s="5">
+        <f t="shared" si="13"/>
         <v>110.32459740428686</v>
       </c>
       <c r="BJ130" s="5">
@@ -26845,16 +27877,21 @@
         <v>2.5547419967799274</v>
       </c>
       <c r="BL130" s="5">
+        <f t="shared" si="10"/>
+        <v>68.473163432942172</v>
+      </c>
+      <c r="BM130" s="5">
         <v>92.375773644514965</v>
       </c>
-      <c r="BM130" s="5">
+      <c r="BN130" s="5">
         <v>18.207971630055898</v>
       </c>
-      <c r="BN130" s="5">
+      <c r="BO130" s="5">
         <v>5.0733698141329633</v>
       </c>
+      <c r="BP130" s="18"/>
     </row>
-    <row r="131" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A131" s="7">
         <v>44335</v>
       </c>
@@ -27028,12 +28065,15 @@
         <v>99.999999999999986</v>
       </c>
       <c r="BG131" s="5">
-        <v>37.396922064542579</v>
+        <f t="shared" si="11"/>
+        <v>41.348611343368837</v>
       </c>
       <c r="BH131" s="5">
+        <f t="shared" si="12"/>
         <v>13.823142493739367</v>
       </c>
       <c r="BI131" s="5">
+        <f t="shared" si="13"/>
         <v>44.209745756792593</v>
       </c>
       <c r="BJ131" s="5">
@@ -27043,16 +28083,21 @@
         <v>1.023747167986063</v>
       </c>
       <c r="BL131" s="5">
+        <f t="shared" si="10"/>
+        <v>27.438859671887229</v>
+      </c>
+      <c r="BM131" s="5">
         <v>37.017216133093633</v>
       </c>
-      <c r="BM131" s="5">
+      <c r="BN131" s="5">
         <v>7.2963764695359306</v>
       </c>
-      <c r="BN131" s="5">
+      <c r="BO131" s="5">
         <v>5.0733698141329633</v>
       </c>
+      <c r="BP131" s="18"/>
     </row>
-    <row r="132" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A132" s="7">
         <v>44335</v>
       </c>
@@ -27226,12 +28271,15 @@
         <v>240.9491420714007</v>
       </c>
       <c r="BG132" s="5">
-        <v>89.631552114488457</v>
+        <f t="shared" si="11"/>
+        <v>98.955525600399994</v>
       </c>
       <c r="BH132" s="5">
+        <f t="shared" si="12"/>
         <v>32.848420845143757</v>
       </c>
       <c r="BI132" s="5">
+        <f t="shared" si="13"/>
         <v>107.09210693319396</v>
       </c>
       <c r="BJ132" s="5">
@@ -27241,16 +28289,21 @@
         <v>2.3216637913872797</v>
       </c>
       <c r="BL132" s="5">
+        <f t="shared" ref="BL132:BL182" si="14">SUM(AO132,AS132,AU132,AZ132,BE132,BA132)</f>
+        <v>67.144853825118858</v>
+      </c>
+      <c r="BM132" s="5">
         <v>89.173439245834928</v>
       </c>
-      <c r="BM132" s="5">
+      <c r="BN132" s="5">
         <v>18.455238278263675</v>
       </c>
-      <c r="BN132" s="5">
+      <c r="BO132" s="5">
         <v>4.8318768851043323</v>
       </c>
+      <c r="BP132" s="18"/>
     </row>
-    <row r="133" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A133" s="7">
         <v>44335</v>
       </c>
@@ -27424,12 +28477,15 @@
         <v>100.00000000000001</v>
       </c>
       <c r="BG133" s="5">
-        <v>37.199365535789227</v>
+        <f t="shared" si="11"/>
+        <v>41.069050816987918</v>
       </c>
       <c r="BH133" s="5">
+        <f t="shared" si="12"/>
         <v>13.63292708276577</v>
       </c>
       <c r="BI133" s="5">
+        <f t="shared" si="13"/>
         <v>44.445938264208166</v>
       </c>
       <c r="BJ133" s="5">
@@ -27439,16 +28495,21 @@
         <v>0.96354930813544815</v>
       </c>
       <c r="BL133" s="5">
+        <f t="shared" si="14"/>
+        <v>27.866815896452444</v>
+      </c>
+      <c r="BM133" s="5">
         <v>37.009237085978114</v>
       </c>
-      <c r="BM133" s="5">
+      <c r="BN133" s="5">
         <v>7.6593915710207474</v>
       </c>
-      <c r="BN133" s="5">
+      <c r="BO133" s="5">
         <v>4.8318768851043332</v>
       </c>
+      <c r="BP133" s="18"/>
     </row>
-    <row r="134" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A134" s="7">
         <v>44335</v>
       </c>
@@ -27622,12 +28683,15 @@
         <v>272.08545284196038</v>
       </c>
       <c r="BG134" s="5">
-        <v>85.497921772858689</v>
+        <f t="shared" si="11"/>
+        <v>94.371884387597404</v>
       </c>
       <c r="BH134" s="5">
-        <v>40.860339453451509</v>
+        <f t="shared" si="12"/>
+        <v>40.860339453451516</v>
       </c>
       <c r="BI134" s="5">
+        <f t="shared" si="13"/>
         <v>135.71454936020493</v>
       </c>
       <c r="BJ134" s="5">
@@ -27637,16 +28701,21 @@
         <v>2.2079709997888126</v>
       </c>
       <c r="BL134" s="5">
+        <f t="shared" si="14"/>
+        <v>86.213879017046224</v>
+      </c>
+      <c r="BM134" s="5">
         <v>107.24030070795364</v>
       </c>
-      <c r="BM134" s="5">
+      <c r="BN134" s="5">
         <v>29.006334061997318</v>
       </c>
-      <c r="BN134" s="5">
+      <c r="BO134" s="5">
         <v>3.6971338907819669</v>
       </c>
+      <c r="BP134" s="18"/>
     </row>
-    <row r="135" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A135" s="7">
         <v>44335</v>
       </c>
@@ -27820,12 +28889,15 @@
         <v>100</v>
       </c>
       <c r="BG135" s="5">
-        <v>31.423187414036356</v>
+        <f t="shared" si="11"/>
+        <v>34.684649032821639</v>
       </c>
       <c r="BH135" s="5">
-        <v>15.017465662592796</v>
+        <f t="shared" si="12"/>
+        <v>15.017465662592794</v>
       </c>
       <c r="BI135" s="5">
+        <f t="shared" si="13"/>
         <v>49.879384561964848</v>
       </c>
       <c r="BJ135" s="5">
@@ -27835,16 +28907,21 @@
         <v>0.81149909953888744</v>
       </c>
       <c r="BL135" s="5">
+        <f t="shared" si="14"/>
+        <v>31.6863243207358</v>
+      </c>
+      <c r="BM135" s="5">
         <v>39.414198586443241</v>
       </c>
-      <c r="BM135" s="5">
+      <c r="BN135" s="5">
         <v>10.66074417394359</v>
       </c>
-      <c r="BN135" s="5">
+      <c r="BO135" s="5">
         <v>3.6971338907819664</v>
       </c>
+      <c r="BP135" s="18"/>
     </row>
-    <row r="136" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A136" s="7">
         <v>44335</v>
       </c>
@@ -28018,12 +29095,15 @@
         <v>249.49298740478633</v>
       </c>
       <c r="BG136" s="5">
-        <v>80.880534411877235</v>
+        <f t="shared" si="11"/>
+        <v>89.068471596022718</v>
       </c>
       <c r="BH136" s="5">
-        <v>36.360210472135357</v>
+        <f t="shared" si="12"/>
+        <v>36.360210472135364</v>
       </c>
       <c r="BI136" s="5">
+        <f t="shared" si="13"/>
         <v>122.96768042275865</v>
       </c>
       <c r="BJ136" s="5">
@@ -28033,16 +29113,21 @@
         <v>1.8735242860681192</v>
       </c>
       <c r="BL136" s="5">
+        <f t="shared" si="14"/>
+        <v>78.770324740536495</v>
+      </c>
+      <c r="BM136" s="5">
         <v>97.362397695360286</v>
       </c>
-      <c r="BM136" s="5">
+      <c r="BN136" s="5">
         <v>26.070025323862314</v>
       </c>
-      <c r="BN136" s="5">
+      <c r="BO136" s="5">
         <v>3.7346491415274121</v>
       </c>
+      <c r="BP136" s="18"/>
     </row>
-    <row r="137" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A137" s="7">
         <v>44335</v>
       </c>
@@ -28216,12 +29301,15 @@
         <v>100</v>
       </c>
       <c r="BG137" s="5">
-        <v>32.417959018885675</v>
+        <f t="shared" si="11"/>
+        <v>35.699789610324743</v>
       </c>
       <c r="BH137" s="5">
+        <f t="shared" si="12"/>
         <v>14.573640265545123</v>
       </c>
       <c r="BI137" s="5">
+        <f t="shared" si="13"/>
         <v>49.287028746524044</v>
       </c>
       <c r="BJ137" s="5">
@@ -28231,16 +29319,21 @@
         <v>0.75093264366122103</v>
       </c>
       <c r="BL137" s="5">
+        <f t="shared" si="14"/>
+        <v>31.572159826976105</v>
+      </c>
+      <c r="BM137" s="5">
         <v>39.024101922911392</v>
       </c>
-      <c r="BM137" s="5">
+      <c r="BN137" s="5">
         <v>10.449201636904277</v>
       </c>
-      <c r="BN137" s="5">
+      <c r="BO137" s="5">
         <v>3.7346491415274126</v>
       </c>
+      <c r="BP137" s="18"/>
     </row>
-    <row r="138" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A138" s="7">
         <v>44335</v>
       </c>
@@ -28414,12 +29507,15 @@
         <v>208.18841814537799</v>
       </c>
       <c r="BG138" s="5">
-        <v>64.992682635612127</v>
+        <f t="shared" si="11"/>
+        <v>71.490211145263032</v>
       </c>
       <c r="BH138" s="5">
+        <f t="shared" si="12"/>
         <v>48.070266800146356</v>
       </c>
       <c r="BI138" s="5">
+        <f t="shared" si="13"/>
         <v>88.066347464912866</v>
       </c>
       <c r="BJ138" s="5">
@@ -28429,16 +29525,21 @@
         <v>1.6283818035214082</v>
       </c>
       <c r="BL138" s="5">
+        <f t="shared" si="14"/>
+        <v>60.373126145130257</v>
+      </c>
+      <c r="BM138" s="5">
         <v>71.237564462342903</v>
       </c>
-      <c r="BM138" s="5">
+      <c r="BN138" s="5">
         <v>16.990186630030166</v>
       </c>
-      <c r="BN138" s="5">
+      <c r="BO138" s="5">
         <v>4.1928653294738067</v>
       </c>
+      <c r="BP138" s="18"/>
     </row>
-    <row r="139" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A139" s="7">
         <v>44335</v>
       </c>
@@ -28612,12 +29713,15 @@
         <v>99.999999999999972</v>
       </c>
       <c r="BG139" s="5">
-        <v>31.218202825398158</v>
+        <f t="shared" si="11"/>
+        <v>34.339187444779661</v>
       </c>
       <c r="BH139" s="5">
-        <v>23.089789157521189</v>
+        <f t="shared" si="12"/>
+        <v>23.089789157521185</v>
       </c>
       <c r="BI139" s="5">
+        <f t="shared" si="13"/>
         <v>42.301271247191146</v>
       </c>
       <c r="BJ139" s="5">
@@ -28627,16 +29731,21 @@
         <v>0.78216733573733632</v>
       </c>
       <c r="BL139" s="5">
+        <f t="shared" si="14"/>
+        <v>28.999272237599541</v>
+      </c>
+      <c r="BM139" s="5">
         <v>34.217832623425622</v>
       </c>
-      <c r="BM139" s="5">
+      <c r="BN139" s="5">
         <v>8.1609662926426161</v>
       </c>
-      <c r="BN139" s="5">
+      <c r="BO139" s="5">
         <v>4.1928653294738076</v>
       </c>
+      <c r="BP139" s="18"/>
     </row>
-    <row r="140" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A140" s="7">
         <v>44335</v>
       </c>
@@ -28803,12 +29912,15 @@
         <v>100.00000000000001</v>
       </c>
       <c r="BG140" s="5">
-        <v>71.948644232074869</v>
+        <f t="shared" si="11"/>
+        <v>73.081954778081084</v>
       </c>
       <c r="BH140" s="5">
+        <f t="shared" si="12"/>
         <v>12.042009842252387</v>
       </c>
       <c r="BI140" s="5">
+        <f t="shared" si="13"/>
         <v>14.378397613885909</v>
       </c>
       <c r="BJ140" s="5">
@@ -28818,16 +29930,21 @@
         <v>5.512035922816513</v>
       </c>
       <c r="BL140" s="5">
+        <f t="shared" si="14"/>
+        <v>9.9355243504441191</v>
+      </c>
+      <c r="BM140" s="5">
         <v>12.080404927681453</v>
       </c>
-      <c r="BM140" s="5">
+      <c r="BN140" s="5">
         <v>1.1982076050363113</v>
       </c>
-      <c r="BN140" s="5">
+      <c r="BO140" s="5">
         <v>10.082063305978901</v>
       </c>
+      <c r="BP140" s="18"/>
     </row>
-    <row r="141" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A141" s="7">
         <v>44335</v>
       </c>
@@ -28994,12 +30111,15 @@
         <v>100.00000000000001</v>
       </c>
       <c r="BG141" s="5">
-        <v>52.868173603795995</v>
+        <f t="shared" si="11"/>
+        <v>55.425650144476535</v>
       </c>
       <c r="BH141" s="5">
+        <f t="shared" si="12"/>
         <v>18.521217275336543</v>
       </c>
       <c r="BI141" s="5">
+        <f t="shared" si="13"/>
         <v>25.28813166210848</v>
       </c>
       <c r="BJ141" s="5">
@@ -29009,16 +30129,21 @@
         <v>3.0109106371464183</v>
       </c>
       <c r="BL141" s="5">
+        <f t="shared" si="14"/>
+        <v>17.14603245165592</v>
+      </c>
+      <c r="BM141" s="5">
         <v>21.631860220145533</v>
       </c>
-      <c r="BM141" s="5">
+      <c r="BN141" s="5">
         <v>3.031591561409781</v>
       </c>
-      <c r="BN141" s="5">
+      <c r="BO141" s="5">
         <v>7.135479757730316</v>
       </c>
+      <c r="BP141" s="18"/>
     </row>
-    <row r="142" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A142" s="7">
         <v>44355</v>
       </c>
@@ -29192,12 +30317,15 @@
         <v>170.81231917987031</v>
       </c>
       <c r="BG142" s="5">
-        <v>56.339041570208359</v>
+        <f t="shared" si="11"/>
+        <v>60.743266461122005</v>
       </c>
       <c r="BH142" s="5">
+        <f t="shared" si="12"/>
         <v>24.992841074207707</v>
       </c>
       <c r="BI142" s="5">
+        <f t="shared" si="13"/>
         <v>84.078254013189792</v>
       </c>
       <c r="BJ142" s="5">
@@ -29207,16 +30335,21 @@
         <v>1.4860436680253482</v>
       </c>
       <c r="BL142" s="5">
+        <f t="shared" si="14"/>
+        <v>56.574996546542273</v>
+      </c>
+      <c r="BM142" s="5">
         <v>70.978741168959004</v>
       </c>
-      <c r="BM142" s="5">
+      <c r="BN142" s="5">
         <v>13.242404459219866</v>
       </c>
-      <c r="BN142" s="5">
+      <c r="BO142" s="5">
         <v>5.3599587135054545</v>
       </c>
+      <c r="BP142" s="18"/>
     </row>
-    <row r="143" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A143" s="7">
         <v>44355</v>
       </c>
@@ -29390,12 +30523,15 @@
         <v>100.00000000000001</v>
       </c>
       <c r="BG143" s="5">
-        <v>32.983008392317259</v>
+        <f t="shared" si="11"/>
+        <v>35.561408423450764</v>
       </c>
       <c r="BH143" s="5">
+        <f t="shared" si="12"/>
         <v>14.631755598312274</v>
       </c>
       <c r="BI143" s="5">
+        <f t="shared" si="13"/>
         <v>49.222593790002321</v>
       </c>
       <c r="BJ143" s="5">
@@ -29405,16 +30541,21 @@
         <v>0.86998623703510591</v>
       </c>
       <c r="BL143" s="5">
+        <f t="shared" si="14"/>
+        <v>33.12114537064928</v>
+      </c>
+      <c r="BM143" s="5">
         <v>41.553642916244428</v>
       </c>
-      <c r="BM143" s="5">
+      <c r="BN143" s="5">
         <v>7.7526050362182781</v>
       </c>
-      <c r="BN143" s="5">
+      <c r="BO143" s="5">
         <v>5.3599587135054545</v>
       </c>
+      <c r="BP143" s="18"/>
     </row>
-    <row r="144" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A144" s="7">
         <v>44355</v>
       </c>
@@ -29588,12 +30729,15 @@
         <v>236.81398751360612</v>
       </c>
       <c r="BG144" s="5">
-        <v>67.230591949525234</v>
+        <f t="shared" si="11"/>
+        <v>72.931482173871572</v>
       </c>
       <c r="BH144" s="5">
-        <v>34.452092104671685</v>
+        <f t="shared" si="12"/>
+        <v>34.452092104671692</v>
       </c>
       <c r="BI144" s="5">
+        <f t="shared" si="13"/>
         <v>128.23532725563609</v>
       </c>
       <c r="BJ144" s="5">
@@ -29603,16 +30747,21 @@
         <v>1.4152317686731197</v>
       </c>
       <c r="BL144" s="5">
+        <f t="shared" si="14"/>
+        <v>86.560038365095537</v>
+      </c>
+      <c r="BM144" s="5">
         <v>104.92349786800719</v>
       </c>
-      <c r="BM144" s="5">
+      <c r="BN144" s="5">
         <v>23.45453495104077</v>
       </c>
-      <c r="BN144" s="5">
+      <c r="BO144" s="5">
         <v>4.4734844705736245</v>
       </c>
+      <c r="BP144" s="18"/>
     </row>
-    <row r="145" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A145" s="7">
         <v>44355</v>
       </c>
@@ -29786,12 +30935,15 @@
         <v>99.999999999999986</v>
       </c>
       <c r="BG145" s="5">
-        <v>28.389620332566921</v>
+        <f t="shared" si="11"/>
+        <v>30.796948668279693</v>
       </c>
       <c r="BH145" s="5">
+        <f t="shared" si="12"/>
         <v>14.548166037993109</v>
       </c>
       <c r="BI145" s="5">
+        <f t="shared" si="13"/>
         <v>54.150233523798221</v>
       </c>
       <c r="BJ145" s="5">
@@ -29801,16 +30953,21 @@
         <v>0.59761325060742354</v>
       </c>
       <c r="BL145" s="5">
+        <f t="shared" si="14"/>
+        <v>36.551911174639642</v>
+      </c>
+      <c r="BM145" s="5">
         <v>44.306292449038224</v>
       </c>
-      <c r="BM145" s="5">
+      <c r="BN145" s="5">
         <v>9.9042016889704172</v>
       </c>
-      <c r="BN145" s="5">
+      <c r="BO145" s="5">
         <v>4.4734844705736245</v>
       </c>
+      <c r="BP145" s="18"/>
     </row>
-    <row r="146" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A146" s="7">
         <v>44355</v>
       </c>
@@ -29984,12 +31141,15 @@
         <v>228.3427593960875</v>
       </c>
       <c r="BG146" s="5">
-        <v>95.098153236894021</v>
+        <f t="shared" si="11"/>
+        <v>103.18346744120593</v>
       </c>
       <c r="BH146" s="5">
+        <f t="shared" si="12"/>
         <v>32.292948472740441</v>
       </c>
       <c r="BI146" s="5">
+        <f t="shared" si="13"/>
         <v>90.351016893731185</v>
       </c>
       <c r="BJ146" s="5">
@@ -29999,16 +31159,21 @@
         <v>1.8132349292035437</v>
       </c>
       <c r="BL146" s="5">
+        <f t="shared" si="14"/>
+        <v>57.869809655211938</v>
+      </c>
+      <c r="BM146" s="5">
         <v>77.289234215938052</v>
       </c>
-      <c r="BM146" s="5">
+      <c r="BN146" s="5">
         <v>16.01306710384295</v>
       </c>
-      <c r="BN146" s="5">
+      <c r="BO146" s="5">
         <v>4.8266352544909736</v>
       </c>
+      <c r="BP146" s="18"/>
     </row>
-    <row r="147" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A147" s="7">
         <v>44355</v>
       </c>
@@ -30182,12 +31347,15 @@
         <v>99.999999999999986</v>
       </c>
       <c r="BG147" s="5">
-        <v>41.647106958156286</v>
+        <f t="shared" si="11"/>
+        <v>45.187974304112714</v>
       </c>
       <c r="BH147" s="5">
+        <f t="shared" si="12"/>
         <v>14.142313317990745</v>
       </c>
       <c r="BI147" s="5">
+        <f t="shared" si="13"/>
         <v>39.568154966983933</v>
       </c>
       <c r="BJ147" s="5">
@@ -30197,16 +31365,21 @@
         <v>0.79408470581643154</v>
       </c>
       <c r="BL147" s="5">
+        <f t="shared" si="14"/>
+        <v>25.34339595801675</v>
+      </c>
+      <c r="BM147" s="5">
         <v>33.847902346608123</v>
       </c>
-      <c r="BM147" s="5">
+      <c r="BN147" s="5">
         <v>7.0127325894605637</v>
       </c>
-      <c r="BN147" s="5">
+      <c r="BO147" s="5">
         <v>4.8266352544909727</v>
       </c>
+      <c r="BP147" s="18"/>
     </row>
-    <row r="148" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A148" s="7">
         <v>44355</v>
       </c>
@@ -30380,12 +31553,15 @@
         <v>222.81147285034356</v>
       </c>
       <c r="BG148" s="5">
-        <v>91.756392026385839</v>
+        <f t="shared" si="11"/>
+        <v>99.976571815284188</v>
       </c>
       <c r="BH148" s="5">
+        <f t="shared" si="12"/>
         <v>31.19719481452184</v>
       </c>
       <c r="BI148" s="5">
+        <f t="shared" si="13"/>
         <v>89.265616374559684</v>
       </c>
       <c r="BJ148" s="5">
@@ -30395,16 +31571,21 @@
         <v>1.7924921538255973</v>
       </c>
       <c r="BL148" s="5">
+        <f t="shared" si="14"/>
+        <v>56.780329286823772</v>
+      </c>
+      <c r="BM148" s="5">
         <v>76.157463736648424</v>
       </c>
-      <c r="BM148" s="5">
+      <c r="BN148" s="5">
         <v>15.393903688185617</v>
       </c>
-      <c r="BN148" s="5">
+      <c r="BO148" s="5">
         <v>4.9472482925235601</v>
       </c>
+      <c r="BP148" s="18"/>
     </row>
-    <row r="149" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A149" s="7">
         <v>44355</v>
       </c>
@@ -30578,12 +31759,15 @@
         <v>99.999999999999972</v>
       </c>
       <c r="BG149" s="5">
-        <v>41.181179251041584</v>
+        <f t="shared" si="11"/>
+        <v>44.870477510121624</v>
       </c>
       <c r="BH149" s="5">
-        <v>14.001610606234872</v>
+        <f t="shared" si="12"/>
+        <v>14.001610606234873</v>
       </c>
       <c r="BI149" s="5">
+        <f t="shared" si="13"/>
         <v>40.063294422238748</v>
       </c>
       <c r="BJ149" s="5">
@@ -30593,16 +31777,21 @@
         <v>0.8044882657499266</v>
       </c>
       <c r="BL149" s="5">
+        <f t="shared" si="14"/>
+        <v>25.483575221892444</v>
+      </c>
+      <c r="BM149" s="5">
         <v>34.180225444585311</v>
       </c>
-      <c r="BM149" s="5">
+      <c r="BN149" s="5">
         <v>6.9089367307963032</v>
       </c>
-      <c r="BN149" s="5">
+      <c r="BO149" s="5">
         <v>4.9472482925235592</v>
       </c>
+      <c r="BP149" s="18"/>
     </row>
-    <row r="150" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A150" s="7">
         <v>44355</v>
       </c>
@@ -30776,12 +31965,15 @@
         <v>258.00249331623667</v>
       </c>
       <c r="BG150" s="5">
-        <v>88.048236175916855</v>
+        <f t="shared" si="11"/>
+        <v>93.865149934544618</v>
       </c>
       <c r="BH150" s="5">
+        <f t="shared" si="12"/>
         <v>35.615822239586763</v>
       </c>
       <c r="BI150" s="5">
+        <f t="shared" si="13"/>
         <v>126.72598174784125</v>
       </c>
       <c r="BJ150" s="5">
@@ -30791,16 +31983,21 @@
         <v>1.4970483243577848</v>
       </c>
       <c r="BL150" s="5">
+        <f t="shared" si="14"/>
+        <v>84.342839068293813</v>
+      </c>
+      <c r="BM150" s="5">
         <v>103.89399345040736</v>
       </c>
-      <c r="BM150" s="5">
+      <c r="BN150" s="5">
         <v>23.866041835779935</v>
       </c>
-      <c r="BN150" s="5">
+      <c r="BO150" s="5">
         <v>4.3532142516673895</v>
       </c>
+      <c r="BP150" s="18"/>
     </row>
-    <row r="151" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A151" s="7">
         <v>44355</v>
       </c>
@@ -30974,12 +32171,15 @@
         <v>100.00000000000001</v>
       </c>
       <c r="BG151" s="5">
-        <v>34.126893521139401</v>
+        <f t="shared" si="11"/>
+        <v>36.381489468589365</v>
       </c>
       <c r="BH151" s="5">
+        <f t="shared" si="12"/>
         <v>13.804448856985282</v>
       </c>
       <c r="BI151" s="5">
+        <f t="shared" si="13"/>
         <v>49.118122898336381</v>
       </c>
       <c r="BJ151" s="5">
@@ -30989,16 +32189,21 @@
         <v>0.58024568100697982</v>
       </c>
       <c r="BL151" s="5">
+        <f t="shared" si="14"/>
+        <v>32.690706971158541</v>
+      </c>
+      <c r="BM151" s="5">
         <v>40.268600553043221</v>
       </c>
-      <c r="BM151" s="5">
+      <c r="BN151" s="5">
         <v>9.2503144171273775</v>
       </c>
-      <c r="BN151" s="5">
+      <c r="BO151" s="5">
         <v>4.3532142516673895</v>
       </c>
+      <c r="BP151" s="18"/>
     </row>
-    <row r="152" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A152" s="7">
         <v>44355</v>
       </c>
@@ -31172,12 +32377,15 @@
         <v>300.67774568607842</v>
       </c>
       <c r="BG152" s="5">
-        <v>98.736942397957677</v>
+        <f t="shared" si="11"/>
+        <v>106.09706901862444</v>
       </c>
       <c r="BH152" s="5">
+        <f t="shared" si="12"/>
         <v>41.541159370785138</v>
       </c>
       <c r="BI152" s="5">
+        <f t="shared" si="13"/>
         <v>151.0899559661932</v>
       </c>
       <c r="BJ152" s="5">
@@ -31187,16 +32395,21 @@
         <v>1.5763785766574088</v>
       </c>
       <c r="BL152" s="5">
+        <f t="shared" si="14"/>
+        <v>100.62413431336543</v>
+      </c>
+      <c r="BM152" s="5">
         <v>124.49734322656053</v>
       </c>
-      <c r="BM152" s="5">
+      <c r="BN152" s="5">
         <v>27.729525278293004</v>
       </c>
-      <c r="BN152" s="5">
+      <c r="BO152" s="5">
         <v>4.489703374908423</v>
       </c>
+      <c r="BP152" s="18"/>
     </row>
-    <row r="153" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A153" s="7">
         <v>44355</v>
       </c>
@@ -31370,12 +32583,15 @@
         <v>100</v>
       </c>
       <c r="BG153" s="5">
-        <v>32.838127801132181</v>
+        <f t="shared" si="11"/>
+        <v>35.285973285630092</v>
       </c>
       <c r="BH153" s="5">
+        <f t="shared" si="12"/>
         <v>13.81584103472561</v>
       </c>
       <c r="BI153" s="5">
+        <f t="shared" si="13"/>
         <v>50.249796712237625</v>
       </c>
       <c r="BJ153" s="5">
@@ -31385,16 +32601,21 @@
         <v>0.52427510824270362</v>
       </c>
       <c r="BL153" s="5">
+        <f t="shared" si="14"/>
+        <v>33.465773824984609</v>
+      </c>
+      <c r="BM153" s="5">
         <v>41.40557291411303</v>
       </c>
-      <c r="BM153" s="5">
+      <c r="BN153" s="5">
         <v>9.222340421310701</v>
       </c>
-      <c r="BN153" s="5">
+      <c r="BO153" s="5">
         <v>4.4897033749084239</v>
       </c>
+      <c r="BP153" s="18"/>
     </row>
-    <row r="154" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A154" s="7">
         <v>44355</v>
       </c>
@@ -31568,12 +32789,15 @@
         <v>203.56855304404178</v>
       </c>
       <c r="BG154" s="5">
-        <v>62.246629065050058</v>
+        <f t="shared" si="11"/>
+        <v>66.900245609239434</v>
       </c>
       <c r="BH154" s="5">
+        <f t="shared" si="12"/>
         <v>46.719027981278543</v>
       </c>
       <c r="BI154" s="5">
+        <f t="shared" si="13"/>
         <v>89.156300085837287</v>
       </c>
       <c r="BJ154" s="5">
@@ -31583,16 +32807,21 @@
         <v>1.4769955897210085</v>
       </c>
       <c r="BL154" s="5">
+        <f t="shared" si="14"/>
+        <v>63.828094697141957</v>
+      </c>
+      <c r="BM154" s="5">
         <v>73.770734949840445</v>
       </c>
-      <c r="BM154" s="5">
+      <c r="BN154" s="5">
         <v>15.611665887319138</v>
       </c>
-      <c r="BN154" s="5">
+      <c r="BO154" s="5">
         <v>4.7253595793234391</v>
       </c>
+      <c r="BP154" s="18"/>
     </row>
-    <row r="155" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A155" s="7">
         <v>44355</v>
       </c>
@@ -31766,12 +32995,15 @@
         <v>99.999999999999986</v>
       </c>
       <c r="BG155" s="5">
-        <v>30.577723393054264</v>
+        <f t="shared" si="11"/>
+        <v>32.863742758325571</v>
       </c>
       <c r="BH155" s="5">
-        <v>22.950022133905396</v>
+        <f t="shared" si="12"/>
+        <v>22.950022133905399</v>
       </c>
       <c r="BI155" s="5">
+        <f t="shared" si="13"/>
         <v>43.796695880894944</v>
       </c>
       <c r="BJ155" s="5">
@@ -31781,16 +33013,21 @@
         <v>0.7255519419060088</v>
       </c>
       <c r="BL155" s="5">
+        <f t="shared" si="14"/>
+        <v>31.354594677171399</v>
+      </c>
+      <c r="BM155" s="5">
         <v>36.238767651838756</v>
       </c>
-      <c r="BM155" s="5">
+      <c r="BN155" s="5">
         <v>7.6689968336816632</v>
       </c>
-      <c r="BN155" s="5">
+      <c r="BO155" s="5">
         <v>4.7253595793234373</v>
       </c>
+      <c r="BP155" s="18"/>
     </row>
-    <row r="156" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A156" s="7">
         <v>44355</v>
       </c>
@@ -31957,12 +33194,15 @@
         <v>100.00000000000001</v>
       </c>
       <c r="BG156" s="5">
-        <v>50.214923274844502</v>
+        <f t="shared" si="11"/>
+        <v>51.741800289128513</v>
       </c>
       <c r="BH156" s="5">
+        <f t="shared" si="12"/>
         <v>22.147773843154422</v>
       </c>
       <c r="BI156" s="5">
+        <f t="shared" si="13"/>
         <v>25.422353081605863</v>
       </c>
       <c r="BJ156" s="5">
@@ -31972,16 +33212,21 @@
         <v>4.9078237111898035</v>
       </c>
       <c r="BL156" s="5">
+        <f t="shared" si="14"/>
+        <v>18.006206978872399</v>
+      </c>
+      <c r="BM156" s="5">
         <v>20.37261767397446</v>
       </c>
-      <c r="BM156" s="5">
+      <c r="BN156" s="5">
         <v>1.1819122269526121</v>
       </c>
-      <c r="BN156" s="5">
+      <c r="BO156" s="5">
         <v>17.236997138528871</v>
       </c>
+      <c r="BP156" s="18"/>
     </row>
-    <row r="157" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A157" s="7">
         <v>44355</v>
       </c>
@@ -32148,12 +33393,15 @@
         <v>100.00000000000001</v>
       </c>
       <c r="BG157" s="5">
-        <v>45.987499832032135</v>
+        <f t="shared" si="11"/>
+        <v>48.570089627648855</v>
       </c>
       <c r="BH157" s="5">
-        <v>27.624329808247886</v>
+        <f t="shared" si="12"/>
+        <v>27.624329808247889</v>
       </c>
       <c r="BI157" s="5">
+        <f t="shared" si="13"/>
         <v>22.817089721710854</v>
       </c>
       <c r="BJ157" s="5">
@@ -32163,16 +33411,21 @@
         <v>5.4920450422607132</v>
       </c>
       <c r="BL157" s="5">
+        <f t="shared" si="14"/>
+        <v>14.78243123395907</v>
+      </c>
+      <c r="BM157" s="5">
         <v>17.505442158588536</v>
       </c>
-      <c r="BM157" s="5">
+      <c r="BN157" s="5">
         <v>1.849578064741531</v>
       </c>
-      <c r="BN157" s="5">
+      <c r="BO157" s="5">
         <v>9.464559778413479</v>
       </c>
+      <c r="BP157" s="18"/>
     </row>
-    <row r="158" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A158" s="7">
         <v>44377</v>
       </c>
@@ -32346,12 +33599,15 @@
         <v>169.61886450079689</v>
       </c>
       <c r="BG158" s="5">
-        <v>50.545105776175241</v>
+        <f t="shared" si="11"/>
+        <v>53.787006103311377</v>
       </c>
       <c r="BH158" s="5">
-        <v>39.862268610656372</v>
+        <f t="shared" si="12"/>
+        <v>39.862268610656365</v>
       </c>
       <c r="BI158" s="5">
+        <f t="shared" si="13"/>
         <v>75.15097829568063</v>
       </c>
       <c r="BJ158" s="5">
@@ -32361,16 +33617,21 @@
         <v>0.71557328420924082</v>
       </c>
       <c r="BL158" s="5">
+        <f t="shared" si="14"/>
+        <v>54.562218682541186</v>
+      </c>
+      <c r="BM158" s="5">
         <v>62.372192152948003</v>
       </c>
-      <c r="BM158" s="5">
+      <c r="BN158" s="5">
         <v>12.93354070940188</v>
       </c>
-      <c r="BN158" s="5">
+      <c r="BO158" s="5">
         <v>4.8225148514518761</v>
       </c>
+      <c r="BP158" s="18"/>
     </row>
-    <row r="159" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A159" s="7">
         <v>44377</v>
       </c>
@@ -32544,12 +33805,15 @@
         <v>100.00000000000001</v>
       </c>
       <c r="BG159" s="5">
-        <v>29.799224234246523</v>
+        <f t="shared" si="11"/>
+        <v>31.71050947759333</v>
       </c>
       <c r="BH159" s="5">
-        <v>23.501082104266231</v>
+        <f t="shared" si="12"/>
+        <v>23.501082104266235</v>
       </c>
       <c r="BI159" s="5">
+        <f t="shared" si="13"/>
         <v>44.305790229675523</v>
       </c>
       <c r="BJ159" s="5">
@@ -32559,16 +33823,21 @@
         <v>0.42187128555260367</v>
       </c>
       <c r="BL159" s="5">
+        <f t="shared" si="14"/>
+        <v>32.167541530903748</v>
+      </c>
+      <c r="BM159" s="5">
         <v>36.771966571356799</v>
       </c>
-      <c r="BM159" s="5">
+      <c r="BN159" s="5">
         <v>7.6250603065091953</v>
       </c>
-      <c r="BN159" s="5">
+      <c r="BO159" s="5">
         <v>4.8225148514518779</v>
       </c>
+      <c r="BP159" s="18"/>
     </row>
-    <row r="160" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A160" s="7">
         <v>44377</v>
       </c>
@@ -32735,12 +34004,15 @@
         <v>100.00000000000001</v>
       </c>
       <c r="BG160" s="5">
-        <v>46.786314678909726</v>
+        <f t="shared" si="11"/>
+        <v>48.938819519321072</v>
       </c>
       <c r="BH160" s="5">
+        <f t="shared" si="12"/>
         <v>28.264871946483019</v>
       </c>
       <c r="BI160" s="5">
+        <f t="shared" si="13"/>
         <v>21.922599793630368</v>
       </c>
       <c r="BJ160" s="5">
@@ -32750,16 +34022,21 @@
         <v>4.7221545917243457</v>
       </c>
       <c r="BL160" s="5">
+        <f t="shared" si="14"/>
+        <v>14.199042352150071</v>
+      </c>
+      <c r="BM160" s="5">
         <v>16.915933358839695</v>
       </c>
-      <c r="BM160" s="5">
+      <c r="BN160" s="5">
         <v>2.5371871123323246</v>
       </c>
-      <c r="BN160" s="5">
+      <c r="BO160" s="5">
         <v>6.6671997806616714</v>
       </c>
+      <c r="BP160" s="18"/>
     </row>
-    <row r="161" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B161" s="3"/>
       <c r="C161" t="s">
         <v>211</v>
@@ -32915,12 +34192,15 @@
         <v>100.00000000000001</v>
       </c>
       <c r="BG161" s="5">
-        <v>59.04268741457259</v>
+        <f>SUM(L161,M161,P161,Q161,S161,T161,W161,Z161,AJ161,AQ161,AV161,AY161,N161,AN161)</f>
+        <v>58.887078120071493</v>
       </c>
       <c r="BH161" s="5">
+        <f t="shared" si="12"/>
         <v>10.768058038061191</v>
       </c>
       <c r="BI161" s="5">
+        <f t="shared" si="13"/>
         <v>27.344127851960881</v>
       </c>
       <c r="BJ161" s="5">
@@ -32930,16 +34210,21 @@
         <v>2.5864788140048365</v>
       </c>
       <c r="BL161" s="5">
+        <f t="shared" si="14"/>
+        <v>11.822100725475764</v>
+      </c>
+      <c r="BM161" s="5">
         <v>24.757649037956046</v>
       </c>
-      <c r="BM161" s="5">
+      <c r="BN161" s="5">
         <v>6.879402796761644</v>
       </c>
-      <c r="BN161" s="5">
+      <c r="BO161" s="5">
         <v>3.5988078862906918</v>
       </c>
+      <c r="BP161" s="18"/>
     </row>
-    <row r="162" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B162" s="3"/>
       <c r="C162" t="s">
         <v>211</v>
@@ -33095,12 +34380,15 @@
         <v>100.00000000000001</v>
       </c>
       <c r="BG162" s="5">
-        <v>76.927442433316855</v>
+        <f t="shared" ref="BG162:BG182" si="15">SUM(L162,M162,P162,Q162,S162,T162,W162,Z162,AJ162,AQ162,AV162,AY162,N162,AN162)</f>
+        <v>77.056039219000937</v>
       </c>
       <c r="BH162" s="5">
+        <f t="shared" ref="BH162:BH182" si="16">SUM(O162,R162,U162,V162,Y162,AA162,AB162,AC162,AD162,AE162,AL162,AS162,BA162)</f>
         <v>5.7572720576693204</v>
       </c>
       <c r="BI162" s="5">
+        <f t="shared" ref="BI162:BI182" si="17">SUM(AG162,AI162,AK162,AM162,AO162,AP162,AR162,AT162,AU162,AW162,AX162,AZ162,BB162,BC162,BD162,BE162)</f>
         <v>14.282695581824987</v>
       </c>
       <c r="BJ162" s="5">
@@ -33110,16 +34398,21 @@
         <v>1.0686211768115244</v>
       </c>
       <c r="BL162" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BM162" s="5">
         <v>13.214074405013463</v>
       </c>
-      <c r="BM162" s="5">
+      <c r="BN162" s="5">
         <v>7.2497192605382965</v>
       </c>
-      <c r="BN162" s="5">
+      <c r="BO162" s="5">
         <v>1.8227015323117917</v>
       </c>
+      <c r="BP162" s="18"/>
     </row>
-    <row r="163" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B163" s="3"/>
       <c r="C163" t="s">
         <v>211</v>
@@ -33275,12 +34568,15 @@
         <v>100.00000000000001</v>
       </c>
       <c r="BG163" s="5">
-        <v>75.977019756027417</v>
+        <f t="shared" si="15"/>
+        <v>78.168254815788373</v>
       </c>
       <c r="BH163" s="5">
+        <f t="shared" si="16"/>
         <v>6.681007927054667</v>
       </c>
       <c r="BI163" s="5">
+        <f t="shared" si="17"/>
         <v>11.216987719226188</v>
       </c>
       <c r="BJ163" s="5">
@@ -33290,16 +34586,21 @@
         <v>1.0155255267589436</v>
       </c>
       <c r="BL163" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BM163" s="5">
         <v>10.201462192467243</v>
       </c>
-      <c r="BM163" s="5">
+      <c r="BN163" s="5">
         <v>10.614757464985418</v>
       </c>
-      <c r="BN163" s="5">
+      <c r="BO163" s="5">
         <v>0.96106408706166868</v>
       </c>
+      <c r="BP163" s="18"/>
     </row>
-    <row r="164" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A164" s="7">
         <v>44305</v>
       </c>
@@ -33460,12 +34761,15 @@
         <v>13.966677676169303</v>
       </c>
       <c r="BG164" s="5">
-        <v>10.928806088510077</v>
+        <f t="shared" si="15"/>
+        <v>10.911581106602553</v>
       </c>
       <c r="BH164" s="5">
+        <f t="shared" si="16"/>
         <v>1.4273327979609178</v>
       </c>
       <c r="BI164" s="5">
+        <f t="shared" si="17"/>
         <v>1.4663618415956274</v>
       </c>
       <c r="BJ164" s="5">
@@ -33475,19 +34779,23 @@
         <v>0.14887889905465429</v>
       </c>
       <c r="BL164" s="5">
+        <f t="shared" si="14"/>
+        <v>0.75482390771329266</v>
+      </c>
+      <c r="BM164" s="5">
         <v>1.2675168102631504</v>
       </c>
-      <c r="BM164" s="5">
+      <c r="BN164" s="5">
         <v>0.19884503133247719</v>
       </c>
-      <c r="BN164" s="5">
+      <c r="BO164" s="5">
         <v>6.3743951848804787</v>
       </c>
-      <c r="BO164" s="16"/>
-      <c r="BP164" s="16"/>
+      <c r="BP164" s="18"/>
       <c r="BQ164" s="16"/>
+      <c r="BR164" s="16"/>
     </row>
-    <row r="165" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A165" s="7">
         <v>44211</v>
       </c>
@@ -33648,12 +34956,15 @@
         <v>16.685940796994547</v>
       </c>
       <c r="BG165" s="5">
-        <v>12.923302803701567</v>
+        <f t="shared" si="15"/>
+        <v>12.956327425476179</v>
       </c>
       <c r="BH165" s="5">
+        <f t="shared" si="16"/>
         <v>2.200019316770776</v>
       </c>
       <c r="BI165" s="5">
+        <f t="shared" si="17"/>
         <v>1.374147895658465</v>
       </c>
       <c r="BJ165" s="5">
@@ -33663,19 +34974,23 @@
         <v>0.35133850410212619</v>
       </c>
       <c r="BL165" s="5">
+        <f t="shared" si="14"/>
+        <v>0.63647039001491867</v>
+      </c>
+      <c r="BM165" s="5">
         <v>1.1289564786642332</v>
       </c>
-      <c r="BM165" s="5">
+      <c r="BN165" s="5">
         <v>0.24519141699423208</v>
       </c>
-      <c r="BN165" s="5">
+      <c r="BO165" s="5">
         <v>4.6043882469621318</v>
       </c>
-      <c r="BO165" s="16"/>
-      <c r="BP165" s="16"/>
+      <c r="BP165" s="18"/>
       <c r="BQ165" s="16"/>
+      <c r="BR165" s="16"/>
     </row>
-    <row r="166" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A166" s="7">
         <v>44273</v>
       </c>
@@ -33836,12 +35151,15 @@
         <v>12.145683335460143</v>
       </c>
       <c r="BG166" s="5">
-        <v>5.7074029465645735</v>
+        <f t="shared" si="15"/>
+        <v>6.087466759292572</v>
       </c>
       <c r="BH166" s="5">
-        <v>3.3626820132428508</v>
+        <f t="shared" si="16"/>
+        <v>3.3626820132428512</v>
       </c>
       <c r="BI166" s="5">
+        <f t="shared" si="17"/>
         <v>2.6004777849417651</v>
       </c>
       <c r="BJ166" s="5">
@@ -33851,19 +35169,23 @@
         <v>0.33116245646321546</v>
       </c>
       <c r="BL166" s="5">
+        <f t="shared" si="14"/>
+        <v>0.54691452364233195</v>
+      </c>
+      <c r="BM166" s="5">
         <v>0.87917892289566513</v>
       </c>
-      <c r="BM166" s="5">
+      <c r="BN166" s="5">
         <v>1.7212988620461001</v>
       </c>
-      <c r="BN166" s="5">
+      <c r="BO166" s="5">
         <v>0.51076483130337358</v>
       </c>
-      <c r="BO166" s="16"/>
-      <c r="BP166" s="16"/>
+      <c r="BP166" s="18"/>
       <c r="BQ166" s="16"/>
+      <c r="BR166" s="16"/>
     </row>
-    <row r="167" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A167" s="7">
         <v>44131</v>
       </c>
@@ -34024,12 +35346,15 @@
         <v>15.526152738501425</v>
       </c>
       <c r="BG167" s="5">
-        <v>8.6800292853491356</v>
+        <f t="shared" si="15"/>
+        <v>9.4295756555123766</v>
       </c>
       <c r="BH167" s="5">
-        <v>3.6285117554408437</v>
+        <f t="shared" si="16"/>
+        <v>3.6285117554408433</v>
       </c>
       <c r="BI167" s="5">
+        <f t="shared" si="17"/>
         <v>2.3794995987196876</v>
       </c>
       <c r="BJ167" s="5">
@@ -34039,19 +35364,23 @@
         <v>0.36207192452582115</v>
       </c>
       <c r="BL167" s="5">
+        <f t="shared" si="14"/>
+        <v>0.87772253971198211</v>
+      </c>
+      <c r="BM167" s="5">
         <v>1.6201603787791132</v>
       </c>
-      <c r="BM167" s="5">
+      <c r="BN167" s="5">
         <v>0.75933921994057463</v>
       </c>
-      <c r="BN167" s="5">
+      <c r="BO167" s="5">
         <v>2.1336450643309401</v>
       </c>
-      <c r="BO167" s="16"/>
-      <c r="BP167" s="16"/>
+      <c r="BP167" s="18"/>
       <c r="BQ167" s="16"/>
+      <c r="BR167" s="16"/>
     </row>
-    <row r="168" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A168" s="7">
         <v>44355</v>
       </c>
@@ -34212,12 +35541,15 @@
         <v>15.778983879742674</v>
       </c>
       <c r="BG168" s="5">
-        <v>7.8685954348902705</v>
+        <f t="shared" si="15"/>
+        <v>8.1146473661253786</v>
       </c>
       <c r="BH168" s="5">
+        <f t="shared" si="16"/>
         <v>3.4783457413583148</v>
       </c>
       <c r="BI168" s="5">
+        <f t="shared" si="17"/>
         <v>4.078816470809512</v>
       </c>
       <c r="BJ168" s="5">
@@ -34227,19 +35559,23 @@
         <v>0.12426869201813237</v>
       </c>
       <c r="BL168" s="5">
+        <f t="shared" si="14"/>
+        <v>2.8870803844693969</v>
+      </c>
+      <c r="BM168" s="5">
         <v>3.3023145500258066</v>
       </c>
-      <c r="BM168" s="5">
+      <c r="BN168" s="5">
         <v>0.77650192078370583</v>
       </c>
-      <c r="BN168" s="5">
+      <c r="BO168" s="5">
         <v>4.252809248292464</v>
       </c>
-      <c r="BO168" s="16"/>
-      <c r="BP168" s="16"/>
+      <c r="BP168" s="18"/>
       <c r="BQ168" s="16"/>
+      <c r="BR168" s="16"/>
     </row>
-    <row r="169" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A169" s="7">
         <v>44320</v>
       </c>
@@ -34400,12 +35736,15 @@
         <v>8.1508326882920095</v>
       </c>
       <c r="BG169" s="5">
-        <v>5.0311310955767938</v>
+        <f t="shared" si="15"/>
+        <v>5.2259431801634433</v>
       </c>
       <c r="BH169" s="5">
+        <f t="shared" si="16"/>
         <v>1.2446441669983388</v>
       </c>
       <c r="BI169" s="5">
+        <f t="shared" si="17"/>
         <v>1.6235078278436113</v>
       </c>
       <c r="BJ169" s="5">
@@ -34415,19 +35754,23 @@
         <v>7.9826064451909651E-2</v>
       </c>
       <c r="BL169" s="5">
+        <f t="shared" si="14"/>
+        <v>1.0868048878026981</v>
+      </c>
+      <c r="BM169" s="5">
         <v>1.4036363291691674</v>
       </c>
-      <c r="BM169" s="5">
+      <c r="BN169" s="5">
         <v>0.21987149867444383</v>
       </c>
-      <c r="BN169" s="5">
+      <c r="BO169" s="5">
         <v>6.3838939454698647</v>
       </c>
-      <c r="BO169" s="16"/>
-      <c r="BP169" s="16"/>
+      <c r="BP169" s="18"/>
       <c r="BQ169" s="16"/>
+      <c r="BR169" s="16"/>
     </row>
-    <row r="170" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A170" s="7">
         <v>44273</v>
       </c>
@@ -34588,12 +35931,15 @@
         <v>10.942662389541159</v>
       </c>
       <c r="BG170" s="5">
-        <v>7.1059485807146858</v>
+        <f t="shared" si="15"/>
+        <v>7.488969339914413</v>
       </c>
       <c r="BH170" s="5">
+        <f t="shared" si="16"/>
         <v>1.6909932431834038</v>
       </c>
       <c r="BI170" s="5">
+        <f t="shared" si="17"/>
         <v>1.6952846936430812</v>
       </c>
       <c r="BJ170" s="5">
@@ -34603,19 +35949,23 @@
         <v>0.20724398693591506</v>
       </c>
       <c r="BL170" s="5">
+        <f t="shared" si="14"/>
+        <v>0.77951355003684475</v>
+      </c>
+      <c r="BM170" s="5">
         <v>1.1759538990053602</v>
       </c>
-      <c r="BM170" s="5">
+      <c r="BN170" s="5">
         <v>0.51933079463772114</v>
       </c>
-      <c r="BN170" s="5">
+      <c r="BO170" s="5">
         <v>2.2643638912760631</v>
       </c>
-      <c r="BO170" s="16"/>
-      <c r="BP170" s="16"/>
+      <c r="BP170" s="18"/>
       <c r="BQ170" s="16"/>
+      <c r="BR170" s="16"/>
     </row>
-    <row r="171" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A171" s="7">
         <v>44305</v>
       </c>
@@ -34776,12 +36126,15 @@
         <v>11.3685508900509</v>
       </c>
       <c r="BG171" s="5">
-        <v>8.0386043237006728</v>
+        <f t="shared" si="15"/>
+        <v>8.3458241198805272</v>
       </c>
       <c r="BH171" s="5">
+        <f t="shared" si="16"/>
         <v>1.3434489766796542</v>
       </c>
       <c r="BI171" s="5">
+        <f t="shared" si="17"/>
         <v>1.6076779630448812</v>
       </c>
       <c r="BJ171" s="5">
@@ -34791,19 +36144,23 @@
         <v>0.13001194794449783</v>
       </c>
       <c r="BL171" s="5">
+        <f t="shared" si="14"/>
+        <v>0.82630069241298798</v>
+      </c>
+      <c r="BM171" s="5">
         <v>1.324785355641124</v>
       </c>
-      <c r="BM171" s="5">
+      <c r="BN171" s="5">
         <v>0.2828926074037571</v>
       </c>
-      <c r="BN171" s="5">
+      <c r="BO171" s="5">
         <v>4.6829974377885755</v>
       </c>
-      <c r="BO171" s="16"/>
-      <c r="BP171" s="16"/>
+      <c r="BP171" s="18"/>
       <c r="BQ171" s="16"/>
+      <c r="BR171" s="16"/>
     </row>
-    <row r="172" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A172" s="7">
         <v>44232</v>
       </c>
@@ -34964,12 +36321,15 @@
         <v>10.588741902418711</v>
       </c>
       <c r="BG172" s="5">
-        <v>6.2678058542959398</v>
+        <f t="shared" si="15"/>
+        <v>6.7724475657501282</v>
       </c>
       <c r="BH172" s="5">
-        <v>1.6775425492494425</v>
+        <f t="shared" si="16"/>
+        <v>1.6775425492494427</v>
       </c>
       <c r="BI172" s="5">
+        <f t="shared" si="17"/>
         <v>2.0456711981192375</v>
       </c>
       <c r="BJ172" s="5">
@@ -34979,19 +36339,23 @@
         <v>0.22581782954473201</v>
       </c>
       <c r="BL172" s="5">
+        <f t="shared" si="14"/>
+        <v>0.74439270645836642</v>
+      </c>
+      <c r="BM172" s="5">
         <v>1.5529820112073367</v>
       </c>
-      <c r="BM172" s="5">
+      <c r="BN172" s="5">
         <v>0.49268918691190067</v>
       </c>
-      <c r="BN172" s="5">
+      <c r="BO172" s="5">
         <v>3.1520521506493511</v>
       </c>
-      <c r="BO172" s="16"/>
-      <c r="BP172" s="16"/>
+      <c r="BP172" s="18"/>
       <c r="BQ172" s="16"/>
+      <c r="BR172" s="16"/>
     </row>
-    <row r="173" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A173" s="7">
         <v>44355</v>
       </c>
@@ -35152,12 +36516,15 @@
         <v>20.801939013045676</v>
       </c>
       <c r="BG173" s="5">
-        <v>9.524101757931053</v>
+        <f t="shared" si="15"/>
+        <v>10.069404703001958</v>
       </c>
       <c r="BH173" s="5">
+        <f t="shared" si="16"/>
         <v>5.7050769320995176</v>
       </c>
       <c r="BI173" s="5">
+        <f t="shared" si="17"/>
         <v>4.8239370675254953</v>
       </c>
       <c r="BJ173" s="5">
@@ -35167,19 +36534,23 @@
         <v>0.31841625721092925</v>
       </c>
       <c r="BL173" s="5">
+        <f t="shared" si="14"/>
+        <v>3.1204497125011161</v>
+      </c>
+      <c r="BM173" s="5">
         <v>3.7485692753111777</v>
       </c>
-      <c r="BM173" s="5">
+      <c r="BN173" s="5">
         <v>1.1976073821625632</v>
       </c>
-      <c r="BN173" s="5">
+      <c r="BO173" s="5">
         <v>3.1300485711287531</v>
       </c>
-      <c r="BO173" s="16"/>
-      <c r="BP173" s="16"/>
+      <c r="BP173" s="18"/>
       <c r="BQ173" s="16"/>
+      <c r="BR173" s="16"/>
     </row>
-    <row r="174" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A174" s="7">
         <v>44159</v>
       </c>
@@ -35340,12 +36711,15 @@
         <v>19.333248672570257</v>
       </c>
       <c r="BG174" s="5">
-        <v>14.310255064783137</v>
+        <f t="shared" si="15"/>
+        <v>14.630562553111066</v>
       </c>
       <c r="BH174" s="5">
+        <f t="shared" si="16"/>
         <v>2.9444687421353883</v>
       </c>
       <c r="BI174" s="5">
+        <f t="shared" si="17"/>
         <v>1.6990930012284959</v>
       </c>
       <c r="BJ174" s="5">
@@ -35355,19 +36729,23 @@
         <v>0.27312812214144339</v>
       </c>
       <c r="BL174" s="5">
+        <f t="shared" si="14"/>
+        <v>0.80286773821069923</v>
+      </c>
+      <c r="BM174" s="5">
         <v>1.2345610165474228</v>
       </c>
-      <c r="BM174" s="5">
+      <c r="BN174" s="5">
         <v>0.6058814344492468</v>
       </c>
-      <c r="BN174" s="5">
+      <c r="BO174" s="5">
         <v>2.0376280677252523</v>
       </c>
-      <c r="BO174" s="8"/>
-      <c r="BP174" s="8"/>
+      <c r="BP174" s="18"/>
       <c r="BQ174" s="8"/>
+      <c r="BR174" s="8"/>
     </row>
-    <row r="175" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A175" s="7">
         <v>44335</v>
       </c>
@@ -35528,12 +36906,15 @@
         <v>11.169515730409477</v>
       </c>
       <c r="BG175" s="5">
-        <v>7.9598794564554813</v>
+        <f t="shared" si="15"/>
+        <v>8.1450377944953463</v>
       </c>
       <c r="BH175" s="5">
+        <f t="shared" si="16"/>
         <v>1.35865430455791</v>
       </c>
       <c r="BI175" s="5">
+        <f t="shared" si="17"/>
         <v>1.6658236313562216</v>
       </c>
       <c r="BJ175" s="5">
@@ -35543,19 +36924,23 @@
         <v>0.50338405753461468</v>
       </c>
       <c r="BL175" s="5">
+        <f t="shared" si="14"/>
+        <v>1.1422195739376426</v>
+      </c>
+      <c r="BM175" s="5">
         <v>1.4116265595320896</v>
       </c>
-      <c r="BM175" s="5">
+      <c r="BN175" s="5">
         <v>0.25419707182413198</v>
       </c>
-      <c r="BN175" s="5">
+      <c r="BO175" s="5">
         <v>5.553276241154868</v>
       </c>
-      <c r="BO175" s="8"/>
-      <c r="BP175" s="8"/>
+      <c r="BP175" s="18"/>
       <c r="BQ175" s="8"/>
+      <c r="BR175" s="8"/>
     </row>
-    <row r="176" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A176" s="7">
         <v>44320</v>
       </c>
@@ -35716,12 +37101,15 @@
         <v>10.121049615005237</v>
       </c>
       <c r="BG176" s="5">
-        <v>6.6354896220613675</v>
+        <f t="shared" si="15"/>
+        <v>6.9120163757119739</v>
       </c>
       <c r="BH176" s="5">
+        <f t="shared" si="16"/>
         <v>1.0774757158423833</v>
       </c>
       <c r="BI176" s="5">
+        <f t="shared" si="17"/>
         <v>2.1315575234508795</v>
       </c>
       <c r="BJ176" s="5">
@@ -35731,19 +37119,23 @@
         <v>0.71951245038404832</v>
       </c>
       <c r="BL176" s="5">
+        <f t="shared" si="14"/>
+        <v>1.4711798348557441</v>
+      </c>
+      <c r="BM176" s="5">
         <v>1.8944217401946921</v>
       </c>
-      <c r="BM176" s="5">
+      <c r="BN176" s="5">
         <v>0.23713578325618728</v>
       </c>
-      <c r="BN176" s="5">
+      <c r="BO176" s="5">
         <v>7.9887637124257731</v>
       </c>
-      <c r="BO176" s="8"/>
-      <c r="BP176" s="8"/>
+      <c r="BP176" s="18"/>
       <c r="BQ176" s="8"/>
+      <c r="BR176" s="8"/>
     </row>
-    <row r="177" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A177" s="7">
         <v>44377</v>
       </c>
@@ -35903,13 +37295,16 @@
       <c r="BF177" s="18">
         <v>22.749318818180537</v>
       </c>
-      <c r="BG177" s="18">
-        <v>10.48762087997892</v>
-      </c>
-      <c r="BH177" s="18">
+      <c r="BG177" s="5">
+        <f t="shared" si="15"/>
+        <v>11.187019022599571</v>
+      </c>
+      <c r="BH177" s="5">
+        <f t="shared" si="16"/>
         <v>6.4488190021497918</v>
       </c>
-      <c r="BI177" s="18">
+      <c r="BI177" s="5">
+        <f t="shared" si="17"/>
         <v>5.1134807934311732</v>
       </c>
       <c r="BJ177" s="18">
@@ -35918,20 +37313,24 @@
       <c r="BK177" s="18">
         <v>0.22589224255743184</v>
       </c>
-      <c r="BL177" s="18">
+      <c r="BL177" s="5">
+        <f t="shared" si="14"/>
+        <v>3.3063326421567978</v>
+      </c>
+      <c r="BM177" s="18">
         <v>3.996689496159012</v>
       </c>
-      <c r="BM177" s="5">
+      <c r="BN177" s="5">
         <v>2.6136088355058744</v>
       </c>
-      <c r="BN177" s="5">
+      <c r="BO177" s="5">
         <v>3.0583685223771728</v>
       </c>
-      <c r="BO177" s="8"/>
-      <c r="BP177" s="8"/>
+      <c r="BP177" s="18"/>
       <c r="BQ177" s="8"/>
+      <c r="BR177" s="8"/>
     </row>
-    <row r="178" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A178" s="7">
         <v>44232</v>
       </c>
@@ -36092,12 +37491,15 @@
         <v>8.217118337160521</v>
       </c>
       <c r="BG178" s="5">
-        <v>4.7070794275275976</v>
+        <f t="shared" si="15"/>
+        <v>4.9881311066132952</v>
       </c>
       <c r="BH178" s="5">
+        <f t="shared" si="16"/>
         <v>1.8405250557748776</v>
       </c>
       <c r="BI178" s="5">
+        <f t="shared" si="17"/>
         <v>1.3884621747723473</v>
       </c>
       <c r="BJ178" s="5">
@@ -36107,19 +37509,23 @@
         <v>0.17629303837999538</v>
       </c>
       <c r="BL178" s="5">
+        <f t="shared" si="14"/>
+        <v>0.66814985214269496</v>
+      </c>
+      <c r="BM178" s="5">
         <v>0.94403248226077174</v>
       </c>
-      <c r="BM178" s="5">
+      <c r="BN178" s="5">
         <v>0.55105039011689649</v>
       </c>
-      <c r="BN178" s="5">
+      <c r="BO178" s="5">
         <v>1.7131509190303094</v>
       </c>
-      <c r="BO178" s="8"/>
-      <c r="BP178" s="8"/>
+      <c r="BP178" s="18"/>
       <c r="BQ178" s="8"/>
+      <c r="BR178" s="8"/>
     </row>
-    <row r="179" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A179" s="7">
         <v>44335</v>
       </c>
@@ -36280,12 +37686,15 @@
         <v>9.0555602353169746</v>
       </c>
       <c r="BG179" s="5">
-        <v>4.7043959651745624</v>
+        <f t="shared" si="15"/>
+        <v>5.009044159354259</v>
       </c>
       <c r="BH179" s="5">
+        <f t="shared" si="16"/>
         <v>1.6758575201423336</v>
       </c>
       <c r="BI179" s="5">
+        <f t="shared" si="17"/>
         <v>2.3706585558203832</v>
       </c>
       <c r="BJ179" s="5">
@@ -36295,19 +37704,23 @@
         <v>7.7751608994523935E-2</v>
       </c>
       <c r="BL179" s="5">
+        <f t="shared" si="14"/>
+        <v>1.5912484186959392</v>
+      </c>
+      <c r="BM179" s="5">
         <v>2.0454844428759893</v>
       </c>
-      <c r="BM179" s="5">
+      <c r="BN179" s="5">
         <v>0.43407213960177637</v>
       </c>
-      <c r="BN179" s="5">
+      <c r="BO179" s="5">
         <v>4.712314512404653</v>
       </c>
-      <c r="BO179" s="8"/>
-      <c r="BP179" s="8"/>
+      <c r="BP179" s="18"/>
       <c r="BQ179" s="8"/>
+      <c r="BR179" s="8"/>
     </row>
-    <row r="180" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:70" x14ac:dyDescent="0.25">
       <c r="C180" t="s">
         <v>211</v>
       </c>
@@ -36463,12 +37876,15 @@
         <v>9.8041464309809392</v>
       </c>
       <c r="BG180" s="5">
-        <v>5.5557251164642611</v>
+        <f t="shared" si="15"/>
+        <v>5.8334092996028444</v>
       </c>
       <c r="BH180" s="5">
+        <f t="shared" si="16"/>
         <v>1.0637431483501247</v>
       </c>
       <c r="BI180" s="5">
+        <f t="shared" si="17"/>
         <v>2.9069939830279696</v>
       </c>
       <c r="BJ180" s="5">
@@ -36478,19 +37894,23 @@
         <v>0</v>
       </c>
       <c r="BL180" s="5">
+        <f t="shared" si="14"/>
+        <v>1.2149698314711754</v>
+      </c>
+      <c r="BM180" s="5">
         <v>2.6552636488100156</v>
       </c>
-      <c r="BM180" s="5">
+      <c r="BN180" s="5">
         <v>0.6319115522044676</v>
       </c>
-      <c r="BN180" s="5">
+      <c r="BO180" s="5">
         <v>4.2019545924535526</v>
       </c>
-      <c r="BO180" s="8"/>
-      <c r="BP180" s="8"/>
+      <c r="BP180" s="18"/>
       <c r="BQ180" s="8"/>
+      <c r="BR180" s="8"/>
     </row>
-    <row r="181" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:70" x14ac:dyDescent="0.25">
       <c r="C181" t="s">
         <v>211</v>
       </c>
@@ -36646,12 +38066,15 @@
         <v>8.4746565422149693</v>
       </c>
       <c r="BG181" s="5">
-        <v>6.357536598285523</v>
+        <f t="shared" si="15"/>
+        <v>6.6143355204404433</v>
       </c>
       <c r="BH181" s="5">
+        <f t="shared" si="16"/>
         <v>0.48961522313605826</v>
       </c>
       <c r="BI181" s="5">
+        <f t="shared" si="17"/>
         <v>1.3707057986384668</v>
       </c>
       <c r="BJ181" s="5">
@@ -36661,19 +38084,23 @@
         <v>0</v>
       </c>
       <c r="BL181" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BM181" s="5">
         <v>1.2804696856738718</v>
       </c>
-      <c r="BM181" s="5">
+      <c r="BN181" s="5">
         <v>0.45980934871683365</v>
       </c>
-      <c r="BN181" s="5">
+      <c r="BO181" s="5">
         <v>2.7847839310949478</v>
       </c>
-      <c r="BO181" s="8"/>
-      <c r="BP181" s="8"/>
+      <c r="BP181" s="18"/>
       <c r="BQ181" s="8"/>
+      <c r="BR181" s="8"/>
     </row>
-    <row r="182" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:70" x14ac:dyDescent="0.25">
       <c r="C182" t="s">
         <v>211</v>
       </c>
@@ -36829,12 +38256,15 @@
         <v>9.8400615837648644</v>
       </c>
       <c r="BG182" s="5">
-        <v>7.2895344891796299</v>
+        <f t="shared" si="15"/>
+        <v>7.9016505839400342</v>
       </c>
       <c r="BH182" s="5">
+        <f t="shared" si="16"/>
         <v>0.67054732849803511</v>
       </c>
       <c r="BI182" s="5">
+        <f t="shared" si="17"/>
         <v>1.2678636713267954</v>
       </c>
       <c r="BJ182" s="5">
@@ -36844,31 +38274,31 @@
         <v>0</v>
       </c>
       <c r="BL182" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BM182" s="5">
         <v>1.1666598906188457</v>
       </c>
-      <c r="BM182" s="5">
+      <c r="BN182" s="5">
         <v>0.77175110920598478</v>
       </c>
-      <c r="BN182" s="5">
+      <c r="BO182" s="5">
         <v>1.5117048446087267</v>
       </c>
-      <c r="BO182" s="8"/>
-      <c r="BP182" s="8"/>
+      <c r="BP182" s="18"/>
       <c r="BQ182" s="8"/>
+      <c r="BR182" s="8"/>
     </row>
-    <row r="186" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="BM186" s="18">
-        <v>1.3068044177529372</v>
-      </c>
-      <c r="BN186" s="18">
-        <v>3.0583685223771728</v>
-      </c>
+    <row r="186" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BN186" s="18"/>
+      <c r="BO186" s="18"/>
     </row>
     <row r="207" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D207" s="17"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:BN160">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:BO160">
     <sortCondition ref="A3:A160"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -52211,8 +53641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E245C632-42D9-480C-B939-D10A0B46567E}">
   <dimension ref="B3:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
